--- a/data/TestingByDate.xlsx
+++ b/data/TestingByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6044E19-CE08-48C5-A651-2A0BE04C8BC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347B1E03-5A5F-4138-82CE-9D3D82CF4F6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,13 +943,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X320"/>
+  <dimension ref="A1:X321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F323" sqref="F323"/>
+      <selection pane="bottomRight" activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,10 +2895,10 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1">
         <v>32</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1">
         <v>38</v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" s="1">
         <v>84</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="1">
         <v>55</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C49" s="1">
         <v>71</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C50" s="1">
         <v>103</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C51" s="1">
         <v>170</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" si="0"/>
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="1">
         <v>411</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" si="0"/>
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C53" s="1">
         <v>922</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" si="0"/>
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C54" s="1">
         <v>886</v>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" si="0"/>
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="C55" s="1">
         <v>1009</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" si="0"/>
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="C56" s="1">
         <v>2105</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" si="0"/>
-        <v>8567</v>
+        <v>8566</v>
       </c>
       <c r="C57" s="1">
         <v>2627</v>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" si="0"/>
-        <v>11499</v>
+        <v>11498</v>
       </c>
       <c r="C58" s="1">
         <v>2932</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" si="0"/>
-        <v>14347</v>
+        <v>14346</v>
       </c>
       <c r="C59" s="1">
         <v>2848</v>
@@ -3615,10 +3615,10 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
-        <v>17936</v>
+        <v>17934</v>
       </c>
       <c r="C60" s="1">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="D60" s="3">
         <v>388</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
-        <v>20426</v>
+        <v>20424</v>
       </c>
       <c r="C61" s="1">
         <v>2490</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
-        <v>22289</v>
+        <v>22287</v>
       </c>
       <c r="C62" s="1">
         <v>1863</v>
@@ -3750,10 +3750,10 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>25997</v>
       </c>
       <c r="C63" s="1">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="D63" s="3">
         <v>609</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
-        <v>29928</v>
+        <v>29925</v>
       </c>
       <c r="C64" s="1">
         <v>3928</v>
@@ -3840,10 +3840,10 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
-        <v>33947</v>
+        <v>33940</v>
       </c>
       <c r="C65" s="1">
-        <v>4019</v>
+        <v>4015</v>
       </c>
       <c r="D65" s="3">
         <v>746</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
-        <v>38269</v>
+        <v>38262</v>
       </c>
       <c r="C66" s="1">
         <v>4322</v>
@@ -3930,10 +3930,10 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" si="0"/>
-        <v>42548</v>
+        <v>42540</v>
       </c>
       <c r="C67" s="1">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="D67" s="3">
         <v>943</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="5">C68+B67</f>
-        <v>45291</v>
+        <v>45283</v>
       </c>
       <c r="C68" s="1">
         <v>2743</v>
@@ -4020,10 +4020,10 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" si="5"/>
-        <v>47324</v>
+        <v>47315</v>
       </c>
       <c r="C69" s="1">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D69" s="3">
         <v>523</v>
@@ -4065,10 +4065,10 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" si="5"/>
-        <v>52273</v>
+        <v>52263</v>
       </c>
       <c r="C70" s="1">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="D70" s="3">
         <v>1238</v>
@@ -4110,10 +4110,10 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" si="5"/>
-        <v>57429</v>
+        <v>57417</v>
       </c>
       <c r="C71" s="1">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="D71" s="3">
         <v>1266</v>
@@ -4155,10 +4155,10 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" si="5"/>
-        <v>62271</v>
+        <v>62258</v>
       </c>
       <c r="C72" s="1">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="D72" s="3">
         <v>1338</v>
@@ -4200,10 +4200,10 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" si="5"/>
-        <v>67390</v>
+        <v>67373</v>
       </c>
       <c r="C73" s="1">
-        <v>5119</v>
+        <v>5115</v>
       </c>
       <c r="D73" s="3">
         <v>1276</v>
@@ -4219,24 +4219,24 @@
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="J73" s="1">
         <v>596</v>
       </c>
       <c r="K73" s="1">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="L73" s="1">
         <v>1402</v>
       </c>
       <c r="Q73" s="1">
         <f t="shared" si="4"/>
-        <v>0.23332836932241252</v>
+        <v>0.23333531899684279</v>
       </c>
       <c r="T73" s="1">
         <f t="shared" ref="T73:T136" si="7">AVERAGE(K67:K73)</f>
-        <v>4796.4285714285716</v>
+        <v>4796.2857142857147</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -4245,10 +4245,10 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" si="5"/>
-        <v>73015</v>
+        <v>72997</v>
       </c>
       <c r="C74" s="1">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="D74" s="3">
         <v>1480</v>
@@ -4277,11 +4277,11 @@
       </c>
       <c r="Q74" s="1">
         <f t="shared" si="4"/>
-        <v>0.2392504316811504</v>
+        <v>0.23925720432542602</v>
       </c>
       <c r="T74" s="1">
         <f t="shared" si="7"/>
-        <v>5046.7142857142853</v>
+        <v>5046.5714285714284</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -4290,10 +4290,10 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" si="5"/>
-        <v>76945</v>
+        <v>76926</v>
       </c>
       <c r="C75" s="1">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="D75" s="3">
         <v>1162</v>
@@ -4322,11 +4322,11 @@
       </c>
       <c r="Q75" s="1">
         <f t="shared" ref="Q75:Q138" si="8">((SUM(L69:L75))/(SUM(K69:K75)))</f>
-        <v>0.24599278565810528</v>
+        <v>0.24599945755356659</v>
       </c>
       <c r="T75" s="1">
         <f t="shared" si="7"/>
-        <v>5267.2857142857147</v>
+        <v>5267.1428571428569</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -4335,10 +4335,10 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" si="5"/>
-        <v>80297</v>
+        <v>80276</v>
       </c>
       <c r="C76" s="1">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="D76" s="3">
         <v>977</v>
@@ -4367,11 +4367,11 @@
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="8"/>
-        <v>0.2486040048827364</v>
+        <v>0.24861046179419252</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" si="7"/>
-        <v>5500.4285714285716</v>
+        <v>5500.2857142857147</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -4380,10 +4380,10 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" si="5"/>
-        <v>86813</v>
+        <v>86789</v>
       </c>
       <c r="C77" s="1">
-        <v>6516</v>
+        <v>6513</v>
       </c>
       <c r="D77" s="3">
         <v>1932</v>
@@ -4412,11 +4412,11 @@
       </c>
       <c r="Q77" s="1">
         <f t="shared" si="8"/>
-        <v>0.25564689328297413</v>
+        <v>0.2556532043053224</v>
       </c>
       <c r="T77" s="1">
         <f t="shared" si="7"/>
-        <v>5787</v>
+        <v>5786.8571428571431</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -4425,10 +4425,10 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" si="5"/>
-        <v>93250</v>
+        <v>93224</v>
       </c>
       <c r="C78" s="1">
-        <v>6437</v>
+        <v>6435</v>
       </c>
       <c r="D78" s="3">
         <v>2022</v>
@@ -4457,11 +4457,11 @@
       </c>
       <c r="Q78" s="1">
         <f t="shared" si="8"/>
-        <v>0.26527952224091761</v>
+        <v>0.26528580908142951</v>
       </c>
       <c r="T78" s="1">
         <f t="shared" si="7"/>
-        <v>6028.1428571428569</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -4470,10 +4470,10 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" si="5"/>
-        <v>99902</v>
+        <v>99872</v>
       </c>
       <c r="C79" s="1">
-        <v>6652</v>
+        <v>6648</v>
       </c>
       <c r="D79" s="3">
         <v>1864</v>
@@ -4502,11 +4502,11 @@
       </c>
       <c r="Q79" s="1">
         <f t="shared" si="8"/>
-        <v>0.26645127998025619</v>
+        <v>0.26645725824545657</v>
       </c>
       <c r="T79" s="1">
         <f t="shared" si="7"/>
-        <v>6367.2857142857147</v>
+        <v>6367.1428571428569</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -4515,10 +4515,10 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" si="5"/>
-        <v>106184</v>
+        <v>106153</v>
       </c>
       <c r="C80" s="1">
-        <v>6282</v>
+        <v>6281</v>
       </c>
       <c r="D80" s="3">
         <v>1978</v>
@@ -4560,10 +4560,10 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" si="5"/>
-        <v>113616</v>
+        <v>113582</v>
       </c>
       <c r="C81" s="1">
-        <v>7432</v>
+        <v>7429</v>
       </c>
       <c r="D81" s="3">
         <v>2055</v>
@@ -4605,10 +4605,10 @@
       </c>
       <c r="B82" s="1">
         <f t="shared" si="5"/>
-        <v>117987</v>
+        <v>117951</v>
       </c>
       <c r="C82" s="1">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="D82" s="3">
         <v>1329</v>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="B83" s="1">
         <f t="shared" si="5"/>
-        <v>120914</v>
+        <v>120878</v>
       </c>
       <c r="C83" s="1">
         <v>2927</v>
@@ -4695,10 +4695,10 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" si="5"/>
-        <v>126937</v>
+        <v>126898</v>
       </c>
       <c r="C84" s="1">
-        <v>6023</v>
+        <v>6020</v>
       </c>
       <c r="D84" s="3">
         <v>1986</v>
@@ -4740,10 +4740,10 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" si="5"/>
-        <v>136655</v>
+        <v>136614</v>
       </c>
       <c r="C85" s="1">
-        <v>9718</v>
+        <v>9716</v>
       </c>
       <c r="D85" s="3">
         <v>2927</v>
@@ -4785,10 +4785,10 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" si="5"/>
-        <v>146175</v>
+        <v>146132</v>
       </c>
       <c r="C86" s="1">
-        <v>9520</v>
+        <v>9518</v>
       </c>
       <c r="D86" s="3">
         <v>2540</v>
@@ -4830,10 +4830,10 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" si="5"/>
-        <v>154848</v>
+        <v>154803</v>
       </c>
       <c r="C87" s="1">
-        <v>8673</v>
+        <v>8671</v>
       </c>
       <c r="D87" s="3">
         <v>2386</v>
@@ -4875,10 +4875,10 @@
       </c>
       <c r="B88" s="1">
         <f t="shared" si="5"/>
-        <v>165555</v>
+        <v>165505</v>
       </c>
       <c r="C88" s="1">
-        <v>10707</v>
+        <v>10702</v>
       </c>
       <c r="D88" s="3">
         <v>2990</v>
@@ -4920,10 +4920,10 @@
       </c>
       <c r="B89" s="1">
         <f t="shared" si="5"/>
-        <v>171426</v>
+        <v>171373</v>
       </c>
       <c r="C89" s="1">
-        <v>5871</v>
+        <v>5868</v>
       </c>
       <c r="D89" s="3">
         <v>1481</v>
@@ -4939,24 +4939,24 @@
         <v>1</v>
       </c>
       <c r="I89" s="1">
-        <v>6303</v>
+        <v>6302</v>
       </c>
       <c r="J89" s="1">
         <v>1175</v>
       </c>
       <c r="K89" s="1">
-        <v>7478</v>
+        <v>7477</v>
       </c>
       <c r="L89" s="1">
         <v>1708</v>
       </c>
       <c r="Q89" s="1">
         <f t="shared" si="8"/>
-        <v>0.26379186474877331</v>
+        <v>0.26379589715368856</v>
       </c>
       <c r="T89" s="1">
         <f t="shared" si="7"/>
-        <v>9345.5714285714294</v>
+        <v>9345.4285714285706</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B90" s="1">
         <f t="shared" si="5"/>
-        <v>175917</v>
+        <v>175864</v>
       </c>
       <c r="C90" s="1">
         <v>4491</v>
@@ -4997,11 +4997,11 @@
       </c>
       <c r="Q90" s="1">
         <f t="shared" si="8"/>
-        <v>0.25950214132762311</v>
+        <v>0.25950600026766996</v>
       </c>
       <c r="T90" s="1">
         <f t="shared" si="7"/>
-        <v>9606.8571428571431</v>
+        <v>9606.7142857142862</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -5010,10 +5010,10 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" si="5"/>
-        <v>186386</v>
+        <v>186327</v>
       </c>
       <c r="C91" s="1">
-        <v>10469</v>
+        <v>10463</v>
       </c>
       <c r="D91" s="3">
         <v>2686</v>
@@ -5042,11 +5042,11 @@
       </c>
       <c r="Q91" s="1">
         <f t="shared" si="8"/>
-        <v>0.25156464452374416</v>
+        <v>0.2515680972837947</v>
       </c>
       <c r="T91" s="1">
         <f t="shared" si="7"/>
-        <v>10408.571428571429</v>
+        <v>10408.428571428571</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -5055,10 +5055,10 @@
       </c>
       <c r="B92" s="1">
         <f t="shared" si="5"/>
-        <v>195579</v>
+        <v>195519</v>
       </c>
       <c r="C92" s="1">
-        <v>9193</v>
+        <v>9192</v>
       </c>
       <c r="D92" s="3">
         <v>2187</v>
@@ -5087,11 +5087,11 @@
       </c>
       <c r="Q92" s="1">
         <f t="shared" si="8"/>
-        <v>0.24291553319754486</v>
+        <v>0.24291885389326334</v>
       </c>
       <c r="T92" s="1">
         <f t="shared" si="7"/>
-        <v>10450.428571428571</v>
+        <v>10450.285714285714</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -5100,10 +5100,10 @@
       </c>
       <c r="B93" s="1">
         <f t="shared" si="5"/>
-        <v>207681</v>
+        <v>207618</v>
       </c>
       <c r="C93" s="1">
-        <v>12102</v>
+        <v>12099</v>
       </c>
       <c r="D93" s="3">
         <v>2704</v>
@@ -5132,11 +5132,11 @@
       </c>
       <c r="Q93" s="1">
         <f t="shared" si="8"/>
-        <v>0.2353749967572055</v>
+        <v>0.23537804988779784</v>
       </c>
       <c r="T93" s="1">
         <f t="shared" si="7"/>
-        <v>11013.428571428571</v>
+        <v>11013.285714285714</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -5145,10 +5145,10 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" si="5"/>
-        <v>218197</v>
+        <v>218133</v>
       </c>
       <c r="C94" s="1">
-        <v>10516</v>
+        <v>10515</v>
       </c>
       <c r="D94" s="3">
         <v>2405</v>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="Q94" s="1">
         <f t="shared" si="8"/>
-        <v>0.22903460198942646</v>
+        <v>0.22903747134212801</v>
       </c>
       <c r="T94" s="1">
         <f t="shared" si="7"/>
-        <v>11403.142857142857</v>
+        <v>11403</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -5190,10 +5190,10 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" si="5"/>
-        <v>230266</v>
+        <v>230197</v>
       </c>
       <c r="C95" s="1">
-        <v>12069</v>
+        <v>12064</v>
       </c>
       <c r="D95" s="3">
         <v>2277</v>
@@ -5222,11 +5222,11 @@
       </c>
       <c r="Q95" s="1">
         <f t="shared" si="8"/>
-        <v>0.21783889113570351</v>
+        <v>0.21784156086082651</v>
       </c>
       <c r="T95" s="1">
         <f t="shared" si="7"/>
-        <v>11656.714285714286</v>
+        <v>11656.571428571429</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -5235,10 +5235,10 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" si="5"/>
-        <v>238230</v>
+        <v>238155</v>
       </c>
       <c r="C96" s="1">
-        <v>7964</v>
+        <v>7958</v>
       </c>
       <c r="D96" s="3">
         <v>1494</v>
@@ -5280,10 +5280,10 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" si="5"/>
-        <v>243002</v>
+        <v>242926</v>
       </c>
       <c r="C97" s="1">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="D97" s="3">
         <v>844</v>
@@ -5325,10 +5325,10 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" si="5"/>
-        <v>253687</v>
+        <v>253604</v>
       </c>
       <c r="C98" s="1">
-        <v>10685</v>
+        <v>10678</v>
       </c>
       <c r="D98" s="3">
         <v>2129</v>
@@ -5370,10 +5370,10 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" si="5"/>
-        <v>265657</v>
+        <v>265569</v>
       </c>
       <c r="C99" s="1">
-        <v>11970</v>
+        <v>11965</v>
       </c>
       <c r="D99" s="3">
         <v>2104</v>
@@ -5415,10 +5415,10 @@
       </c>
       <c r="B100" s="1">
         <f t="shared" si="5"/>
-        <v>277953</v>
+        <v>277860</v>
       </c>
       <c r="C100" s="1">
-        <v>12296</v>
+        <v>12291</v>
       </c>
       <c r="D100" s="3">
         <v>2186</v>
@@ -5460,10 +5460,10 @@
       </c>
       <c r="B101" s="1">
         <f t="shared" si="5"/>
-        <v>291214</v>
+        <v>291118</v>
       </c>
       <c r="C101" s="1">
-        <v>13261</v>
+        <v>13258</v>
       </c>
       <c r="D101" s="3">
         <v>2047</v>
@@ -5505,10 +5505,10 @@
       </c>
       <c r="B102" s="1">
         <f t="shared" si="5"/>
-        <v>304880</v>
+        <v>304781</v>
       </c>
       <c r="C102" s="1">
-        <v>13666</v>
+        <v>13663</v>
       </c>
       <c r="D102" s="3">
         <v>2081</v>
@@ -5550,10 +5550,10 @@
       </c>
       <c r="B103" s="1">
         <f t="shared" si="5"/>
-        <v>311936</v>
+        <v>311834</v>
       </c>
       <c r="C103" s="1">
-        <v>7056</v>
+        <v>7053</v>
       </c>
       <c r="D103" s="3">
         <v>1029</v>
@@ -5595,10 +5595,10 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" si="5"/>
-        <v>316921</v>
+        <v>316818</v>
       </c>
       <c r="C104" s="1">
-        <v>4985</v>
+        <v>4984</v>
       </c>
       <c r="D104" s="3">
         <v>734</v>
@@ -5640,10 +5640,10 @@
       </c>
       <c r="B105" s="1">
         <f t="shared" si="5"/>
-        <v>328612</v>
+        <v>328507</v>
       </c>
       <c r="C105" s="1">
-        <v>11691</v>
+        <v>11689</v>
       </c>
       <c r="D105" s="3">
         <v>1879</v>
@@ -5685,10 +5685,10 @@
       </c>
       <c r="B106" s="1">
         <f t="shared" si="5"/>
-        <v>340854</v>
+        <v>340746</v>
       </c>
       <c r="C106" s="1">
-        <v>12242</v>
+        <v>12239</v>
       </c>
       <c r="D106" s="3">
         <v>1735</v>
@@ -5730,10 +5730,10 @@
       </c>
       <c r="B107" s="1">
         <f t="shared" si="5"/>
-        <v>353821</v>
+        <v>353709</v>
       </c>
       <c r="C107" s="1">
-        <v>12967</v>
+        <v>12963</v>
       </c>
       <c r="D107" s="3">
         <v>1699</v>
@@ -5775,10 +5775,10 @@
       </c>
       <c r="B108" s="1">
         <f t="shared" si="5"/>
-        <v>366998</v>
+        <v>366879</v>
       </c>
       <c r="C108" s="1">
-        <v>13177</v>
+        <v>13170</v>
       </c>
       <c r="D108" s="3">
         <v>1677</v>
@@ -5794,10 +5794,10 @@
         <v>3</v>
       </c>
       <c r="I108" s="1">
-        <v>13377</v>
+        <v>13376</v>
       </c>
       <c r="J108" s="1">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="K108" s="1">
         <v>17127</v>
@@ -5820,10 +5820,10 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="5"/>
-        <v>379927</v>
+        <v>379803</v>
       </c>
       <c r="C109" s="1">
-        <v>12929</v>
+        <v>12924</v>
       </c>
       <c r="D109" s="3">
         <v>1454</v>
@@ -5839,10 +5839,10 @@
         <v>3</v>
       </c>
       <c r="I109" s="1">
-        <v>13163</v>
+        <v>13162</v>
       </c>
       <c r="J109" s="1">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="K109" s="1">
         <v>16958</v>
@@ -5865,10 +5865,10 @@
       </c>
       <c r="B110" s="1">
         <f t="shared" si="5"/>
-        <v>385604</v>
+        <v>385478</v>
       </c>
       <c r="C110" s="1">
-        <v>5677</v>
+        <v>5675</v>
       </c>
       <c r="D110" s="3">
         <v>683</v>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="B111" s="1">
         <f t="shared" si="5"/>
-        <v>388685</v>
+        <v>388559</v>
       </c>
       <c r="C111" s="1">
         <v>3081</v>
@@ -5955,10 +5955,10 @@
       </c>
       <c r="B112" s="1">
         <f t="shared" si="5"/>
-        <v>400137</v>
+        <v>400007</v>
       </c>
       <c r="C112" s="1">
-        <v>11452</v>
+        <v>11448</v>
       </c>
       <c r="D112" s="3">
         <v>1306</v>
@@ -6000,13 +6000,13 @@
       </c>
       <c r="B113" s="1">
         <f t="shared" si="5"/>
-        <v>413086</v>
+        <v>412952</v>
       </c>
       <c r="C113" s="1">
-        <v>12949</v>
+        <v>12945</v>
       </c>
       <c r="D113" s="3">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -6019,24 +6019,24 @@
         <v>3</v>
       </c>
       <c r="I113" s="1">
-        <v>13028</v>
+        <v>13029</v>
       </c>
       <c r="J113" s="1">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="K113" s="1">
-        <v>17382</v>
+        <v>17384</v>
       </c>
       <c r="L113" s="1">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="Q113" s="1">
         <f t="shared" si="8"/>
-        <v>0.13811729198105843</v>
+        <v>0.13812482437790752</v>
       </c>
       <c r="T113" s="1">
         <f t="shared" si="7"/>
-        <v>13726.428571428571</v>
+        <v>13726.714285714286</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -6045,10 +6045,10 @@
       </c>
       <c r="B114" s="1">
         <f t="shared" si="5"/>
-        <v>426708</v>
+        <v>426567</v>
       </c>
       <c r="C114" s="1">
-        <v>13622</v>
+        <v>13615</v>
       </c>
       <c r="D114" s="3">
         <v>1313</v>
@@ -6077,11 +6077,11 @@
       </c>
       <c r="Q114" s="1">
         <f t="shared" si="8"/>
-        <v>0.1325428709402324</v>
+        <v>0.13255042176535256</v>
       </c>
       <c r="T114" s="1">
         <f t="shared" si="7"/>
-        <v>13903.857142857143</v>
+        <v>13904.142857142857</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -6090,10 +6090,10 @@
       </c>
       <c r="B115" s="1">
         <f t="shared" si="5"/>
-        <v>439728</v>
+        <v>439583</v>
       </c>
       <c r="C115" s="1">
-        <v>13020</v>
+        <v>13016</v>
       </c>
       <c r="D115" s="3">
         <v>1315</v>
@@ -6122,11 +6122,11 @@
       </c>
       <c r="Q115" s="1">
         <f t="shared" si="8"/>
-        <v>0.12825610230975754</v>
+        <v>0.12826372094929706</v>
       </c>
       <c r="T115" s="1">
         <f t="shared" si="7"/>
-        <v>13940.857142857143</v>
+        <v>13941.142857142857</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -6135,10 +6135,10 @@
       </c>
       <c r="B116" s="1">
         <f t="shared" si="5"/>
-        <v>453153</v>
+        <v>453002</v>
       </c>
       <c r="C116" s="1">
-        <v>13425</v>
+        <v>13419</v>
       </c>
       <c r="D116" s="3">
         <v>1105</v>
@@ -6167,11 +6167,11 @@
       </c>
       <c r="Q116" s="1">
         <f t="shared" si="8"/>
-        <v>0.12336224583070954</v>
+        <v>0.12336989640463132</v>
       </c>
       <c r="T116" s="1">
         <f t="shared" si="7"/>
-        <v>14065.428571428571</v>
+        <v>14065.714285714286</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -6180,10 +6180,10 @@
       </c>
       <c r="B117" s="1">
         <f t="shared" si="5"/>
-        <v>460102</v>
+        <v>459949</v>
       </c>
       <c r="C117" s="1">
-        <v>6949</v>
+        <v>6947</v>
       </c>
       <c r="D117" s="3">
         <v>645</v>
@@ -6212,11 +6212,11 @@
       </c>
       <c r="Q117" s="1">
         <f t="shared" si="8"/>
-        <v>0.12143071235887701</v>
+        <v>0.12143827678535747</v>
       </c>
       <c r="T117" s="1">
         <f t="shared" si="7"/>
-        <v>14298.571428571429</v>
+        <v>14298.857142857143</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -6225,10 +6225,10 @@
       </c>
       <c r="B118" s="1">
         <f t="shared" si="5"/>
-        <v>464139</v>
+        <v>463984</v>
       </c>
       <c r="C118" s="1">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="D118" s="3">
         <v>363</v>
@@ -6260,11 +6260,11 @@
       </c>
       <c r="Q118" s="1">
         <f t="shared" si="8"/>
-        <v>0.11912299908275882</v>
+        <v>0.11913051196828184</v>
       </c>
       <c r="T118" s="1">
         <f t="shared" si="7"/>
-        <v>14484.428571428571</v>
+        <v>14484.714285714286</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -6273,10 +6273,10 @@
       </c>
       <c r="B119" s="1">
         <f t="shared" si="5"/>
-        <v>477201</v>
+        <v>477040</v>
       </c>
       <c r="C119" s="1">
-        <v>13062</v>
+        <v>13056</v>
       </c>
       <c r="D119" s="3">
         <v>1314</v>
@@ -6308,11 +6308,11 @@
       </c>
       <c r="Q119" s="1">
         <f t="shared" si="8"/>
-        <v>0.11703414181089945</v>
+        <v>0.11704155178251827</v>
       </c>
       <c r="T119" s="1">
         <f t="shared" si="7"/>
-        <v>14766.142857142857</v>
+        <v>14766.428571428571</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -6321,10 +6321,10 @@
       </c>
       <c r="B120" s="1">
         <f t="shared" si="5"/>
-        <v>489258</v>
+        <v>489091</v>
       </c>
       <c r="C120" s="1">
-        <v>12057</v>
+        <v>12051</v>
       </c>
       <c r="D120" s="3">
         <v>1073</v>
@@ -6343,10 +6343,10 @@
         <v>91</v>
       </c>
       <c r="I120" s="1">
-        <v>12150</v>
+        <v>12149</v>
       </c>
       <c r="J120" s="1">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="K120" s="1">
         <v>16697</v>
@@ -6369,10 +6369,10 @@
       </c>
       <c r="B121" s="1">
         <f t="shared" si="5"/>
-        <v>501814</v>
+        <v>501645</v>
       </c>
       <c r="C121" s="1">
-        <v>12556</v>
+        <v>12554</v>
       </c>
       <c r="D121" s="3">
         <v>1011</v>
@@ -6417,10 +6417,10 @@
       </c>
       <c r="B122" s="1">
         <f t="shared" si="5"/>
-        <v>513238</v>
+        <v>513067</v>
       </c>
       <c r="C122" s="1">
-        <v>11424</v>
+        <v>11422</v>
       </c>
       <c r="D122" s="3">
         <v>965</v>
@@ -6465,10 +6465,10 @@
       </c>
       <c r="B123" s="1">
         <f t="shared" si="5"/>
-        <v>524062</v>
+        <v>523887</v>
       </c>
       <c r="C123" s="1">
-        <v>10824</v>
+        <v>10820</v>
       </c>
       <c r="D123" s="3">
         <v>863</v>
@@ -6487,10 +6487,10 @@
         <v>685</v>
       </c>
       <c r="I123" s="1">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="J123" s="1">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="K123" s="1">
         <v>14830</v>
@@ -6513,10 +6513,10 @@
       </c>
       <c r="B124" s="1">
         <f t="shared" si="5"/>
-        <v>528921</v>
+        <v>528745</v>
       </c>
       <c r="C124" s="1">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="D124" s="3">
         <v>388</v>
@@ -6561,10 +6561,10 @@
       </c>
       <c r="B125" s="1">
         <f t="shared" si="5"/>
-        <v>532950</v>
+        <v>532773</v>
       </c>
       <c r="C125" s="1">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="D125" s="3">
         <v>302</v>
@@ -6609,10 +6609,10 @@
       </c>
       <c r="B126" s="1">
         <f t="shared" si="5"/>
-        <v>536004</v>
+        <v>535826</v>
       </c>
       <c r="C126" s="1">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D126" s="3">
         <v>198</v>
@@ -6657,10 +6657,10 @@
       </c>
       <c r="B127" s="1">
         <f t="shared" si="5"/>
-        <v>546997</v>
+        <v>546816</v>
       </c>
       <c r="C127" s="1">
-        <v>10993</v>
+        <v>10990</v>
       </c>
       <c r="D127" s="3">
         <v>864</v>
@@ -6705,10 +6705,10 @@
       </c>
       <c r="B128" s="1">
         <f t="shared" si="5"/>
-        <v>556997</v>
+        <v>556810</v>
       </c>
       <c r="C128" s="1">
-        <v>10000</v>
+        <v>9994</v>
       </c>
       <c r="D128" s="3">
         <v>687</v>
@@ -6727,10 +6727,10 @@
         <v>1849</v>
       </c>
       <c r="I128" s="1">
-        <v>10045</v>
+        <v>10044</v>
       </c>
       <c r="J128" s="1">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="K128" s="1">
         <v>13964</v>
@@ -6753,10 +6753,10 @@
       </c>
       <c r="B129" s="1">
         <f t="shared" si="5"/>
-        <v>566177</v>
+        <v>565987</v>
       </c>
       <c r="C129" s="1">
-        <v>9180</v>
+        <v>9177</v>
       </c>
       <c r="D129" s="3">
         <v>639</v>
@@ -6801,10 +6801,10 @@
       </c>
       <c r="B130" s="1">
         <f t="shared" si="5"/>
-        <v>576198</v>
+        <v>576001</v>
       </c>
       <c r="C130" s="1">
-        <v>10021</v>
+        <v>10014</v>
       </c>
       <c r="D130" s="3">
         <v>530</v>
@@ -6849,10 +6849,10 @@
       </c>
       <c r="B131" s="1">
         <f t="shared" si="5"/>
-        <v>581831</v>
+        <v>581632</v>
       </c>
       <c r="C131" s="1">
-        <v>5633</v>
+        <v>5631</v>
       </c>
       <c r="D131" s="3">
         <v>271</v>
@@ -6897,10 +6897,10 @@
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="9">C132+B131</f>
-        <v>585478</v>
+        <v>585278</v>
       </c>
       <c r="C132" s="1">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="D132" s="3">
         <v>161</v>
@@ -6945,10 +6945,10 @@
       </c>
       <c r="B133" s="1">
         <f t="shared" si="9"/>
-        <v>594788</v>
+        <v>594583</v>
       </c>
       <c r="C133" s="1">
-        <v>9310</v>
+        <v>9305</v>
       </c>
       <c r="D133" s="3">
         <v>508</v>
@@ -6993,10 +6993,10 @@
       </c>
       <c r="B134" s="1">
         <f t="shared" si="9"/>
-        <v>604090</v>
+        <v>603883</v>
       </c>
       <c r="C134" s="1">
-        <v>9302</v>
+        <v>9300</v>
       </c>
       <c r="D134" s="3">
         <v>447</v>
@@ -7041,10 +7041,10 @@
       </c>
       <c r="B135" s="1">
         <f t="shared" si="9"/>
-        <v>613527</v>
+        <v>613319</v>
       </c>
       <c r="C135" s="1">
-        <v>9437</v>
+        <v>9436</v>
       </c>
       <c r="D135" s="3">
         <v>459</v>
@@ -7089,10 +7089,10 @@
       </c>
       <c r="B136" s="1">
         <f t="shared" si="9"/>
-        <v>622073</v>
+        <v>621864</v>
       </c>
       <c r="C136" s="1">
-        <v>8546</v>
+        <v>8545</v>
       </c>
       <c r="D136" s="3">
         <v>379</v>
@@ -7137,10 +7137,10 @@
       </c>
       <c r="B137" s="1">
         <f t="shared" si="9"/>
-        <v>630560</v>
+        <v>630350</v>
       </c>
       <c r="C137" s="1">
-        <v>8487</v>
+        <v>8486</v>
       </c>
       <c r="D137" s="3">
         <v>337</v>
@@ -7185,10 +7185,10 @@
       </c>
       <c r="B138" s="1">
         <f t="shared" si="9"/>
-        <v>635115</v>
+        <v>634901</v>
       </c>
       <c r="C138" s="1">
-        <v>4555</v>
+        <v>4551</v>
       </c>
       <c r="D138" s="3">
         <v>148</v>
@@ -7233,10 +7233,10 @@
       </c>
       <c r="B139" s="1">
         <f t="shared" si="9"/>
-        <v>638663</v>
+        <v>638448</v>
       </c>
       <c r="C139" s="1">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="D139" s="3">
         <v>151</v>
@@ -7281,10 +7281,10 @@
       </c>
       <c r="B140" s="1">
         <f t="shared" si="9"/>
-        <v>649364</v>
+        <v>649145</v>
       </c>
       <c r="C140" s="1">
-        <v>10701</v>
+        <v>10697</v>
       </c>
       <c r="D140" s="3">
         <v>353</v>
@@ -7329,10 +7329,10 @@
       </c>
       <c r="B141" s="1">
         <f t="shared" si="9"/>
-        <v>660368</v>
+        <v>660146</v>
       </c>
       <c r="C141" s="1">
-        <v>11004</v>
+        <v>11001</v>
       </c>
       <c r="D141" s="3">
         <v>343</v>
@@ -7377,10 +7377,10 @@
       </c>
       <c r="B142" s="1">
         <f t="shared" si="9"/>
-        <v>670595</v>
+        <v>670371</v>
       </c>
       <c r="C142" s="1">
-        <v>10227</v>
+        <v>10225</v>
       </c>
       <c r="D142" s="3">
         <v>259</v>
@@ -7425,10 +7425,10 @@
       </c>
       <c r="B143" s="1">
         <f t="shared" si="9"/>
-        <v>680863</v>
+        <v>680636</v>
       </c>
       <c r="C143" s="1">
-        <v>10268</v>
+        <v>10265</v>
       </c>
       <c r="D143" s="3">
         <v>226</v>
@@ -7473,10 +7473,10 @@
       </c>
       <c r="B144" s="1">
         <f t="shared" si="9"/>
-        <v>691045</v>
+        <v>690817</v>
       </c>
       <c r="C144" s="1">
-        <v>10182</v>
+        <v>10181</v>
       </c>
       <c r="D144" s="3">
         <v>254</v>
@@ -7521,10 +7521,10 @@
       </c>
       <c r="B145" s="1">
         <f t="shared" si="9"/>
-        <v>695897</v>
+        <v>695668</v>
       </c>
       <c r="C145" s="1">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="D145" s="3">
         <v>97</v>
@@ -7543,10 +7543,10 @@
         <v>5251</v>
       </c>
       <c r="I145" s="1">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="J145" s="1">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="K145" s="1">
         <v>6653</v>
@@ -7569,10 +7569,10 @@
       </c>
       <c r="B146" s="1">
         <f t="shared" si="9"/>
-        <v>699656</v>
+        <v>699426</v>
       </c>
       <c r="C146" s="1">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="D146" s="3">
         <v>76</v>
@@ -7617,10 +7617,10 @@
       </c>
       <c r="B147" s="1">
         <f t="shared" si="9"/>
-        <v>710428</v>
+        <v>710196</v>
       </c>
       <c r="C147" s="1">
-        <v>10772</v>
+        <v>10770</v>
       </c>
       <c r="D147" s="3">
         <v>235</v>
@@ -7639,10 +7639,10 @@
         <v>5923</v>
       </c>
       <c r="I147" s="1">
-        <v>10910</v>
+        <v>10909</v>
       </c>
       <c r="J147" s="1">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="K147" s="1">
         <v>14538</v>
@@ -7665,10 +7665,10 @@
       </c>
       <c r="B148" s="1">
         <f t="shared" si="9"/>
-        <v>720888</v>
+        <v>720652</v>
       </c>
       <c r="C148" s="1">
-        <v>10460</v>
+        <v>10456</v>
       </c>
       <c r="D148" s="3">
         <v>198</v>
@@ -7713,10 +7713,10 @@
       </c>
       <c r="B149" s="1">
         <f t="shared" si="9"/>
-        <v>735481</v>
+        <v>735240</v>
       </c>
       <c r="C149" s="1">
-        <v>14593</v>
+        <v>14588</v>
       </c>
       <c r="D149" s="3">
         <v>249</v>
@@ -7761,10 +7761,10 @@
       </c>
       <c r="B150" s="1">
         <f t="shared" si="9"/>
-        <v>750265</v>
+        <v>750017</v>
       </c>
       <c r="C150" s="1">
-        <v>14784</v>
+        <v>14777</v>
       </c>
       <c r="D150" s="3">
         <v>240</v>
@@ -7809,10 +7809,10 @@
       </c>
       <c r="B151" s="1">
         <f t="shared" si="9"/>
-        <v>759379</v>
+        <v>759126</v>
       </c>
       <c r="C151" s="1">
-        <v>9114</v>
+        <v>9109</v>
       </c>
       <c r="D151" s="3">
         <v>175</v>
@@ -7857,10 +7857,10 @@
       </c>
       <c r="B152" s="1">
         <f t="shared" si="9"/>
-        <v>764814</v>
+        <v>764560</v>
       </c>
       <c r="C152" s="1">
-        <v>5435</v>
+        <v>5434</v>
       </c>
       <c r="D152" s="3">
         <v>93</v>
@@ -7905,10 +7905,10 @@
       </c>
       <c r="B153" s="1">
         <f t="shared" si="9"/>
-        <v>768753</v>
+        <v>768498</v>
       </c>
       <c r="C153" s="1">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="D153" s="3">
         <v>79</v>
@@ -7953,10 +7953,10 @@
       </c>
       <c r="B154" s="1">
         <f t="shared" si="9"/>
-        <v>778960</v>
+        <v>778702</v>
       </c>
       <c r="C154" s="1">
-        <v>10207</v>
+        <v>10204</v>
       </c>
       <c r="D154" s="3">
         <v>225</v>
@@ -7975,10 +7975,10 @@
         <v>9226</v>
       </c>
       <c r="I154" s="1">
-        <v>10316</v>
+        <v>10315</v>
       </c>
       <c r="J154" s="1">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="K154" s="1">
         <v>14061</v>
@@ -8001,10 +8001,10 @@
       </c>
       <c r="B155" s="1">
         <f t="shared" si="9"/>
-        <v>789616</v>
+        <v>789354</v>
       </c>
       <c r="C155" s="1">
-        <v>10656</v>
+        <v>10652</v>
       </c>
       <c r="D155" s="3">
         <v>189</v>
@@ -8023,10 +8023,10 @@
         <v>9870</v>
       </c>
       <c r="I155" s="1">
-        <v>10795</v>
+        <v>10794</v>
       </c>
       <c r="J155" s="1">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="K155" s="1">
         <v>14588</v>
@@ -8049,10 +8049,10 @@
       </c>
       <c r="B156" s="1">
         <f t="shared" si="9"/>
-        <v>800190</v>
+        <v>799927</v>
       </c>
       <c r="C156" s="1">
-        <v>10574</v>
+        <v>10573</v>
       </c>
       <c r="D156" s="3">
         <v>210</v>
@@ -8097,10 +8097,10 @@
       </c>
       <c r="B157" s="1">
         <f t="shared" si="9"/>
-        <v>809755</v>
+        <v>809490</v>
       </c>
       <c r="C157" s="1">
-        <v>9565</v>
+        <v>9563</v>
       </c>
       <c r="D157" s="3">
         <v>206</v>
@@ -8119,10 +8119,10 @@
         <v>11066</v>
       </c>
       <c r="I157" s="1">
-        <v>9676</v>
+        <v>9675</v>
       </c>
       <c r="J157" s="1">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="K157" s="1">
         <v>12943</v>
@@ -8145,10 +8145,10 @@
       </c>
       <c r="B158" s="1">
         <f t="shared" si="9"/>
-        <v>820143</v>
+        <v>819877</v>
       </c>
       <c r="C158" s="1">
-        <v>10388</v>
+        <v>10387</v>
       </c>
       <c r="D158" s="3">
         <v>198</v>
@@ -8193,10 +8193,10 @@
       </c>
       <c r="B159" s="1">
         <f t="shared" si="9"/>
-        <v>826142</v>
+        <v>825875</v>
       </c>
       <c r="C159" s="1">
-        <v>5999</v>
+        <v>5998</v>
       </c>
       <c r="D159" s="3">
         <v>134</v>
@@ -8241,10 +8241,10 @@
       </c>
       <c r="B160" s="1">
         <f t="shared" si="9"/>
-        <v>830867</v>
+        <v>830597</v>
       </c>
       <c r="C160" s="1">
-        <v>4725</v>
+        <v>4722</v>
       </c>
       <c r="D160" s="3">
         <v>71</v>
@@ -8289,10 +8289,10 @@
       </c>
       <c r="B161" s="1">
         <f t="shared" si="9"/>
-        <v>843087</v>
+        <v>842815</v>
       </c>
       <c r="C161" s="1">
-        <v>12220</v>
+        <v>12218</v>
       </c>
       <c r="D161" s="3">
         <v>205</v>
@@ -8337,10 +8337,10 @@
       </c>
       <c r="B162" s="1">
         <f t="shared" si="9"/>
-        <v>855487</v>
+        <v>855212</v>
       </c>
       <c r="C162" s="1">
-        <v>12400</v>
+        <v>12397</v>
       </c>
       <c r="D162" s="3">
         <v>220</v>
@@ -8359,10 +8359,10 @@
         <v>15046</v>
       </c>
       <c r="I162" s="1">
-        <v>12541</v>
+        <v>12540</v>
       </c>
       <c r="J162" s="1">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="K162" s="1">
         <v>16513</v>
@@ -8385,10 +8385,10 @@
       </c>
       <c r="B163" s="1">
         <f t="shared" si="9"/>
-        <v>866479</v>
+        <v>866200</v>
       </c>
       <c r="C163" s="1">
-        <v>10992</v>
+        <v>10988</v>
       </c>
       <c r="D163" s="3">
         <v>216</v>
@@ -8407,10 +8407,10 @@
         <v>16066</v>
       </c>
       <c r="I163" s="1">
-        <v>11159</v>
+        <v>11158</v>
       </c>
       <c r="J163" s="1">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="K163" s="1">
         <v>14976</v>
@@ -8433,10 +8433,10 @@
       </c>
       <c r="B164" s="1">
         <f t="shared" si="9"/>
-        <v>876893</v>
+        <v>876613</v>
       </c>
       <c r="C164" s="1">
-        <v>10414</v>
+        <v>10413</v>
       </c>
       <c r="D164" s="3">
         <v>226</v>
@@ -8481,10 +8481,10 @@
       </c>
       <c r="B165" s="1">
         <f t="shared" si="9"/>
-        <v>883117</v>
+        <v>882835</v>
       </c>
       <c r="C165" s="1">
-        <v>6224</v>
+        <v>6222</v>
       </c>
       <c r="D165" s="3">
         <v>99</v>
@@ -8529,10 +8529,10 @@
       </c>
       <c r="B166" s="1">
         <f t="shared" si="9"/>
-        <v>886221</v>
+        <v>885938</v>
       </c>
       <c r="C166" s="1">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="D166" s="3">
         <v>60</v>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B167" s="1">
         <f t="shared" si="9"/>
-        <v>891181</v>
+        <v>890898</v>
       </c>
       <c r="C167" s="1">
         <v>4960</v>
@@ -8625,10 +8625,10 @@
       </c>
       <c r="B168" s="1">
         <f t="shared" si="9"/>
-        <v>903930</v>
+        <v>903643</v>
       </c>
       <c r="C168" s="1">
-        <v>12749</v>
+        <v>12745</v>
       </c>
       <c r="D168" s="3">
         <v>237</v>
@@ -8673,10 +8673,10 @@
       </c>
       <c r="B169" s="1">
         <f t="shared" si="9"/>
-        <v>918993</v>
+        <v>918701</v>
       </c>
       <c r="C169" s="1">
-        <v>15063</v>
+        <v>15058</v>
       </c>
       <c r="D169" s="3">
         <v>242</v>
@@ -8721,10 +8721,10 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="9"/>
-        <v>933389</v>
+        <v>933091</v>
       </c>
       <c r="C170" s="1">
-        <v>14396</v>
+        <v>14390</v>
       </c>
       <c r="D170" s="3">
         <v>216</v>
@@ -8743,10 +8743,10 @@
         <v>22880</v>
       </c>
       <c r="I170" s="1">
-        <v>14597</v>
+        <v>14596</v>
       </c>
       <c r="J170" s="1">
-        <v>5501</v>
+        <v>5502</v>
       </c>
       <c r="K170" s="1">
         <v>20098</v>
@@ -8769,10 +8769,10 @@
       </c>
       <c r="B171" s="1">
         <f t="shared" si="9"/>
-        <v>946302</v>
+        <v>945998</v>
       </c>
       <c r="C171" s="1">
-        <v>12913</v>
+        <v>12907</v>
       </c>
       <c r="D171" s="3">
         <v>254</v>
@@ -8817,10 +8817,10 @@
       </c>
       <c r="B172" s="1">
         <f t="shared" si="9"/>
-        <v>959772</v>
+        <v>959461</v>
       </c>
       <c r="C172" s="1">
-        <v>13470</v>
+        <v>13463</v>
       </c>
       <c r="D172" s="3">
         <v>228</v>
@@ -8839,10 +8839,10 @@
         <v>25344</v>
       </c>
       <c r="I172" s="1">
-        <v>13648</v>
+        <v>13647</v>
       </c>
       <c r="J172" s="1">
-        <v>5361</v>
+        <v>5362</v>
       </c>
       <c r="K172" s="1">
         <v>19009</v>
@@ -8865,10 +8865,10 @@
       </c>
       <c r="B173" s="1">
         <f t="shared" si="9"/>
-        <v>967473</v>
+        <v>967157</v>
       </c>
       <c r="C173" s="1">
-        <v>7701</v>
+        <v>7696</v>
       </c>
       <c r="D173" s="3">
         <v>117</v>
@@ -8913,10 +8913,10 @@
       </c>
       <c r="B174" s="1">
         <f t="shared" si="9"/>
-        <v>972768</v>
+        <v>972451</v>
       </c>
       <c r="C174" s="1">
-        <v>5295</v>
+        <v>5294</v>
       </c>
       <c r="D174" s="3">
         <v>87</v>
@@ -8961,10 +8961,10 @@
       </c>
       <c r="B175" s="1">
         <f t="shared" si="9"/>
-        <v>987851</v>
+        <v>987530</v>
       </c>
       <c r="C175" s="1">
-        <v>15083</v>
+        <v>15079</v>
       </c>
       <c r="D175" s="3">
         <v>266</v>
@@ -8983,10 +8983,10 @@
         <v>27905</v>
       </c>
       <c r="I175" s="1">
-        <v>15283</v>
+        <v>15282</v>
       </c>
       <c r="J175" s="1">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="K175" s="1">
         <v>21027</v>
@@ -9009,10 +9009,10 @@
       </c>
       <c r="B176" s="1">
         <f t="shared" si="9"/>
-        <v>1003414</v>
+        <v>1003089</v>
       </c>
       <c r="C176" s="1">
-        <v>15563</v>
+        <v>15559</v>
       </c>
       <c r="D176" s="3">
         <v>232</v>
@@ -9031,10 +9031,10 @@
         <v>29287</v>
       </c>
       <c r="I176" s="1">
-        <v>15791</v>
+        <v>15790</v>
       </c>
       <c r="J176" s="1">
-        <v>6235</v>
+        <v>6236</v>
       </c>
       <c r="K176" s="1">
         <v>22026</v>
@@ -9057,10 +9057,10 @@
       </c>
       <c r="B177" s="1">
         <f t="shared" si="9"/>
-        <v>1019335</v>
+        <v>1019003</v>
       </c>
       <c r="C177" s="1">
-        <v>15921</v>
+        <v>15914</v>
       </c>
       <c r="D177" s="3">
         <v>298</v>
@@ -9105,10 +9105,10 @@
       </c>
       <c r="B178" s="1">
         <f t="shared" si="9"/>
-        <v>1032967</v>
+        <v>1032627</v>
       </c>
       <c r="C178" s="1">
-        <v>13632</v>
+        <v>13624</v>
       </c>
       <c r="D178" s="3">
         <v>244</v>
@@ -9127,10 +9127,10 @@
         <v>31235</v>
       </c>
       <c r="I178" s="1">
-        <v>13806</v>
+        <v>13805</v>
       </c>
       <c r="J178" s="1">
-        <v>5510</v>
+        <v>5511</v>
       </c>
       <c r="K178" s="1">
         <v>19316</v>
@@ -9153,10 +9153,10 @@
       </c>
       <c r="B179" s="1">
         <f t="shared" si="9"/>
-        <v>1046431</v>
+        <v>1046090</v>
       </c>
       <c r="C179" s="1">
-        <v>13464</v>
+        <v>13463</v>
       </c>
       <c r="D179" s="3">
         <v>227</v>
@@ -9201,10 +9201,10 @@
       </c>
       <c r="B180" s="1">
         <f t="shared" si="9"/>
-        <v>1054708</v>
+        <v>1054364</v>
       </c>
       <c r="C180" s="1">
-        <v>8277</v>
+        <v>8274</v>
       </c>
       <c r="D180" s="3">
         <v>128</v>
@@ -9216,11 +9216,11 @@
         <v>24</v>
       </c>
       <c r="G180" s="1">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H180" s="1">
         <f t="shared" si="10"/>
-        <v>32813</v>
+        <v>32812</v>
       </c>
       <c r="I180" s="1">
         <v>8366</v>
@@ -9249,10 +9249,10 @@
       </c>
       <c r="B181" s="1">
         <f t="shared" si="9"/>
-        <v>1060441</v>
+        <v>1060094</v>
       </c>
       <c r="C181" s="1">
-        <v>5733</v>
+        <v>5730</v>
       </c>
       <c r="D181" s="3">
         <v>74</v>
@@ -9268,13 +9268,13 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" si="10"/>
-        <v>33713</v>
+        <v>33712</v>
       </c>
       <c r="I181" s="1">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="J181" s="1">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="K181" s="1">
         <v>7962</v>
@@ -9297,10 +9297,10 @@
       </c>
       <c r="B182" s="1">
         <f t="shared" si="9"/>
-        <v>1073859</v>
+        <v>1073504</v>
       </c>
       <c r="C182" s="1">
-        <v>13418</v>
+        <v>13410</v>
       </c>
       <c r="D182" s="3">
         <v>279</v>
@@ -9316,13 +9316,13 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" si="10"/>
-        <v>35079</v>
+        <v>35078</v>
       </c>
       <c r="I182" s="1">
-        <v>13554</v>
+        <v>13553</v>
       </c>
       <c r="J182" s="1">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="K182" s="1">
         <v>18591</v>
@@ -9345,10 +9345,10 @@
       </c>
       <c r="B183" s="1">
         <f t="shared" si="9"/>
-        <v>1088066</v>
+        <v>1087708</v>
       </c>
       <c r="C183" s="1">
-        <v>14207</v>
+        <v>14204</v>
       </c>
       <c r="D183" s="3">
         <v>255</v>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" si="10"/>
-        <v>36543</v>
+        <v>36542</v>
       </c>
       <c r="I183" s="1">
         <v>14461</v>
@@ -9393,10 +9393,10 @@
       </c>
       <c r="B184" s="1">
         <f t="shared" si="9"/>
-        <v>1101355</v>
+        <v>1100991</v>
       </c>
       <c r="C184" s="1">
-        <v>13289</v>
+        <v>13283</v>
       </c>
       <c r="D184" s="3">
         <v>258</v>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" si="10"/>
-        <v>38217</v>
+        <v>38216</v>
       </c>
       <c r="I184" s="1">
         <v>13466</v>
@@ -9441,10 +9441,10 @@
       </c>
       <c r="B185" s="1">
         <f t="shared" si="9"/>
-        <v>1115516</v>
+        <v>1115148</v>
       </c>
       <c r="C185" s="1">
-        <v>14161</v>
+        <v>14157</v>
       </c>
       <c r="D185" s="3">
         <v>259</v>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" si="10"/>
-        <v>39824</v>
+        <v>39823</v>
       </c>
       <c r="I185" s="1">
         <v>14330</v>
@@ -9489,10 +9489,10 @@
       </c>
       <c r="B186" s="1">
         <f t="shared" si="9"/>
-        <v>1128445</v>
+        <v>1128073</v>
       </c>
       <c r="C186" s="1">
-        <v>12929</v>
+        <v>12925</v>
       </c>
       <c r="D186" s="3">
         <v>258</v>
@@ -9504,11 +9504,11 @@
         <v>32</v>
       </c>
       <c r="G186" s="1">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H186" s="1">
         <f t="shared" si="10"/>
-        <v>41369</v>
+        <v>41367</v>
       </c>
       <c r="I186" s="1">
         <v>13117</v>
@@ -9537,10 +9537,10 @@
       </c>
       <c r="B187" s="1">
         <f t="shared" si="9"/>
-        <v>1136802</v>
+        <v>1136428</v>
       </c>
       <c r="C187" s="1">
-        <v>8357</v>
+        <v>8355</v>
       </c>
       <c r="D187" s="3">
         <v>159</v>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" si="10"/>
-        <v>42705</v>
+        <v>42703</v>
       </c>
       <c r="I187" s="1">
         <v>8469</v>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B188" s="1">
         <f t="shared" si="9"/>
-        <v>1142116</v>
+        <v>1141742</v>
       </c>
       <c r="C188" s="1">
         <v>5314</v>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" si="10"/>
-        <v>43797</v>
+        <v>43795</v>
       </c>
       <c r="I188" s="1">
         <v>5369</v>
@@ -9633,10 +9633,10 @@
       </c>
       <c r="B189" s="1">
         <f t="shared" si="9"/>
-        <v>1158142</v>
+        <v>1157766</v>
       </c>
       <c r="C189" s="1">
-        <v>16026</v>
+        <v>16024</v>
       </c>
       <c r="D189" s="3">
         <v>361</v>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" si="10"/>
-        <v>45265</v>
+        <v>45263</v>
       </c>
       <c r="I189" s="1">
         <v>16276</v>
@@ -9681,10 +9681,10 @@
       </c>
       <c r="B190" s="1">
         <f t="shared" si="9"/>
-        <v>1176313</v>
+        <v>1175931</v>
       </c>
       <c r="C190" s="1">
-        <v>18171</v>
+        <v>18165</v>
       </c>
       <c r="D190" s="3">
         <v>320</v>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" si="10"/>
-        <v>46826</v>
+        <v>46824</v>
       </c>
       <c r="I190" s="1">
         <v>18454</v>
@@ -9729,10 +9729,10 @@
       </c>
       <c r="B191" s="1">
         <f t="shared" si="9"/>
-        <v>1192414</v>
+        <v>1192026</v>
       </c>
       <c r="C191" s="1">
-        <v>16101</v>
+        <v>16095</v>
       </c>
       <c r="D191" s="3">
         <v>319</v>
@@ -9748,13 +9748,13 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" si="10"/>
-        <v>48500</v>
+        <v>48498</v>
       </c>
       <c r="I191" s="1">
-        <v>16325</v>
+        <v>16323</v>
       </c>
       <c r="J191" s="1">
-        <v>7140</v>
+        <v>7142</v>
       </c>
       <c r="K191" s="1">
         <v>23465</v>
@@ -9777,10 +9777,10 @@
       </c>
       <c r="B192" s="1">
         <f t="shared" si="9"/>
-        <v>1208678</v>
+        <v>1208288</v>
       </c>
       <c r="C192" s="1">
-        <v>16264</v>
+        <v>16262</v>
       </c>
       <c r="D192" s="3">
         <v>336</v>
@@ -9796,13 +9796,13 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" si="10"/>
-        <v>50056</v>
+        <v>50054</v>
       </c>
       <c r="I192" s="1">
-        <v>16424</v>
+        <v>16423</v>
       </c>
       <c r="J192" s="1">
-        <v>7451</v>
+        <v>7452</v>
       </c>
       <c r="K192" s="1">
         <v>23875</v>
@@ -9825,10 +9825,10 @@
       </c>
       <c r="B193" s="1">
         <f t="shared" si="9"/>
-        <v>1223851</v>
+        <v>1223456</v>
       </c>
       <c r="C193" s="1">
-        <v>15173</v>
+        <v>15168</v>
       </c>
       <c r="D193" s="3">
         <v>319</v>
@@ -9844,13 +9844,13 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" si="10"/>
-        <v>50533</v>
+        <v>50531</v>
       </c>
       <c r="I193" s="1">
-        <v>15396</v>
+        <v>15395</v>
       </c>
       <c r="J193" s="1">
-        <v>6829</v>
+        <v>6830</v>
       </c>
       <c r="K193" s="1">
         <v>22225</v>
@@ -9873,10 +9873,10 @@
       </c>
       <c r="B194" s="1">
         <f t="shared" si="9"/>
-        <v>1231907</v>
+        <v>1231509</v>
       </c>
       <c r="C194" s="1">
-        <v>8056</v>
+        <v>8053</v>
       </c>
       <c r="D194" s="3">
         <v>147</v>
@@ -9892,13 +9892,13 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" si="10"/>
-        <v>50954</v>
+        <v>50952</v>
       </c>
       <c r="I194" s="1">
-        <v>8171</v>
+        <v>8170</v>
       </c>
       <c r="J194" s="1">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="K194" s="1">
         <v>11431</v>
@@ -9921,10 +9921,10 @@
       </c>
       <c r="B195" s="1">
         <f t="shared" si="9"/>
-        <v>1237772</v>
+        <v>1237373</v>
       </c>
       <c r="C195" s="1">
-        <v>5865</v>
+        <v>5864</v>
       </c>
       <c r="D195" s="3">
         <v>109</v>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" si="10"/>
-        <v>52301</v>
+        <v>52299</v>
       </c>
       <c r="I195" s="1">
         <v>5933</v>
@@ -9969,10 +9969,10 @@
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B259" si="13">C196+B195</f>
-        <v>1256820</v>
+        <v>1256415</v>
       </c>
       <c r="C196" s="1">
-        <v>19048</v>
+        <v>19042</v>
       </c>
       <c r="D196" s="3">
         <v>359</v>
@@ -9988,13 +9988,13 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ref="H196:H259" si="14">G196+H195</f>
-        <v>54125</v>
+        <v>54123</v>
       </c>
       <c r="I196" s="1">
-        <v>19363</v>
+        <v>19362</v>
       </c>
       <c r="J196" s="1">
-        <v>8292</v>
+        <v>8293</v>
       </c>
       <c r="K196" s="1">
         <v>27655</v>
@@ -10017,10 +10017,10 @@
       </c>
       <c r="B197" s="1">
         <f t="shared" si="13"/>
-        <v>1273851</v>
+        <v>1273443</v>
       </c>
       <c r="C197" s="1">
-        <v>17031</v>
+        <v>17028</v>
       </c>
       <c r="D197" s="3">
         <v>308</v>
@@ -10036,13 +10036,13 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" si="14"/>
-        <v>55856</v>
+        <v>55854</v>
       </c>
       <c r="I197" s="1">
-        <v>17283</v>
+        <v>17282</v>
       </c>
       <c r="J197" s="1">
-        <v>8334</v>
+        <v>8335</v>
       </c>
       <c r="K197" s="1">
         <v>25617</v>
@@ -10065,10 +10065,10 @@
       </c>
       <c r="B198" s="1">
         <f t="shared" si="13"/>
-        <v>1291741</v>
+        <v>1291326</v>
       </c>
       <c r="C198" s="1">
-        <v>17890</v>
+        <v>17883</v>
       </c>
       <c r="D198" s="3">
         <v>333</v>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" si="14"/>
-        <v>57796</v>
+        <v>57794</v>
       </c>
       <c r="I198" s="1">
         <v>18145</v>
@@ -10113,10 +10113,10 @@
       </c>
       <c r="B199" s="1">
         <f t="shared" si="13"/>
-        <v>1308157</v>
+        <v>1307739</v>
       </c>
       <c r="C199" s="1">
-        <v>16416</v>
+        <v>16413</v>
       </c>
       <c r="D199" s="3">
         <v>354</v>
@@ -10132,13 +10132,13 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" si="14"/>
-        <v>59604</v>
+        <v>59602</v>
       </c>
       <c r="I199" s="1">
-        <v>16646</v>
+        <v>16645</v>
       </c>
       <c r="J199" s="1">
-        <v>7693</v>
+        <v>7694</v>
       </c>
       <c r="K199" s="1">
         <v>24339</v>
@@ -10161,10 +10161,10 @@
       </c>
       <c r="B200" s="1">
         <f t="shared" si="13"/>
-        <v>1324587</v>
+        <v>1324167</v>
       </c>
       <c r="C200" s="1">
-        <v>16430</v>
+        <v>16428</v>
       </c>
       <c r="D200" s="3">
         <v>299</v>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" si="14"/>
-        <v>61511</v>
+        <v>61509</v>
       </c>
       <c r="I200" s="1">
         <v>16662</v>
@@ -10209,10 +10209,10 @@
       </c>
       <c r="B201" s="1">
         <f t="shared" si="13"/>
-        <v>1334222</v>
+        <v>1333797</v>
       </c>
       <c r="C201" s="1">
-        <v>9635</v>
+        <v>9630</v>
       </c>
       <c r="D201" s="3">
         <v>169</v>
@@ -10228,27 +10228,27 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" si="14"/>
-        <v>63033</v>
+        <v>63031</v>
       </c>
       <c r="I201" s="1">
-        <v>9771</v>
+        <v>9769</v>
       </c>
       <c r="J201" s="1">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="K201" s="1">
-        <v>13532</v>
+        <v>13531</v>
       </c>
       <c r="L201" s="1">
         <v>220</v>
       </c>
       <c r="Q201" s="1">
         <f t="shared" si="12"/>
-        <v>1.6006525634510979E-2</v>
+        <v>1.6006632656472522E-2</v>
       </c>
       <c r="T201" s="1">
         <f t="shared" ref="T201:T264" si="15">AVERAGE(K195:K201)</f>
-        <v>21366.285714285714</v>
+        <v>21366.142857142859</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -10257,10 +10257,10 @@
       </c>
       <c r="B202" s="1">
         <f t="shared" si="13"/>
-        <v>1340663</v>
+        <v>1340237</v>
       </c>
       <c r="C202" s="1">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="D202" s="3">
         <v>85</v>
@@ -10276,13 +10276,13 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" si="14"/>
-        <v>64299</v>
+        <v>64297</v>
       </c>
       <c r="I202" s="1">
-        <v>6516</v>
+        <v>6517</v>
       </c>
       <c r="J202" s="1">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="K202" s="1">
         <v>9485</v>
@@ -10292,11 +10292,11 @@
       </c>
       <c r="Q202" s="1">
         <f t="shared" si="12"/>
-        <v>1.5702183035002922E-2</v>
+        <v>1.5702287288782656E-2</v>
       </c>
       <c r="T202" s="1">
         <f t="shared" si="15"/>
-        <v>21516.571428571428</v>
+        <v>21516.428571428572</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -10305,10 +10305,10 @@
       </c>
       <c r="B203" s="1">
         <f t="shared" si="13"/>
-        <v>1361395</v>
+        <v>1360964</v>
       </c>
       <c r="C203" s="1">
-        <v>20732</v>
+        <v>20727</v>
       </c>
       <c r="D203" s="3">
         <v>374</v>
@@ -10324,13 +10324,13 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" si="14"/>
-        <v>66212</v>
+        <v>66210</v>
       </c>
       <c r="I203" s="1">
-        <v>21048</v>
+        <v>21047</v>
       </c>
       <c r="J203" s="1">
-        <v>9789</v>
+        <v>9790</v>
       </c>
       <c r="K203" s="1">
         <v>30837</v>
@@ -10340,11 +10340,11 @@
       </c>
       <c r="Q203" s="1">
         <f t="shared" ref="Q203:Q213" si="16">((SUM(L197:L203))/(SUM(K197:K203)))</f>
-        <v>1.5663402645027892E-2</v>
+        <v>1.5663504489684454E-2</v>
       </c>
       <c r="T203" s="1">
         <f t="shared" si="15"/>
-        <v>21971.142857142859</v>
+        <v>21971</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -10353,10 +10353,10 @@
       </c>
       <c r="B204" s="1">
         <f t="shared" si="13"/>
-        <v>1380324</v>
+        <v>1379886</v>
       </c>
       <c r="C204" s="1">
-        <v>18929</v>
+        <v>18922</v>
       </c>
       <c r="D204" s="3">
         <v>284</v>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" si="14"/>
-        <v>66949</v>
+        <v>66947</v>
       </c>
       <c r="I204" s="1">
         <v>19236</v>
@@ -10388,11 +10388,11 @@
       </c>
       <c r="Q204" s="1">
         <f t="shared" si="16"/>
-        <v>1.5064261469814271E-2</v>
+        <v>1.5064357222310504E-2</v>
       </c>
       <c r="T204" s="1">
         <f t="shared" si="15"/>
-        <v>22475.142857142859</v>
+        <v>22475</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -10401,10 +10401,10 @@
       </c>
       <c r="B205" s="1">
         <f t="shared" si="13"/>
-        <v>1399723</v>
+        <v>1399281</v>
       </c>
       <c r="C205" s="1">
-        <v>19399</v>
+        <v>19395</v>
       </c>
       <c r="D205" s="3">
         <v>304</v>
@@ -10420,13 +10420,13 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" si="14"/>
-        <v>68800</v>
+        <v>68798</v>
       </c>
       <c r="I205" s="1">
-        <v>19663</v>
+        <v>19660</v>
       </c>
       <c r="J205" s="1">
-        <v>9546</v>
+        <v>9549</v>
       </c>
       <c r="K205" s="1">
         <v>29209</v>
@@ -10436,11 +10436,11 @@
       </c>
       <c r="Q205" s="1">
         <f t="shared" si="16"/>
-        <v>1.4658600690477528E-2</v>
+        <v>1.4658692204922025E-2</v>
       </c>
       <c r="T205" s="1">
         <f t="shared" si="15"/>
-        <v>22882.714285714286</v>
+        <v>22882.571428571428</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -10449,10 +10449,10 @@
       </c>
       <c r="B206" s="1">
         <f t="shared" si="13"/>
-        <v>1418540</v>
+        <v>1418092</v>
       </c>
       <c r="C206" s="1">
-        <v>18817</v>
+        <v>18811</v>
       </c>
       <c r="D206" s="3">
         <v>349</v>
@@ -10468,13 +10468,13 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" si="14"/>
-        <v>70601</v>
+        <v>70599</v>
       </c>
       <c r="I206" s="1">
-        <v>19128</v>
+        <v>19126</v>
       </c>
       <c r="J206" s="1">
-        <v>9003</v>
+        <v>9005</v>
       </c>
       <c r="K206" s="1">
         <v>28131</v>
@@ -10484,11 +10484,11 @@
       </c>
       <c r="Q206" s="1">
         <f t="shared" si="16"/>
-        <v>1.4313506656664898E-2</v>
+        <v>1.4313593950112825E-2</v>
       </c>
       <c r="T206" s="1">
         <f t="shared" si="15"/>
-        <v>23424.428571428572</v>
+        <v>23424.285714285714</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
@@ -10497,10 +10497,10 @@
       </c>
       <c r="B207" s="1">
         <f t="shared" si="13"/>
-        <v>1437718</v>
+        <v>1437260</v>
       </c>
       <c r="C207" s="1">
-        <v>19178</v>
+        <v>19168</v>
       </c>
       <c r="D207" s="3">
         <v>342</v>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" si="14"/>
-        <v>72392</v>
+        <v>72390</v>
       </c>
       <c r="I207" s="1">
         <v>19492</v>
@@ -10532,11 +10532,11 @@
       </c>
       <c r="Q207" s="1">
         <f t="shared" si="16"/>
-        <v>1.4260249554367201E-2</v>
+        <v>1.4260334286002888E-2</v>
       </c>
       <c r="T207" s="1">
         <f t="shared" si="15"/>
-        <v>24042.857142857141</v>
+        <v>24042.714285714286</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
@@ -10545,10 +10545,10 @@
       </c>
       <c r="B208" s="1">
         <f t="shared" si="13"/>
-        <v>1448083</v>
+        <v>1447623</v>
       </c>
       <c r="C208" s="1">
-        <v>10365</v>
+        <v>10363</v>
       </c>
       <c r="D208" s="3">
         <v>151</v>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" si="14"/>
-        <v>72853</v>
+        <v>72851</v>
       </c>
       <c r="I208" s="1">
         <v>10518</v>
@@ -10607,10 +10607,10 @@
       </c>
       <c r="B209" s="1">
         <f t="shared" si="13"/>
-        <v>1456223</v>
+        <v>1455762</v>
       </c>
       <c r="C209" s="1">
-        <v>8140</v>
+        <v>8139</v>
       </c>
       <c r="D209" s="3">
         <v>120</v>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" si="14"/>
-        <v>74379</v>
+        <v>74377</v>
       </c>
       <c r="I209" s="1">
         <v>8262</v>
@@ -10669,10 +10669,10 @@
       </c>
       <c r="B210" s="1">
         <f t="shared" si="13"/>
-        <v>1483187</v>
+        <v>1482717</v>
       </c>
       <c r="C210" s="1">
-        <v>26964</v>
+        <v>26955</v>
       </c>
       <c r="D210" s="3">
         <v>369</v>
@@ -10688,13 +10688,13 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" si="14"/>
-        <v>76376</v>
+        <v>76374</v>
       </c>
       <c r="I210" s="1">
-        <v>27412</v>
+        <v>27411</v>
       </c>
       <c r="J210" s="1">
-        <v>13299</v>
+        <v>13300</v>
       </c>
       <c r="K210" s="1">
         <v>40711</v>
@@ -10731,10 +10731,10 @@
       </c>
       <c r="B211" s="1">
         <f t="shared" si="13"/>
-        <v>1508293</v>
+        <v>1507815</v>
       </c>
       <c r="C211" s="1">
-        <v>25106</v>
+        <v>25098</v>
       </c>
       <c r="D211" s="3">
         <v>381</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" si="14"/>
-        <v>77051</v>
+        <v>77049</v>
       </c>
       <c r="I211" s="1">
         <v>25546</v>
@@ -10793,10 +10793,10 @@
       </c>
       <c r="B212" s="1">
         <f t="shared" si="13"/>
-        <v>1532440</v>
+        <v>1531958</v>
       </c>
       <c r="C212" s="1">
-        <v>24147</v>
+        <v>24143</v>
       </c>
       <c r="D212" s="3">
         <v>338</v>
@@ -10812,13 +10812,13 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" si="14"/>
-        <v>79002</v>
+        <v>79000</v>
       </c>
       <c r="I212" s="1">
-        <v>24474</v>
+        <v>24473</v>
       </c>
       <c r="J212" s="1">
-        <v>14153</v>
+        <v>14154</v>
       </c>
       <c r="K212" s="1">
         <v>38627</v>
@@ -10855,10 +10855,10 @@
       </c>
       <c r="B213" s="1">
         <f t="shared" si="13"/>
-        <v>1555630</v>
+        <v>1555144</v>
       </c>
       <c r="C213" s="1">
-        <v>23190</v>
+        <v>23186</v>
       </c>
       <c r="D213" s="3">
         <v>356</v>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" si="14"/>
-        <v>80823</v>
+        <v>80821</v>
       </c>
       <c r="I213" s="1">
         <v>23514</v>
@@ -10917,10 +10917,10 @@
       </c>
       <c r="B214" s="1">
         <f t="shared" si="13"/>
-        <v>1576345</v>
+        <v>1575854</v>
       </c>
       <c r="C214" s="1">
-        <v>20715</v>
+        <v>20710</v>
       </c>
       <c r="D214" s="3">
         <v>283</v>
@@ -10936,13 +10936,13 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" si="14"/>
-        <v>82532</v>
+        <v>82530</v>
       </c>
       <c r="I214" s="1">
-        <v>21080</v>
+        <v>21079</v>
       </c>
       <c r="J214" s="1">
-        <v>14213</v>
+        <v>14214</v>
       </c>
       <c r="K214" s="1">
         <v>35293</v>
@@ -11003,10 +11003,10 @@
       </c>
       <c r="B215" s="1">
         <f t="shared" si="13"/>
-        <v>1589228</v>
+        <v>1588735</v>
       </c>
       <c r="C215" s="1">
-        <v>12883</v>
+        <v>12881</v>
       </c>
       <c r="D215" s="3">
         <v>149</v>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" si="14"/>
-        <v>83776</v>
+        <v>83774</v>
       </c>
       <c r="I215" s="1">
         <v>13066</v>
@@ -11089,10 +11089,10 @@
       </c>
       <c r="B216" s="1">
         <f t="shared" si="13"/>
-        <v>1599339</v>
+        <v>1598845</v>
       </c>
       <c r="C216" s="1">
-        <v>10111</v>
+        <v>10110</v>
       </c>
       <c r="D216" s="3">
         <v>92</v>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" si="14"/>
-        <v>84873</v>
+        <v>84871</v>
       </c>
       <c r="I216" s="1">
         <v>10256</v>
@@ -11175,10 +11175,10 @@
       </c>
       <c r="B217" s="1">
         <f t="shared" si="13"/>
-        <v>1625737</v>
+        <v>1625236</v>
       </c>
       <c r="C217" s="1">
-        <v>26398</v>
+        <v>26391</v>
       </c>
       <c r="D217" s="3">
         <v>396</v>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" si="14"/>
-        <v>86594</v>
+        <v>86592</v>
       </c>
       <c r="I217" s="1">
         <v>26803</v>
@@ -11261,10 +11261,10 @@
       </c>
       <c r="B218" s="1">
         <f t="shared" si="13"/>
-        <v>1650613</v>
+        <v>1650102</v>
       </c>
       <c r="C218" s="1">
-        <v>24876</v>
+        <v>24866</v>
       </c>
       <c r="D218" s="3">
         <v>380</v>
@@ -11280,13 +11280,13 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" si="14"/>
-        <v>88044</v>
+        <v>88042</v>
       </c>
       <c r="I218" s="1">
-        <v>25274</v>
+        <v>25272</v>
       </c>
       <c r="J218" s="1">
-        <v>27078</v>
+        <v>27080</v>
       </c>
       <c r="K218" s="1">
         <v>52352</v>
@@ -11347,10 +11347,10 @@
       </c>
       <c r="B219" s="1">
         <f t="shared" si="13"/>
-        <v>1675605</v>
+        <v>1675088</v>
       </c>
       <c r="C219" s="1">
-        <v>24992</v>
+        <v>24986</v>
       </c>
       <c r="D219" s="3">
         <v>379</v>
@@ -11366,13 +11366,13 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" si="14"/>
-        <v>89506</v>
+        <v>89504</v>
       </c>
       <c r="I219" s="1">
-        <v>25468</v>
+        <v>25467</v>
       </c>
       <c r="J219" s="1">
-        <v>24032</v>
+        <v>24033</v>
       </c>
       <c r="K219" s="1">
         <v>49500</v>
@@ -11433,10 +11433,10 @@
       </c>
       <c r="B220" s="1">
         <f t="shared" si="13"/>
-        <v>1695945</v>
+        <v>1695425</v>
       </c>
       <c r="C220" s="1">
-        <v>20340</v>
+        <v>20337</v>
       </c>
       <c r="D220" s="3">
         <v>345</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" si="14"/>
-        <v>89943</v>
+        <v>89941</v>
       </c>
       <c r="I220" s="1">
         <v>20652</v>
@@ -11519,10 +11519,10 @@
       </c>
       <c r="B221" s="1">
         <f t="shared" si="13"/>
-        <v>1719273</v>
+        <v>1718747</v>
       </c>
       <c r="C221" s="1">
-        <v>23328</v>
+        <v>23322</v>
       </c>
       <c r="D221" s="3">
         <v>364</v>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" si="14"/>
-        <v>91288</v>
+        <v>91286</v>
       </c>
       <c r="I221" s="1">
         <v>23655</v>
@@ -11605,10 +11605,10 @@
       </c>
       <c r="B222" s="1">
         <f t="shared" si="13"/>
-        <v>1736056</v>
+        <v>1735526</v>
       </c>
       <c r="C222" s="1">
-        <v>16783</v>
+        <v>16779</v>
       </c>
       <c r="D222" s="3">
         <v>172</v>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" si="14"/>
-        <v>92401</v>
+        <v>92399</v>
       </c>
       <c r="I222" s="1">
         <v>17076</v>
@@ -11691,10 +11691,10 @@
       </c>
       <c r="B223" s="1">
         <f t="shared" si="13"/>
-        <v>1748681</v>
+        <v>1748148</v>
       </c>
       <c r="C223" s="1">
-        <v>12625</v>
+        <v>12622</v>
       </c>
       <c r="D223" s="3">
         <v>139</v>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" si="14"/>
-        <v>93412</v>
+        <v>93410</v>
       </c>
       <c r="I223" s="1">
         <v>12789</v>
@@ -11777,10 +11777,10 @@
       </c>
       <c r="B224" s="1">
         <f t="shared" si="13"/>
-        <v>1774332</v>
+        <v>1773792</v>
       </c>
       <c r="C224" s="1">
-        <v>25651</v>
+        <v>25644</v>
       </c>
       <c r="D224" s="3">
         <v>438</v>
@@ -11796,16 +11796,16 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" si="14"/>
-        <v>93904</v>
+        <v>93902</v>
       </c>
       <c r="I224" s="1">
         <v>25999</v>
       </c>
       <c r="J224" s="1">
-        <v>38308</v>
+        <v>38309</v>
       </c>
       <c r="K224" s="1">
-        <v>64307</v>
+        <v>64308</v>
       </c>
       <c r="L224" s="1">
         <v>552</v>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="O224" s="1">
         <f t="shared" si="17"/>
-        <v>30575</v>
+        <v>30576</v>
       </c>
       <c r="P224" s="1">
         <f t="shared" si="18"/>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="Q224" s="1">
         <f t="shared" si="19"/>
-        <v>8.8053353338716136E-3</v>
+        <v>8.8053073433720201E-3</v>
       </c>
       <c r="R224" s="1">
         <f t="shared" si="20"/>
@@ -11834,15 +11834,15 @@
       </c>
       <c r="S224" s="1">
         <f t="shared" si="21"/>
-        <v>1.6640613181382685E-2</v>
+        <v>1.6640508291889643E-2</v>
       </c>
       <c r="T224" s="1">
         <f t="shared" si="15"/>
-        <v>44940.285714285717</v>
+        <v>44940.428571428572</v>
       </c>
       <c r="U224" s="1">
         <f t="shared" si="22"/>
-        <v>22664</v>
+        <v>22664.142857142859</v>
       </c>
       <c r="V224" s="1">
         <f t="shared" si="23"/>
@@ -11863,10 +11863,10 @@
       </c>
       <c r="B225" s="1">
         <f t="shared" si="13"/>
-        <v>1798760</v>
+        <v>1798214</v>
       </c>
       <c r="C225" s="1">
-        <v>24428</v>
+        <v>24422</v>
       </c>
       <c r="D225" s="3">
         <v>395</v>
@@ -11882,13 +11882,13 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" si="14"/>
-        <v>95206</v>
+        <v>95204</v>
       </c>
       <c r="I225" s="1">
-        <v>24752</v>
+        <v>24751</v>
       </c>
       <c r="J225" s="1">
-        <v>37694</v>
+        <v>37695</v>
       </c>
       <c r="K225" s="1">
         <v>62446</v>
@@ -11912,7 +11912,7 @@
       </c>
       <c r="Q225" s="1">
         <f t="shared" si="19"/>
-        <v>8.5285022607152969E-3</v>
+        <v>8.5284759930638766E-3</v>
       </c>
       <c r="R225" s="1">
         <f t="shared" si="20"/>
@@ -11920,15 +11920,15 @@
       </c>
       <c r="S225" s="1">
         <f t="shared" si="21"/>
-        <v>1.6464894069386428E-2</v>
+        <v>1.6464791110388514E-2</v>
       </c>
       <c r="T225" s="1">
         <f t="shared" si="15"/>
-        <v>46382.285714285717</v>
+        <v>46382.428571428572</v>
       </c>
       <c r="U225" s="1">
         <f t="shared" si="22"/>
-        <v>22845.142857142859</v>
+        <v>22845.285714285714</v>
       </c>
       <c r="V225" s="1">
         <f t="shared" si="23"/>
@@ -11949,10 +11949,10 @@
       </c>
       <c r="B226" s="1">
         <f t="shared" si="13"/>
-        <v>1819691</v>
+        <v>1819142</v>
       </c>
       <c r="C226" s="1">
-        <v>20931</v>
+        <v>20928</v>
       </c>
       <c r="D226" s="3">
         <v>384</v>
@@ -11964,11 +11964,11 @@
         <v>23</v>
       </c>
       <c r="G226" s="1">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H226" s="1">
         <f t="shared" si="14"/>
-        <v>96741</v>
+        <v>96738</v>
       </c>
       <c r="I226" s="1">
         <v>21212</v>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="Q226" s="1">
         <f t="shared" si="19"/>
-        <v>8.3403388563973238E-3</v>
+        <v>8.3403137259628422E-3</v>
       </c>
       <c r="R226" s="1">
         <f t="shared" si="20"/>
@@ -12006,15 +12006,15 @@
       </c>
       <c r="S226" s="1">
         <f t="shared" si="21"/>
-        <v>1.6326019593727502E-2</v>
+        <v>1.6325917393862757E-2</v>
       </c>
       <c r="T226" s="1">
         <f t="shared" si="15"/>
-        <v>47411.571428571428</v>
+        <v>47411.714285714283</v>
       </c>
       <c r="U226" s="1">
         <f t="shared" si="22"/>
-        <v>22820.714285714286</v>
+        <v>22820.857142857141</v>
       </c>
       <c r="V226" s="1">
         <f t="shared" si="23"/>
@@ -12035,10 +12035,10 @@
       </c>
       <c r="B227" s="1">
         <f t="shared" si="13"/>
-        <v>1840806</v>
+        <v>1840249</v>
       </c>
       <c r="C227" s="1">
-        <v>21115</v>
+        <v>21107</v>
       </c>
       <c r="D227" s="3">
         <v>464</v>
@@ -12054,16 +12054,16 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" si="14"/>
-        <v>98242</v>
+        <v>98239</v>
       </c>
       <c r="I227" s="1">
-        <v>21379</v>
+        <v>21378</v>
       </c>
       <c r="J227" s="1">
         <v>41168</v>
       </c>
       <c r="K227" s="1">
-        <v>62547</v>
+        <v>62546</v>
       </c>
       <c r="L227" s="1">
         <v>554</v>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="O227" s="1">
         <f t="shared" si="17"/>
-        <v>28499</v>
+        <v>28498</v>
       </c>
       <c r="P227" s="1">
         <f t="shared" si="18"/>
@@ -12121,10 +12121,10 @@
       </c>
       <c r="B228" s="1">
         <f t="shared" si="13"/>
-        <v>1858633</v>
+        <v>1858068</v>
       </c>
       <c r="C228" s="1">
-        <v>17827</v>
+        <v>17819</v>
       </c>
       <c r="D228" s="3">
         <v>348</v>
@@ -12140,16 +12140,16 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" si="14"/>
-        <v>99811</v>
+        <v>99808</v>
       </c>
       <c r="I228" s="1">
         <v>18045</v>
       </c>
       <c r="J228" s="1">
-        <v>33459</v>
+        <v>33460</v>
       </c>
       <c r="K228" s="1">
-        <v>51504</v>
+        <v>51505</v>
       </c>
       <c r="L228" s="1">
         <v>456</v>
@@ -12162,7 +12162,7 @@
       </c>
       <c r="O228" s="1">
         <f t="shared" si="17"/>
-        <v>23348</v>
+        <v>23349</v>
       </c>
       <c r="P228" s="1">
         <f t="shared" si="18"/>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="Q228" s="1">
         <f t="shared" si="19"/>
-        <v>8.2762402222990132E-3</v>
+        <v>8.2762165867032219E-3</v>
       </c>
       <c r="R228" s="1">
         <f t="shared" si="20"/>
@@ -12178,15 +12178,15 @@
       </c>
       <c r="S228" s="1">
         <f t="shared" si="21"/>
-        <v>1.6613219855388779E-2</v>
+        <v>1.6613118571942424E-2</v>
       </c>
       <c r="T228" s="1">
         <f t="shared" si="15"/>
-        <v>50022.714285714283</v>
+        <v>50022.857142857145</v>
       </c>
       <c r="U228" s="1">
         <f t="shared" si="22"/>
-        <v>23432.285714285714</v>
+        <v>23432.428571428572</v>
       </c>
       <c r="V228" s="1">
         <f t="shared" si="23"/>
@@ -12207,10 +12207,10 @@
       </c>
       <c r="B229" s="1">
         <f t="shared" si="13"/>
-        <v>1868109</v>
+        <v>1867541</v>
       </c>
       <c r="C229" s="1">
-        <v>9476</v>
+        <v>9473</v>
       </c>
       <c r="D229" s="3">
         <v>198</v>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" si="14"/>
-        <v>101028</v>
+        <v>101025</v>
       </c>
       <c r="I229" s="1">
         <v>9570</v>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="Q229" s="1">
         <f t="shared" si="19"/>
-        <v>8.4471504580110792E-3</v>
+        <v>8.4471260717688158E-3</v>
       </c>
       <c r="R229" s="1">
         <f t="shared" si="20"/>
@@ -12264,15 +12264,15 @@
       </c>
       <c r="S229" s="1">
         <f t="shared" si="21"/>
-        <v>1.6931879573694807E-2</v>
+        <v>1.6931775626346776E-2</v>
       </c>
       <c r="T229" s="1">
         <f t="shared" si="15"/>
-        <v>49484.142857142855</v>
+        <v>49484.285714285717</v>
       </c>
       <c r="U229" s="1">
         <f t="shared" si="22"/>
-        <v>23269.714285714286</v>
+        <v>23269.857142857141</v>
       </c>
       <c r="V229" s="1">
         <f t="shared" si="23"/>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="B230" s="1">
         <f t="shared" si="13"/>
-        <v>1875252</v>
+        <v>1874684</v>
       </c>
       <c r="C230" s="1">
         <v>7143</v>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" si="14"/>
-        <v>102095</v>
+        <v>102092</v>
       </c>
       <c r="I230" s="1">
         <v>7219</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="Q230" s="1">
         <f t="shared" si="19"/>
-        <v>8.4059956576762757E-3</v>
+        <v>8.4059712583123627E-3</v>
       </c>
       <c r="R230" s="1">
         <f t="shared" si="20"/>
@@ -12350,15 +12350,15 @@
       </c>
       <c r="S230" s="1">
         <f t="shared" si="21"/>
-        <v>1.6869635886764107E-2</v>
+        <v>1.6869532024405411E-2</v>
       </c>
       <c r="T230" s="1">
         <f t="shared" si="15"/>
-        <v>49216.571428571428</v>
+        <v>49216.714285714283</v>
       </c>
       <c r="U230" s="1">
         <f t="shared" si="22"/>
-        <v>23203.142857142859</v>
+        <v>23203.285714285714</v>
       </c>
       <c r="V230" s="1">
         <f t="shared" si="23"/>
@@ -12379,10 +12379,10 @@
       </c>
       <c r="B231" s="1">
         <f t="shared" si="13"/>
-        <v>1883451</v>
+        <v>1882882</v>
       </c>
       <c r="C231" s="1">
-        <v>8199</v>
+        <v>8198</v>
       </c>
       <c r="D231" s="3">
         <v>161</v>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" si="14"/>
-        <v>103220</v>
+        <v>103217</v>
       </c>
       <c r="I231" s="1">
         <v>8274</v>
@@ -12465,10 +12465,10 @@
       </c>
       <c r="B232" s="1">
         <f t="shared" si="13"/>
-        <v>1905634</v>
+        <v>1905059</v>
       </c>
       <c r="C232" s="1">
-        <v>22183</v>
+        <v>22177</v>
       </c>
       <c r="D232" s="3">
         <v>547</v>
@@ -12484,16 +12484,16 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" si="14"/>
-        <v>103855</v>
+        <v>103852</v>
       </c>
       <c r="I232" s="1">
-        <v>22404</v>
+        <v>22403</v>
       </c>
       <c r="J232" s="1">
         <v>54495</v>
       </c>
       <c r="K232" s="1">
-        <v>76899</v>
+        <v>76898</v>
       </c>
       <c r="L232" s="1">
         <v>660</v>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="O232" s="1">
         <f t="shared" si="17"/>
-        <v>35599</v>
+        <v>35598</v>
       </c>
       <c r="P232" s="1">
         <f t="shared" si="18"/>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="Q232" s="1">
         <f t="shared" si="19"/>
-        <v>8.2439558913645246E-3</v>
+        <v>8.2439807771257454E-3</v>
       </c>
       <c r="R232" s="1">
         <f t="shared" si="20"/>
@@ -12522,15 +12522,15 @@
       </c>
       <c r="S232" s="1">
         <f t="shared" si="21"/>
-        <v>1.7259137788499329E-2</v>
+        <v>1.7259254741721047E-2</v>
       </c>
       <c r="T232" s="1">
         <f t="shared" si="15"/>
-        <v>47324.714285714283</v>
+        <v>47324.571428571428</v>
       </c>
       <c r="U232" s="1">
         <f t="shared" si="22"/>
-        <v>21082</v>
+        <v>21081.857142857141</v>
       </c>
       <c r="V232" s="1">
         <f t="shared" si="23"/>
@@ -12551,10 +12551,10 @@
       </c>
       <c r="B233" s="1">
         <f t="shared" si="13"/>
-        <v>1925254</v>
+        <v>1924670</v>
       </c>
       <c r="C233" s="1">
-        <v>19620</v>
+        <v>19611</v>
       </c>
       <c r="D233" s="3">
         <v>474</v>
@@ -12570,13 +12570,13 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" si="14"/>
-        <v>105350</v>
+        <v>105347</v>
       </c>
       <c r="I233" s="1">
-        <v>19889</v>
+        <v>19888</v>
       </c>
       <c r="J233" s="1">
-        <v>47892</v>
+        <v>47893</v>
       </c>
       <c r="K233" s="1">
         <v>67781</v>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="Q233" s="1">
         <f t="shared" si="19"/>
-        <v>8.3336010912840406E-3</v>
+        <v>8.3336254337691464E-3</v>
       </c>
       <c r="R233" s="1">
         <f t="shared" si="20"/>
@@ -12608,15 +12608,15 @@
       </c>
       <c r="S233" s="1">
         <f t="shared" si="21"/>
-        <v>1.7298562788580347E-2</v>
+        <v>1.7298675285655755E-2</v>
       </c>
       <c r="T233" s="1">
         <f t="shared" si="15"/>
-        <v>48907</v>
+        <v>48906.857142857145</v>
       </c>
       <c r="U233" s="1">
         <f t="shared" si="22"/>
-        <v>21967.142857142859</v>
+        <v>21967</v>
       </c>
       <c r="V233" s="1">
         <f t="shared" si="23"/>
@@ -12637,10 +12637,10 @@
       </c>
       <c r="B234" s="1">
         <f t="shared" si="13"/>
-        <v>1941600</v>
+        <v>1941010</v>
       </c>
       <c r="C234" s="1">
-        <v>16346</v>
+        <v>16340</v>
       </c>
       <c r="D234" s="3">
         <v>410</v>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" si="14"/>
-        <v>106756</v>
+        <v>106753</v>
       </c>
       <c r="I234" s="1">
         <v>16507</v>
@@ -12723,10 +12723,10 @@
       </c>
       <c r="B235" s="1">
         <f t="shared" si="13"/>
-        <v>1957873</v>
+        <v>1957276</v>
       </c>
       <c r="C235" s="1">
-        <v>16273</v>
+        <v>16266</v>
       </c>
       <c r="D235" s="3">
         <v>409</v>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" si="14"/>
-        <v>108157</v>
+        <v>108154</v>
       </c>
       <c r="I235" s="1">
         <v>16479</v>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="Q235" s="1">
         <f t="shared" si="19"/>
-        <v>8.1584716121105693E-3</v>
+        <v>8.1584948688711509E-3</v>
       </c>
       <c r="R235" s="1">
         <f t="shared" si="20"/>
@@ -12780,15 +12780,15 @@
       </c>
       <c r="S235" s="1">
         <f t="shared" si="21"/>
-        <v>1.6901372600176906E-2</v>
+        <v>1.6901480152215136E-2</v>
       </c>
       <c r="T235" s="1">
         <f t="shared" si="15"/>
-        <v>50114.428571428572</v>
+        <v>50114.285714285717</v>
       </c>
       <c r="U235" s="1">
         <f t="shared" si="22"/>
-        <v>22449.571428571428</v>
+        <v>22449.428571428572</v>
       </c>
       <c r="V235" s="1">
         <f t="shared" si="23"/>
@@ -12809,10 +12809,10 @@
       </c>
       <c r="B236" s="1">
         <f t="shared" si="13"/>
-        <v>1968214</v>
+        <v>1967611</v>
       </c>
       <c r="C236" s="1">
-        <v>10341</v>
+        <v>10335</v>
       </c>
       <c r="D236" s="3">
         <v>189</v>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" si="14"/>
-        <v>109286</v>
+        <v>109283</v>
       </c>
       <c r="I236" s="1">
         <v>10422</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="Q236" s="1">
         <f t="shared" si="19"/>
-        <v>8.1345413713002409E-3</v>
+        <v>8.1345646136438965E-3</v>
       </c>
       <c r="R236" s="1">
         <f t="shared" si="20"/>
@@ -12866,15 +12866,15 @@
       </c>
       <c r="S236" s="1">
         <f t="shared" si="21"/>
-        <v>1.6631781410872886E-2</v>
+        <v>1.663188595278204E-2</v>
       </c>
       <c r="T236" s="1">
         <f t="shared" si="15"/>
-        <v>49998.428571428572</v>
+        <v>49998.285714285717</v>
       </c>
       <c r="U236" s="1">
         <f t="shared" si="22"/>
-        <v>22727.571428571428</v>
+        <v>22727.428571428572</v>
       </c>
       <c r="V236" s="1">
         <f t="shared" si="23"/>
@@ -12895,10 +12895,10 @@
       </c>
       <c r="B237" s="1">
         <f t="shared" si="13"/>
-        <v>1976931</v>
+        <v>1976325</v>
       </c>
       <c r="C237" s="1">
-        <v>8717</v>
+        <v>8714</v>
       </c>
       <c r="D237" s="3">
         <v>161</v>
@@ -12914,16 +12914,16 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" si="14"/>
-        <v>110344</v>
+        <v>110341</v>
       </c>
       <c r="I237" s="1">
-        <v>8795</v>
+        <v>8794</v>
       </c>
       <c r="J237" s="1">
-        <v>14906</v>
+        <v>14908</v>
       </c>
       <c r="K237" s="1">
-        <v>23701</v>
+        <v>23702</v>
       </c>
       <c r="L237" s="1">
         <v>198</v>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="O237" s="1">
         <f t="shared" si="17"/>
-        <v>10643</v>
+        <v>10644</v>
       </c>
       <c r="P237" s="1">
         <f t="shared" si="18"/>
@@ -12981,10 +12981,10 @@
       </c>
       <c r="B238" s="1">
         <f t="shared" si="13"/>
-        <v>1997692</v>
+        <v>1997082</v>
       </c>
       <c r="C238" s="1">
-        <v>20761</v>
+        <v>20757</v>
       </c>
       <c r="D238" s="3">
         <v>504</v>
@@ -13000,7 +13000,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" si="14"/>
-        <v>111843</v>
+        <v>111840</v>
       </c>
       <c r="I238" s="1">
         <v>20961</v>
@@ -13067,10 +13067,10 @@
       </c>
       <c r="B239" s="1">
         <f t="shared" si="13"/>
-        <v>2016901</v>
+        <v>2016285</v>
       </c>
       <c r="C239" s="1">
-        <v>19209</v>
+        <v>19203</v>
       </c>
       <c r="D239" s="3">
         <v>423</v>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" si="14"/>
-        <v>113373</v>
+        <v>113370</v>
       </c>
       <c r="I239" s="1">
         <v>19414</v>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="Q239" s="1">
         <f t="shared" si="19"/>
-        <v>8.2974504764602389E-3</v>
+        <v>8.2974289144478689E-3</v>
       </c>
       <c r="R239" s="1">
         <f t="shared" si="20"/>
@@ -13124,15 +13124,15 @@
       </c>
       <c r="S239" s="1">
         <f t="shared" si="21"/>
-        <v>1.6793470742841335E-2</v>
+        <v>1.6793377820568153E-2</v>
       </c>
       <c r="T239" s="1">
         <f t="shared" si="15"/>
-        <v>54973.857142857145</v>
+        <v>54974</v>
       </c>
       <c r="U239" s="1">
         <f t="shared" si="22"/>
-        <v>25817.857142857141</v>
+        <v>25818</v>
       </c>
       <c r="V239" s="1">
         <f t="shared" si="23"/>
@@ -13153,10 +13153,10 @@
       </c>
       <c r="B240" s="1">
         <f t="shared" si="13"/>
-        <v>2034119</v>
+        <v>2033493</v>
       </c>
       <c r="C240" s="1">
-        <v>17218</v>
+        <v>17208</v>
       </c>
       <c r="D240" s="3">
         <v>414</v>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" si="14"/>
-        <v>114856</v>
+        <v>114853</v>
       </c>
       <c r="I240" s="1">
         <v>17372</v>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="Q240" s="1">
         <f t="shared" si="19"/>
-        <v>8.1818181818181825E-3</v>
+        <v>8.1817967466682028E-3</v>
       </c>
       <c r="R240" s="1">
         <f t="shared" si="20"/>
@@ -13210,15 +13210,15 @@
       </c>
       <c r="S240" s="1">
         <f t="shared" si="21"/>
-        <v>1.6670577324886311E-2</v>
+        <v>1.6670484192649122E-2</v>
       </c>
       <c r="T240" s="1">
         <f t="shared" si="15"/>
-        <v>54528.571428571428</v>
+        <v>54528.714285714283</v>
       </c>
       <c r="U240" s="1">
         <f t="shared" si="22"/>
-        <v>25571.142857142859</v>
+        <v>25571.285714285714</v>
       </c>
       <c r="V240" s="1">
         <f t="shared" si="23"/>
@@ -13239,10 +13239,10 @@
       </c>
       <c r="B241" s="1">
         <f t="shared" si="13"/>
-        <v>2049328</v>
+        <v>2048693</v>
       </c>
       <c r="C241" s="1">
-        <v>15209</v>
+        <v>15200</v>
       </c>
       <c r="D241" s="3">
         <v>355</v>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" si="14"/>
-        <v>116394</v>
+        <v>116391</v>
       </c>
       <c r="I241" s="1">
         <v>15360</v>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="Q241" s="1">
         <f t="shared" si="19"/>
-        <v>7.9821059339115954E-3</v>
+        <v>7.9820851734523496E-3</v>
       </c>
       <c r="R241" s="1">
         <f t="shared" si="20"/>
@@ -13296,15 +13296,15 @@
       </c>
       <c r="S241" s="1">
         <f t="shared" si="21"/>
-        <v>1.6425465890508056E-2</v>
+        <v>1.6425374217241343E-2</v>
       </c>
       <c r="T241" s="1">
         <f t="shared" si="15"/>
-        <v>54926.428571428572</v>
+        <v>54926.571428571428</v>
       </c>
       <c r="U241" s="1">
         <f t="shared" si="22"/>
-        <v>25596.142857142859</v>
+        <v>25596.285714285714</v>
       </c>
       <c r="V241" s="1">
         <f t="shared" si="23"/>
@@ -13325,10 +13325,10 @@
       </c>
       <c r="B242" s="1">
         <f t="shared" si="13"/>
-        <v>2064750</v>
+        <v>2064111</v>
       </c>
       <c r="C242" s="1">
-        <v>15422</v>
+        <v>15418</v>
       </c>
       <c r="D242" s="3">
         <v>435</v>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" si="14"/>
-        <v>117906</v>
+        <v>117903</v>
       </c>
       <c r="I242" s="1">
         <v>15538</v>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="Q242" s="1">
         <f t="shared" si="19"/>
-        <v>8.0673857877908706E-3</v>
+        <v>8.0673648339774761E-3</v>
       </c>
       <c r="R242" s="1">
         <f t="shared" si="20"/>
@@ -13382,15 +13382,15 @@
       </c>
       <c r="S242" s="1">
         <f t="shared" si="21"/>
-        <v>1.6600895815641808E-2</v>
+        <v>1.6600803676486912E-2</v>
       </c>
       <c r="T242" s="1">
         <f t="shared" si="15"/>
-        <v>55001</v>
+        <v>55001.142857142855</v>
       </c>
       <c r="U242" s="1">
         <f t="shared" si="22"/>
-        <v>25738.714285714286</v>
+        <v>25738.857142857141</v>
       </c>
       <c r="V242" s="1">
         <f t="shared" si="23"/>
@@ -13411,10 +13411,10 @@
       </c>
       <c r="B243" s="1">
         <f t="shared" si="13"/>
-        <v>2073107</v>
+        <v>2072466</v>
       </c>
       <c r="C243" s="1">
-        <v>8357</v>
+        <v>8355</v>
       </c>
       <c r="D243" s="3">
         <v>202</v>
@@ -13430,7 +13430,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" si="14"/>
-        <v>119110</v>
+        <v>119107</v>
       </c>
       <c r="I243" s="1">
         <v>8408</v>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="Q243" s="1">
         <f t="shared" si="19"/>
-        <v>8.1148028872271138E-3</v>
+        <v>8.114781795025082E-3</v>
       </c>
       <c r="R243" s="1">
         <f t="shared" si="20"/>
@@ -13468,15 +13468,15 @@
       </c>
       <c r="S243" s="1">
         <f t="shared" si="21"/>
-        <v>1.6693639568137984E-2</v>
+        <v>1.6693547046206542E-2</v>
       </c>
       <c r="T243" s="1">
         <f t="shared" si="15"/>
-        <v>54961.285714285717</v>
+        <v>54961.428571428572</v>
       </c>
       <c r="U243" s="1">
         <f t="shared" si="22"/>
-        <v>25775.428571428572</v>
+        <v>25775.571428571428</v>
       </c>
       <c r="V243" s="1">
         <f t="shared" si="23"/>
@@ -13497,10 +13497,10 @@
       </c>
       <c r="B244" s="1">
         <f t="shared" si="13"/>
-        <v>2079269</v>
+        <v>2078627</v>
       </c>
       <c r="C244" s="1">
-        <v>6162</v>
+        <v>6161</v>
       </c>
       <c r="D244" s="3">
         <v>142</v>
@@ -13516,7 +13516,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" si="14"/>
-        <v>120272</v>
+        <v>120269</v>
       </c>
       <c r="I244" s="1">
         <v>6193</v>
@@ -13583,10 +13583,10 @@
       </c>
       <c r="B245" s="1">
         <f t="shared" si="13"/>
-        <v>2097653</v>
+        <v>2097004</v>
       </c>
       <c r="C245" s="1">
-        <v>18384</v>
+        <v>18377</v>
       </c>
       <c r="D245" s="3">
         <v>427</v>
@@ -13602,13 +13602,13 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" si="14"/>
-        <v>122016</v>
+        <v>122013</v>
       </c>
       <c r="I245" s="1">
-        <v>18520</v>
+        <v>18519</v>
       </c>
       <c r="J245" s="1">
-        <v>60090</v>
+        <v>60091</v>
       </c>
       <c r="K245" s="1">
         <v>78610</v>
@@ -13669,10 +13669,10 @@
       </c>
       <c r="B246" s="1">
         <f t="shared" si="13"/>
-        <v>2116043</v>
+        <v>2115388</v>
       </c>
       <c r="C246" s="1">
-        <v>18390</v>
+        <v>18384</v>
       </c>
       <c r="D246" s="3">
         <v>509</v>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" si="14"/>
-        <v>122669</v>
+        <v>122666</v>
       </c>
       <c r="I246" s="1">
         <v>18523</v>
@@ -13755,10 +13755,10 @@
       </c>
       <c r="B247" s="1">
         <f t="shared" si="13"/>
-        <v>2132915</v>
+        <v>2132256</v>
       </c>
       <c r="C247" s="1">
-        <v>16872</v>
+        <v>16868</v>
       </c>
       <c r="D247" s="3">
         <v>560</v>
@@ -13774,7 +13774,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" si="14"/>
-        <v>124411</v>
+        <v>124408</v>
       </c>
       <c r="I247" s="1">
         <v>16956</v>
@@ -13841,10 +13841,10 @@
       </c>
       <c r="B248" s="1">
         <f t="shared" si="13"/>
-        <v>2149856</v>
+        <v>2149190</v>
       </c>
       <c r="C248" s="1">
-        <v>16941</v>
+        <v>16934</v>
       </c>
       <c r="D248" s="3">
         <v>598</v>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" si="14"/>
-        <v>126151</v>
+        <v>126148</v>
       </c>
       <c r="I248" s="1">
         <v>17084</v>
@@ -13927,10 +13927,10 @@
       </c>
       <c r="B249" s="1">
         <f t="shared" si="13"/>
-        <v>2166051</v>
+        <v>2165377</v>
       </c>
       <c r="C249" s="1">
-        <v>16195</v>
+        <v>16187</v>
       </c>
       <c r="D249" s="3">
         <v>553</v>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" si="14"/>
-        <v>127993</v>
+        <v>127990</v>
       </c>
       <c r="I249" s="1">
         <v>16263</v>
@@ -14013,10 +14013,10 @@
       </c>
       <c r="B250" s="1">
         <f t="shared" si="13"/>
-        <v>2177225</v>
+        <v>2176545</v>
       </c>
       <c r="C250" s="1">
-        <v>11174</v>
+        <v>11168</v>
       </c>
       <c r="D250" s="3">
         <v>364</v>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" si="14"/>
-        <v>129370</v>
+        <v>129367</v>
       </c>
       <c r="I250" s="1">
         <v>11236</v>
@@ -14099,10 +14099,10 @@
       </c>
       <c r="B251" s="1">
         <f t="shared" si="13"/>
-        <v>2185861</v>
+        <v>2185176</v>
       </c>
       <c r="C251" s="1">
-        <v>8636</v>
+        <v>8631</v>
       </c>
       <c r="D251" s="3">
         <v>224</v>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" si="14"/>
-        <v>130627</v>
+        <v>130624</v>
       </c>
       <c r="I251" s="1">
         <v>8696</v>
@@ -14185,10 +14185,10 @@
       </c>
       <c r="B252" s="1">
         <f t="shared" si="13"/>
-        <v>2206970</v>
+        <v>2206276</v>
       </c>
       <c r="C252" s="1">
-        <v>21109</v>
+        <v>21100</v>
       </c>
       <c r="D252" s="3">
         <v>867</v>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" si="14"/>
-        <v>132361</v>
+        <v>132358</v>
       </c>
       <c r="I252" s="1">
         <v>21176</v>
@@ -14271,10 +14271,10 @@
       </c>
       <c r="B253" s="1">
         <f t="shared" si="13"/>
-        <v>2226695</v>
+        <v>2225986</v>
       </c>
       <c r="C253" s="1">
-        <v>19725</v>
+        <v>19710</v>
       </c>
       <c r="D253" s="3">
         <v>719</v>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" si="14"/>
-        <v>134149</v>
+        <v>134146</v>
       </c>
       <c r="I253" s="1">
         <v>19861</v>
@@ -14357,10 +14357,10 @@
       </c>
       <c r="B254" s="1">
         <f t="shared" si="13"/>
-        <v>2243875</v>
+        <v>2243156</v>
       </c>
       <c r="C254" s="1">
-        <v>17180</v>
+        <v>17170</v>
       </c>
       <c r="D254" s="3">
         <v>613</v>
@@ -14372,11 +14372,11 @@
         <v>67</v>
       </c>
       <c r="G254" s="1">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H254" s="1">
         <f t="shared" si="14"/>
-        <v>135875</v>
+        <v>135871</v>
       </c>
       <c r="I254" s="1">
         <v>17256</v>
@@ -14443,10 +14443,10 @@
       </c>
       <c r="B255" s="1">
         <f t="shared" si="13"/>
-        <v>2260072</v>
+        <v>2259343</v>
       </c>
       <c r="C255" s="1">
-        <v>16197</v>
+        <v>16187</v>
       </c>
       <c r="D255" s="3">
         <v>683</v>
@@ -14462,13 +14462,13 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" si="14"/>
-        <v>137563</v>
+        <v>137559</v>
       </c>
       <c r="I255" s="1">
-        <v>16256</v>
+        <v>16255</v>
       </c>
       <c r="J255" s="1">
-        <v>60045</v>
+        <v>60046</v>
       </c>
       <c r="K255" s="1">
         <v>76301</v>
@@ -14529,10 +14529,10 @@
       </c>
       <c r="B256" s="1">
         <f t="shared" si="13"/>
-        <v>2276967</v>
+        <v>2276234</v>
       </c>
       <c r="C256" s="1">
-        <v>16895</v>
+        <v>16891</v>
       </c>
       <c r="D256" s="3">
         <v>566</v>
@@ -14548,16 +14548,16 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" si="14"/>
-        <v>139477</v>
+        <v>139473</v>
       </c>
       <c r="I256" s="1">
-        <v>16962</v>
+        <v>16963</v>
       </c>
       <c r="J256" s="1">
         <v>47665</v>
       </c>
       <c r="K256" s="1">
-        <v>64627</v>
+        <v>64628</v>
       </c>
       <c r="L256" s="1">
         <v>674</v>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="O256" s="1">
         <f t="shared" si="17"/>
-        <v>33014</v>
+        <v>33015</v>
       </c>
       <c r="P256" s="1">
         <f t="shared" si="18"/>
@@ -14578,7 +14578,7 @@
       </c>
       <c r="Q256" s="1">
         <f t="shared" si="19"/>
-        <v>1.1337765557177359E-2</v>
+        <v>1.1337738472343659E-2</v>
       </c>
       <c r="R256" s="1">
         <f t="shared" si="20"/>
@@ -14586,15 +14586,15 @@
       </c>
       <c r="S256" s="1">
         <f t="shared" si="21"/>
-        <v>2.0955317301486327E-2</v>
+        <v>2.0955219999628537E-2</v>
       </c>
       <c r="T256" s="1">
         <f t="shared" si="15"/>
-        <v>59800.142857142855</v>
+        <v>59800.285714285717</v>
       </c>
       <c r="U256" s="1">
         <f t="shared" si="22"/>
-        <v>30766.142857142859</v>
+        <v>30766.285714285714</v>
       </c>
       <c r="V256" s="1">
         <f t="shared" si="23"/>
@@ -14615,10 +14615,10 @@
       </c>
       <c r="B257" s="1">
         <f t="shared" si="13"/>
-        <v>2288539</v>
+        <v>2287802</v>
       </c>
       <c r="C257" s="1">
-        <v>11572</v>
+        <v>11568</v>
       </c>
       <c r="D257" s="3">
         <v>408</v>
@@ -14634,16 +14634,16 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" si="14"/>
-        <v>141064</v>
+        <v>141060</v>
       </c>
       <c r="I257" s="1">
         <v>11669</v>
       </c>
       <c r="J257" s="1">
-        <v>17017</v>
+        <v>17018</v>
       </c>
       <c r="K257" s="1">
-        <v>28686</v>
+        <v>28687</v>
       </c>
       <c r="L257" s="1">
         <v>483</v>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="O257" s="1">
         <f t="shared" si="17"/>
-        <v>19540</v>
+        <v>19541</v>
       </c>
       <c r="P257" s="1">
         <f t="shared" si="18"/>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="Q257" s="1">
         <f t="shared" si="19"/>
-        <v>1.1432033932538881E-2</v>
+        <v>1.1431979602553958E-2</v>
       </c>
       <c r="R257" s="1">
         <f t="shared" si="20"/>
@@ -14672,15 +14672,15 @@
       </c>
       <c r="S257" s="1">
         <f t="shared" si="21"/>
-        <v>2.1116208303557021E-2</v>
+        <v>2.111601359170482E-2</v>
       </c>
       <c r="T257" s="1">
         <f t="shared" si="15"/>
-        <v>60119.285714285717</v>
+        <v>60119.571428571428</v>
       </c>
       <c r="U257" s="1">
         <f t="shared" si="22"/>
-        <v>30985</v>
+        <v>30985.285714285714</v>
       </c>
       <c r="V257" s="1">
         <f t="shared" si="23"/>
@@ -14701,10 +14701,10 @@
       </c>
       <c r="B258" s="1">
         <f t="shared" si="13"/>
-        <v>2296153</v>
+        <v>2295412</v>
       </c>
       <c r="C258" s="1">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="D258" s="3">
         <v>292</v>
@@ -14720,13 +14720,13 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" si="14"/>
-        <v>142757</v>
+        <v>142753</v>
       </c>
       <c r="I258" s="1">
-        <v>7633</v>
+        <v>7632</v>
       </c>
       <c r="J258" s="1">
-        <v>18946</v>
+        <v>18947</v>
       </c>
       <c r="K258" s="1">
         <v>26579</v>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="Q258" s="1">
         <f t="shared" si="19"/>
-        <v>1.1553128117328277E-2</v>
+        <v>1.1553073626967076E-2</v>
       </c>
       <c r="R258" s="1">
         <f t="shared" si="20"/>
@@ -14758,15 +14758,15 @@
       </c>
       <c r="S258" s="1">
         <f t="shared" si="21"/>
-        <v>2.1507602419892809E-2</v>
+        <v>2.1507404527826211E-2</v>
       </c>
       <c r="T258" s="1">
         <f t="shared" si="15"/>
-        <v>60577.285714285717</v>
+        <v>60577.571428571428</v>
       </c>
       <c r="U258" s="1">
         <f t="shared" si="22"/>
-        <v>31052.142857142859</v>
+        <v>31052.428571428572</v>
       </c>
       <c r="V258" s="1">
         <f t="shared" si="23"/>
@@ -14787,10 +14787,10 @@
       </c>
       <c r="B259" s="1">
         <f t="shared" si="13"/>
-        <v>2317924</v>
+        <v>2317177</v>
       </c>
       <c r="C259" s="1">
-        <v>21771</v>
+        <v>21765</v>
       </c>
       <c r="D259" s="3">
         <v>751</v>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" si="14"/>
-        <v>143639</v>
+        <v>143635</v>
       </c>
       <c r="I259" s="1">
         <v>21813</v>
@@ -14836,7 +14836,7 @@
       </c>
       <c r="Q259" s="1">
         <f t="shared" si="19"/>
-        <v>1.1148926725054797E-2</v>
+        <v>1.1148875170516289E-2</v>
       </c>
       <c r="R259" s="1">
         <f t="shared" si="20"/>
@@ -14844,15 +14844,15 @@
       </c>
       <c r="S259" s="1">
         <f t="shared" si="21"/>
-        <v>2.0828540107458486E-2</v>
+        <v>2.0828352182758979E-2</v>
       </c>
       <c r="T259" s="1">
         <f t="shared" si="15"/>
-        <v>61786.857142857145</v>
+        <v>61787.142857142855</v>
       </c>
       <c r="U259" s="1">
         <f t="shared" si="22"/>
-        <v>31666.714285714286</v>
+        <v>31667</v>
       </c>
       <c r="V259" s="1">
         <f t="shared" si="23"/>
@@ -14872,11 +14872,11 @@
         <v>44110</v>
       </c>
       <c r="B260" s="1">
-        <f t="shared" ref="B260:B320" si="26">C260+B259</f>
-        <v>2339709</v>
+        <f t="shared" ref="B260:B321" si="26">C260+B259</f>
+        <v>2338955</v>
       </c>
       <c r="C260" s="1">
-        <v>21785</v>
+        <v>21778</v>
       </c>
       <c r="D260" s="3">
         <v>734</v>
@@ -14892,16 +14892,16 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ref="H260:H279" si="27">G260+H259</f>
-        <v>145784</v>
+        <v>145780</v>
       </c>
       <c r="I260" s="1">
-        <v>21888</v>
+        <v>21886</v>
       </c>
       <c r="J260" s="1">
-        <v>65790</v>
+        <v>65791</v>
       </c>
       <c r="K260" s="1">
-        <v>87678</v>
+        <v>87677</v>
       </c>
       <c r="L260" s="1">
         <v>881</v>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="O260" s="1">
         <f t="shared" si="17"/>
-        <v>45957</v>
+        <v>45956</v>
       </c>
       <c r="P260" s="1">
         <f t="shared" si="18"/>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="Q260" s="1">
         <f t="shared" si="19"/>
-        <v>1.1022028207154356E-2</v>
+        <v>1.1022003251355109E-2</v>
       </c>
       <c r="R260" s="1">
         <f t="shared" si="20"/>
@@ -14930,15 +14930,15 @@
       </c>
       <c r="S260" s="1">
         <f t="shared" si="21"/>
-        <v>2.0462216696363295E-2</v>
+        <v>2.0462127115601823E-2</v>
       </c>
       <c r="T260" s="1">
         <f t="shared" si="15"/>
-        <v>63094.428571428572</v>
+        <v>63094.571428571428</v>
       </c>
       <c r="U260" s="1">
         <f t="shared" si="22"/>
-        <v>32631.571428571428</v>
+        <v>32631.714285714286</v>
       </c>
       <c r="V260" s="1">
         <f t="shared" si="23"/>
@@ -14959,10 +14959,10 @@
       </c>
       <c r="B261" s="1">
         <f t="shared" si="26"/>
-        <v>2360650</v>
+        <v>2359892</v>
       </c>
       <c r="C261" s="1">
-        <v>20941</v>
+        <v>20937</v>
       </c>
       <c r="D261" s="3">
         <v>720</v>
@@ -14978,13 +14978,13 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" si="27"/>
-        <v>147826</v>
+        <v>147822</v>
       </c>
       <c r="I261" s="1">
-        <v>21047</v>
+        <v>21046</v>
       </c>
       <c r="J261" s="1">
-        <v>56650</v>
+        <v>56651</v>
       </c>
       <c r="K261" s="1">
         <v>77697</v>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="Q261" s="1">
         <f t="shared" si="19"/>
-        <v>1.1055822188469979E-2</v>
+        <v>1.105579778133451E-2</v>
       </c>
       <c r="R261" s="1">
         <f t="shared" si="20"/>
@@ -15016,15 +15016,15 @@
       </c>
       <c r="S261" s="1">
         <f t="shared" si="21"/>
-        <v>2.0477122024338813E-2</v>
+        <v>2.0477035318228202E-2</v>
       </c>
       <c r="T261" s="1">
         <f t="shared" si="15"/>
-        <v>64710.571428571428</v>
+        <v>64710.714285714283</v>
       </c>
       <c r="U261" s="1">
         <f t="shared" si="22"/>
-        <v>33738</v>
+        <v>33738.142857142855</v>
       </c>
       <c r="V261" s="1">
         <f t="shared" si="23"/>
@@ -15045,10 +15045,10 @@
       </c>
       <c r="B262" s="1">
         <f t="shared" si="26"/>
-        <v>2379730</v>
+        <v>2378966</v>
       </c>
       <c r="C262" s="1">
-        <v>19080</v>
+        <v>19074</v>
       </c>
       <c r="D262" s="3">
         <v>833</v>
@@ -15064,13 +15064,13 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" si="27"/>
-        <v>149893</v>
+        <v>149889</v>
       </c>
       <c r="I262" s="1">
-        <v>19057</v>
+        <v>19056</v>
       </c>
       <c r="J262" s="1">
-        <v>67591</v>
+        <v>67592</v>
       </c>
       <c r="K262" s="1">
         <v>86648</v>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="Q262" s="1">
         <f t="shared" si="19"/>
-        <v>1.1193103701321545E-2</v>
+        <v>1.1193079542952849E-2</v>
       </c>
       <c r="R262" s="1">
         <f t="shared" si="20"/>
@@ -15102,15 +15102,15 @@
       </c>
       <c r="S262" s="1">
         <f t="shared" si="21"/>
-        <v>2.0547917236648141E-2</v>
+        <v>2.0547833330611043E-2</v>
       </c>
       <c r="T262" s="1">
         <f t="shared" si="15"/>
-        <v>66188.71428571429</v>
+        <v>66188.857142857145</v>
       </c>
       <c r="U262" s="1">
         <f t="shared" si="22"/>
-        <v>34984.428571428572</v>
+        <v>34984.571428571428</v>
       </c>
       <c r="V262" s="1">
         <f t="shared" si="23"/>
@@ -15131,10 +15131,10 @@
       </c>
       <c r="B263" s="1">
         <f t="shared" si="26"/>
-        <v>2395649</v>
+        <v>2394882</v>
       </c>
       <c r="C263" s="1">
-        <v>15919</v>
+        <v>15916</v>
       </c>
       <c r="D263" s="3">
         <v>691</v>
@@ -15150,13 +15150,13 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" si="27"/>
-        <v>151889</v>
+        <v>151885</v>
       </c>
       <c r="I263" s="1">
-        <v>15883</v>
+        <v>15882</v>
       </c>
       <c r="J263" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="K263" s="1">
         <v>59824</v>
@@ -15217,10 +15217,10 @@
       </c>
       <c r="B264" s="1">
         <f t="shared" si="26"/>
-        <v>2406044</v>
+        <v>2405273</v>
       </c>
       <c r="C264" s="1">
-        <v>10395</v>
+        <v>10391</v>
       </c>
       <c r="D264" s="3">
         <v>413</v>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" si="27"/>
-        <v>153516</v>
+        <v>153512</v>
       </c>
       <c r="I264" s="1">
         <v>10373</v>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="Q264" s="1">
         <f t="shared" si="19"/>
-        <v>1.1979181617642188E-2</v>
+        <v>1.1979208069459533E-2</v>
       </c>
       <c r="R264" s="1">
         <f t="shared" si="20"/>
@@ -15274,15 +15274,15 @@
       </c>
       <c r="S264" s="1">
         <f t="shared" si="21"/>
-        <v>2.1431928306350982E-2</v>
+        <v>2.1432015136107475E-2</v>
       </c>
       <c r="T264" s="1">
         <f t="shared" si="15"/>
-        <v>64695.571428571428</v>
+        <v>64695.428571428572</v>
       </c>
       <c r="U264" s="1">
         <f t="shared" si="22"/>
-        <v>35261.142857142855</v>
+        <v>35261</v>
       </c>
       <c r="V264" s="1">
         <f t="shared" si="23"/>
@@ -15303,10 +15303,10 @@
       </c>
       <c r="B265" s="1">
         <f t="shared" si="26"/>
-        <v>2413264</v>
+        <v>2412492</v>
       </c>
       <c r="C265" s="1">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="D265" s="3">
         <v>264</v>
@@ -15322,7 +15322,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" si="27"/>
-        <v>154881</v>
+        <v>154877</v>
       </c>
       <c r="I265" s="1">
         <v>7212</v>
@@ -15352,7 +15352,7 @@
       </c>
       <c r="Q265" s="1">
         <f t="shared" si="19"/>
-        <v>1.2006651070337071E-2</v>
+        <v>1.2006677796327213E-2</v>
       </c>
       <c r="R265" s="1">
         <f t="shared" si="20"/>
@@ -15360,15 +15360,15 @@
       </c>
       <c r="S265" s="1">
         <f t="shared" si="21"/>
-        <v>2.1382901802760604E-2</v>
+        <v>2.1382988662628923E-2</v>
       </c>
       <c r="T265" s="1">
         <f t="shared" ref="T265:T279" si="28">AVERAGE(K259:K265)</f>
-        <v>64178.714285714283</v>
+        <v>64178.571428571428</v>
       </c>
       <c r="U265" s="1">
         <f t="shared" si="22"/>
-        <v>35168.285714285717</v>
+        <v>35168.142857142855</v>
       </c>
       <c r="V265" s="1">
         <f t="shared" si="23"/>
@@ -15389,10 +15389,10 @@
       </c>
       <c r="B266" s="1">
         <f t="shared" si="26"/>
-        <v>2427150</v>
+        <v>2426377</v>
       </c>
       <c r="C266" s="1">
-        <v>13886</v>
+        <v>13885</v>
       </c>
       <c r="D266" s="3">
         <v>593</v>
@@ -15408,16 +15408,16 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" si="27"/>
-        <v>156947</v>
+        <v>156943</v>
       </c>
       <c r="I266" s="1">
-        <v>13863</v>
+        <v>13862</v>
       </c>
       <c r="J266" s="1">
         <v>45765</v>
       </c>
       <c r="K266" s="1">
-        <v>59628</v>
+        <v>59627</v>
       </c>
       <c r="L266" s="1">
         <v>749</v>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="O266" s="1">
         <f t="shared" si="17"/>
-        <v>30986</v>
+        <v>30985</v>
       </c>
       <c r="P266" s="1">
         <f t="shared" si="18"/>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="Q266" s="1">
         <f t="shared" si="19"/>
-        <v>1.2508593370110163E-2</v>
+        <v>1.2508653295678024E-2</v>
       </c>
       <c r="R266" s="1">
         <f t="shared" si="20"/>
@@ -15446,15 +15446,15 @@
       </c>
       <c r="S266" s="1">
         <f t="shared" si="21"/>
-        <v>2.2083939698839664E-2</v>
+        <v>2.2084130431966283E-2</v>
       </c>
       <c r="T266" s="1">
         <f t="shared" si="28"/>
-        <v>59639</v>
+        <v>59638.714285714283</v>
       </c>
       <c r="U266" s="1">
         <f t="shared" si="22"/>
-        <v>33081.571428571428</v>
+        <v>33081.285714285717</v>
       </c>
       <c r="V266" s="1">
         <f t="shared" si="23"/>
@@ -15475,10 +15475,10 @@
       </c>
       <c r="B267" s="1">
         <f t="shared" si="26"/>
-        <v>2445441</v>
+        <v>2444663</v>
       </c>
       <c r="C267" s="1">
-        <v>18291</v>
+        <v>18286</v>
       </c>
       <c r="D267" s="3">
         <v>788</v>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" si="27"/>
-        <v>158826</v>
+        <v>158822</v>
       </c>
       <c r="I267" s="1">
         <v>18212</v>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="Q267" s="1">
         <f t="shared" si="19"/>
-        <v>1.2658531092936232E-2</v>
+        <v>1.2658561418218842E-2</v>
       </c>
       <c r="R267" s="1">
         <f t="shared" si="20"/>
@@ -15532,15 +15532,15 @@
       </c>
       <c r="S267" s="1">
         <f t="shared" si="21"/>
-        <v>2.2454369747164235E-2</v>
+        <v>2.2454467936244178E-2</v>
       </c>
       <c r="T267" s="1">
         <f t="shared" si="28"/>
-        <v>59632.285714285717</v>
+        <v>59632.142857142855</v>
       </c>
       <c r="U267" s="1">
         <f t="shared" si="22"/>
-        <v>32669.428571428572</v>
+        <v>32669.285714285714</v>
       </c>
       <c r="V267" s="1">
         <f t="shared" si="23"/>
@@ -15561,10 +15561,10 @@
       </c>
       <c r="B268" s="1">
         <f t="shared" si="26"/>
-        <v>2465787</v>
+        <v>2465000</v>
       </c>
       <c r="C268" s="1">
-        <v>20346</v>
+        <v>20337</v>
       </c>
       <c r="D268" s="3">
         <v>899</v>
@@ -15580,7 +15580,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" si="27"/>
-        <v>160857</v>
+        <v>160853</v>
       </c>
       <c r="I268" s="1">
         <v>20340</v>
@@ -15610,7 +15610,7 @@
       </c>
       <c r="Q268" s="1">
         <f t="shared" si="19"/>
-        <v>1.305962237122972E-2</v>
+        <v>1.3059653140513197E-2</v>
       </c>
       <c r="R268" s="1">
         <f t="shared" si="20"/>
@@ -15618,15 +15618,15 @@
       </c>
       <c r="S268" s="1">
         <f t="shared" si="21"/>
-        <v>2.3261767564565397E-2</v>
+        <v>2.3261868499498836E-2</v>
       </c>
       <c r="T268" s="1">
         <f t="shared" si="28"/>
-        <v>60634</v>
+        <v>60633.857142857145</v>
       </c>
       <c r="U268" s="1">
         <f t="shared" si="22"/>
-        <v>32923.428571428572</v>
+        <v>32923.285714285717</v>
       </c>
       <c r="V268" s="1">
         <f t="shared" si="23"/>
@@ -15647,10 +15647,10 @@
       </c>
       <c r="B269" s="1">
         <f t="shared" si="26"/>
-        <v>2484417</v>
+        <v>2483623</v>
       </c>
       <c r="C269" s="1">
-        <v>18630</v>
+        <v>18623</v>
       </c>
       <c r="D269" s="3">
         <v>951</v>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" si="27"/>
-        <v>162674</v>
+        <v>162670</v>
       </c>
       <c r="I269" s="1">
         <v>18595</v>
@@ -15696,7 +15696,7 @@
       </c>
       <c r="Q269" s="1">
         <f t="shared" si="19"/>
-        <v>1.3452566827818431E-2</v>
+        <v>1.3452598460746206E-2</v>
       </c>
       <c r="R269" s="1">
         <f t="shared" si="20"/>
@@ -15704,15 +15704,15 @@
       </c>
       <c r="S269" s="1">
         <f t="shared" si="21"/>
-        <v>2.3942990816149715E-2</v>
+        <v>2.3943094537751421E-2</v>
       </c>
       <c r="T269" s="1">
         <f t="shared" si="28"/>
-        <v>60753.142857142855</v>
+        <v>60753</v>
       </c>
       <c r="U269" s="1">
         <f t="shared" si="22"/>
-        <v>32977.142857142855</v>
+        <v>32977</v>
       </c>
       <c r="V269" s="1">
         <f t="shared" si="23"/>
@@ -15733,10 +15733,10 @@
       </c>
       <c r="B270" s="1">
         <f t="shared" si="26"/>
-        <v>2501530</v>
+        <v>2500734</v>
       </c>
       <c r="C270" s="1">
-        <v>17113</v>
+        <v>17111</v>
       </c>
       <c r="D270" s="3">
         <v>866</v>
@@ -15752,7 +15752,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" si="27"/>
-        <v>164562</v>
+        <v>164558</v>
       </c>
       <c r="I270" s="1">
         <v>17006</v>
@@ -15782,7 +15782,7 @@
       </c>
       <c r="Q270" s="1">
         <f t="shared" si="19"/>
-        <v>1.3468220045310664E-2</v>
+        <v>1.3468250649893654E-2</v>
       </c>
       <c r="R270" s="1">
         <f t="shared" si="20"/>
@@ -15790,15 +15790,15 @@
       </c>
       <c r="S270" s="1">
         <f t="shared" si="21"/>
-        <v>2.4485115086887499E-2</v>
+        <v>2.4485219862040636E-2</v>
       </c>
       <c r="T270" s="1">
         <f t="shared" si="28"/>
-        <v>62867.571428571428</v>
+        <v>62867.428571428572</v>
       </c>
       <c r="U270" s="1">
         <f t="shared" si="22"/>
-        <v>33384.714285714283</v>
+        <v>33384.571428571428</v>
       </c>
       <c r="V270" s="1">
         <f t="shared" si="23"/>
@@ -15819,10 +15819,10 @@
       </c>
       <c r="B271" s="1">
         <f t="shared" si="26"/>
-        <v>2511921</v>
+        <v>2511120</v>
       </c>
       <c r="C271" s="1">
-        <v>10391</v>
+        <v>10386</v>
       </c>
       <c r="D271" s="3">
         <v>544</v>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" si="27"/>
-        <v>165929</v>
+        <v>165925</v>
       </c>
       <c r="I271" s="1">
         <v>10364</v>
@@ -15868,7 +15868,7 @@
       </c>
       <c r="Q271" s="1">
         <f t="shared" si="19"/>
-        <v>1.3619475356462973E-2</v>
+        <v>1.3619505894909614E-2</v>
       </c>
       <c r="R271" s="1">
         <f t="shared" si="20"/>
@@ -15876,15 +15876,15 @@
       </c>
       <c r="S271" s="1">
         <f t="shared" si="21"/>
-        <v>2.5006613248683751E-2</v>
+        <v>2.5006719942656488E-2</v>
       </c>
       <c r="T271" s="1">
         <f t="shared" si="28"/>
-        <v>63711.285714285717</v>
+        <v>63711.142857142855</v>
       </c>
       <c r="U271" s="1">
         <f t="shared" si="22"/>
-        <v>33482.571428571428</v>
+        <v>33482.428571428572</v>
       </c>
       <c r="V271" s="1">
         <f t="shared" si="23"/>
@@ -15905,10 +15905,10 @@
       </c>
       <c r="B272" s="1">
         <f t="shared" si="26"/>
-        <v>2519202</v>
+        <v>2518396</v>
       </c>
       <c r="C272" s="1">
-        <v>7281</v>
+        <v>7276</v>
       </c>
       <c r="D272" s="3">
         <v>331</v>
@@ -15924,13 +15924,13 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" si="27"/>
-        <v>167315</v>
+        <v>167311</v>
       </c>
       <c r="I272" s="1">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="J272" s="1">
-        <v>18375</v>
+        <v>18376</v>
       </c>
       <c r="K272" s="1">
         <v>25678</v>
@@ -15954,7 +15954,7 @@
       </c>
       <c r="Q272" s="1">
         <f t="shared" si="19"/>
-        <v>1.3690783960632589E-2</v>
+        <v>1.3690814473083053E-2</v>
       </c>
       <c r="R272" s="1">
         <f>((SUM(N266:N272))/(SUM(M266:M272)))</f>
@@ -15962,15 +15962,15 @@
       </c>
       <c r="S272" s="1">
         <f t="shared" si="21"/>
-        <v>2.5171050954060602E-2</v>
+        <v>2.5171157924261292E-2</v>
       </c>
       <c r="T272" s="1">
         <f t="shared" si="28"/>
-        <v>64099.428571428572</v>
+        <v>64099.285714285717</v>
       </c>
       <c r="U272" s="1">
         <f t="shared" si="22"/>
-        <v>33615.714285714283</v>
+        <v>33615.571428571428</v>
       </c>
       <c r="V272" s="1">
         <f t="shared" si="23"/>
@@ -15991,10 +15991,10 @@
       </c>
       <c r="B273" s="1">
         <f t="shared" si="26"/>
-        <v>2539618</v>
+        <v>2538808</v>
       </c>
       <c r="C273" s="1">
-        <v>20416</v>
+        <v>20412</v>
       </c>
       <c r="D273" s="3">
         <v>1080</v>
@@ -16010,13 +16010,13 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" si="27"/>
-        <v>169456</v>
+        <v>169452</v>
       </c>
       <c r="I273" s="1">
-        <v>20277</v>
+        <v>20276</v>
       </c>
       <c r="J273" s="1">
-        <v>67014</v>
+        <v>67015</v>
       </c>
       <c r="K273" s="1">
         <v>87291</v>
@@ -16077,10 +16077,10 @@
       </c>
       <c r="B274" s="1">
         <f t="shared" si="26"/>
-        <v>2559917</v>
+        <v>2559096</v>
       </c>
       <c r="C274" s="1">
-        <v>20299</v>
+        <v>20288</v>
       </c>
       <c r="D274" s="3">
         <v>1120</v>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" si="27"/>
-        <v>171391</v>
+        <v>171387</v>
       </c>
       <c r="I274" s="1">
         <v>20157</v>
@@ -16163,10 +16163,10 @@
       </c>
       <c r="B275" s="1">
         <f t="shared" si="26"/>
-        <v>2579550</v>
+        <v>2578725</v>
       </c>
       <c r="C275" s="1">
-        <v>19633</v>
+        <v>19629</v>
       </c>
       <c r="D275" s="3">
         <v>1203</v>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" si="27"/>
-        <v>173369</v>
+        <v>173365</v>
       </c>
       <c r="I275" s="1">
         <v>19487</v>
@@ -16249,10 +16249,10 @@
       </c>
       <c r="B276" s="1">
         <f t="shared" si="26"/>
-        <v>2599368</v>
+        <v>2598536</v>
       </c>
       <c r="C276" s="1">
-        <v>19818</v>
+        <v>19811</v>
       </c>
       <c r="D276" s="3">
         <v>1379</v>
@@ -16268,16 +16268,16 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" si="27"/>
-        <v>175283</v>
+        <v>175279</v>
       </c>
       <c r="I276" s="1">
         <v>19670</v>
       </c>
       <c r="J276" s="1">
-        <v>68976</v>
+        <v>68975</v>
       </c>
       <c r="K276" s="1">
-        <v>88646</v>
+        <v>88645</v>
       </c>
       <c r="L276" s="1">
         <v>1599</v>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="O276" s="1">
         <f t="shared" si="29"/>
-        <v>45792</v>
+        <v>45791</v>
       </c>
       <c r="P276" s="1">
         <f t="shared" si="30"/>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="Q276" s="1">
         <f t="shared" si="19"/>
-        <v>1.6410363998741215E-2</v>
+        <v>1.6410398427354301E-2</v>
       </c>
       <c r="R276" s="1">
         <f t="shared" si="20"/>
@@ -16306,15 +16306,15 @@
       </c>
       <c r="S276" s="1">
         <f t="shared" si="21"/>
-        <v>2.9272295134381367E-2</v>
+        <v>2.9272407895345076E-2</v>
       </c>
       <c r="T276" s="1">
         <f t="shared" si="28"/>
-        <v>68092.857142857145</v>
+        <v>68092.71428571429</v>
       </c>
       <c r="U276" s="1">
         <f t="shared" si="22"/>
-        <v>37085.285714285717</v>
+        <v>37085.142857142855</v>
       </c>
       <c r="V276" s="1">
         <f t="shared" si="23"/>
@@ -16335,10 +16335,10 @@
       </c>
       <c r="B277" s="1">
         <f t="shared" si="26"/>
-        <v>2617646</v>
+        <v>2616812</v>
       </c>
       <c r="C277" s="1">
-        <v>18278</v>
+        <v>18276</v>
       </c>
       <c r="D277" s="3">
         <v>1226</v>
@@ -16354,7 +16354,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" si="27"/>
-        <v>177140</v>
+        <v>177136</v>
       </c>
       <c r="I277" s="1">
         <v>18129</v>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="Q277" s="1">
         <f t="shared" si="19"/>
-        <v>1.7222949091390206E-2</v>
+        <v>1.7222985261442437E-2</v>
       </c>
       <c r="R277" s="1">
         <f t="shared" si="20"/>
@@ -16392,15 +16392,15 @@
       </c>
       <c r="S277" s="1">
         <f t="shared" si="21"/>
-        <v>3.0399676874830913E-2</v>
+        <v>3.0399792711365819E-2</v>
       </c>
       <c r="T277" s="1">
         <f t="shared" si="28"/>
-        <v>68023.857142857145</v>
+        <v>68023.71428571429</v>
       </c>
       <c r="U277" s="1">
         <f t="shared" si="22"/>
-        <v>37491</v>
+        <v>37490.857142857145</v>
       </c>
       <c r="V277" s="1">
         <f t="shared" si="23"/>
@@ -16421,10 +16421,10 @@
       </c>
       <c r="B278" s="1">
         <f t="shared" si="26"/>
-        <v>2629802</v>
+        <v>2628960</v>
       </c>
       <c r="C278" s="1">
-        <v>12156</v>
+        <v>12148</v>
       </c>
       <c r="D278" s="3">
         <v>788</v>
@@ -16440,16 +16440,16 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" si="27"/>
-        <v>178613</v>
+        <v>178609</v>
       </c>
       <c r="I278" s="1">
-        <v>12049</v>
+        <v>12048</v>
       </c>
       <c r="J278" s="1">
-        <v>19119</v>
+        <v>19121</v>
       </c>
       <c r="K278" s="1">
-        <v>31168</v>
+        <v>31169</v>
       </c>
       <c r="L278" s="1">
         <v>986</v>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="O278" s="1">
         <f t="shared" si="29"/>
-        <v>22477</v>
+        <v>22478</v>
       </c>
       <c r="P278" s="1">
         <f t="shared" si="30"/>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="B279" s="1">
         <f t="shared" si="26"/>
-        <v>2637424</v>
+        <v>2636582</v>
       </c>
       <c r="C279" s="1">
         <v>7622</v>
@@ -16526,7 +16526,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" si="27"/>
-        <v>180181</v>
+        <v>180177</v>
       </c>
       <c r="I279" s="1">
         <v>7528</v>
@@ -16593,10 +16593,10 @@
       </c>
       <c r="B280" s="1">
         <f t="shared" si="26"/>
-        <v>2659036</v>
+        <v>2658188</v>
       </c>
       <c r="C280" s="1">
-        <v>21612</v>
+        <v>21606</v>
       </c>
       <c r="D280" s="3">
         <v>1524</v>
@@ -16612,16 +16612,16 @@
       </c>
       <c r="H280" s="1">
         <f>G280+H279</f>
-        <v>182446</v>
+        <v>182442</v>
       </c>
       <c r="I280" s="1">
         <v>21265</v>
       </c>
       <c r="J280" s="1">
-        <v>72133</v>
+        <v>72134</v>
       </c>
       <c r="K280" s="1">
-        <v>93398</v>
+        <v>93399</v>
       </c>
       <c r="L280" s="1">
         <v>1814</v>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="O280" s="1">
         <f t="shared" si="29"/>
-        <v>50159</v>
+        <v>50160</v>
       </c>
       <c r="P280" s="1">
         <f t="shared" ref="P280:P287" si="37">L280-N280</f>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="Q280" s="1">
         <f t="shared" si="31"/>
-        <v>1.8883609718155385E-2</v>
+        <v>1.88835708612324E-2</v>
       </c>
       <c r="R280" s="1">
         <f t="shared" ref="R280:R287" si="38">((SUM(N274:N280))/(SUM(M274:M280)))</f>
@@ -16650,15 +16650,15 @@
       </c>
       <c r="S280" s="1">
         <f t="shared" ref="S280:S287" si="39">((SUM(P274:P280))/(SUM(O274:O280)))</f>
-        <v>3.3202362675964714E-2</v>
+        <v>3.3202239255365813E-2</v>
       </c>
       <c r="T280" s="1">
         <f t="shared" ref="T280:T287" si="40">AVERAGE(K274:K280)</f>
-        <v>69425.28571428571</v>
+        <v>69425.428571428565</v>
       </c>
       <c r="U280" s="1">
         <f t="shared" ref="U280:U287" si="41">AVERAGE(O274:O280)</f>
-        <v>38431</v>
+        <v>38431.142857142855</v>
       </c>
       <c r="V280" s="1">
         <f t="shared" ref="V280:V287" si="42">AVERAGE(M274:M280)</f>
@@ -16679,10 +16679,10 @@
       </c>
       <c r="B281" s="1">
         <f t="shared" si="26"/>
-        <v>2680078</v>
+        <v>2679227</v>
       </c>
       <c r="C281" s="1">
-        <v>21042</v>
+        <v>21039</v>
       </c>
       <c r="D281" s="3">
         <v>1346</v>
@@ -16697,17 +16697,17 @@
         <v>2234</v>
       </c>
       <c r="H281" s="1">
-        <f t="shared" ref="H281:H320" si="45">G281+H280</f>
-        <v>184680</v>
+        <f t="shared" ref="H281:H321" si="45">G281+H280</f>
+        <v>184676</v>
       </c>
       <c r="I281" s="1">
         <v>20883</v>
       </c>
       <c r="J281" s="1">
-        <v>72721</v>
+        <v>72722</v>
       </c>
       <c r="K281" s="1">
-        <v>93604</v>
+        <v>93605</v>
       </c>
       <c r="L281" s="1">
         <v>1561</v>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="O281" s="1">
         <f t="shared" si="29"/>
-        <v>50143</v>
+        <v>50144</v>
       </c>
       <c r="P281" s="1">
         <f t="shared" si="37"/>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="Q281" s="1">
         <f t="shared" si="31"/>
-        <v>1.9233008221416534E-2</v>
+        <v>1.9232929651515494E-2</v>
       </c>
       <c r="R281" s="1">
         <f t="shared" si="38"/>
@@ -16736,15 +16736,15 @@
       </c>
       <c r="S281" s="1">
         <f t="shared" si="39"/>
-        <v>3.3868453922764302E-2</v>
+        <v>3.3868204344061459E-2</v>
       </c>
       <c r="T281" s="1">
         <f t="shared" si="40"/>
-        <v>69939.28571428571</v>
+        <v>69939.571428571435</v>
       </c>
       <c r="U281" s="1">
         <f t="shared" si="41"/>
-        <v>38771.857142857145</v>
+        <v>38772.142857142855</v>
       </c>
       <c r="V281" s="1">
         <f t="shared" si="42"/>
@@ -16765,10 +16765,10 @@
       </c>
       <c r="B282" s="1">
         <f t="shared" si="26"/>
-        <v>2700086</v>
+        <v>2699228</v>
       </c>
       <c r="C282" s="1">
-        <v>20008</v>
+        <v>20001</v>
       </c>
       <c r="D282" s="3">
         <v>1443</v>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" si="45"/>
-        <v>187107</v>
+        <v>187103</v>
       </c>
       <c r="I282" s="1">
         <v>19667</v>
@@ -16814,7 +16814,7 @@
       </c>
       <c r="Q282" s="1">
         <f t="shared" si="31"/>
-        <v>1.9775963748497018E-2</v>
+        <v>1.9775882870171565E-2</v>
       </c>
       <c r="R282" s="1">
         <f t="shared" si="38"/>
@@ -16822,15 +16822,15 @@
       </c>
       <c r="S282" s="1">
         <f t="shared" si="39"/>
-        <v>3.4592199949307387E-2</v>
+        <v>3.4591945810726922E-2</v>
       </c>
       <c r="T282" s="1">
         <f t="shared" si="40"/>
-        <v>69861.142857142855</v>
+        <v>69861.428571428565</v>
       </c>
       <c r="U282" s="1">
         <f t="shared" si="41"/>
-        <v>38889.857142857145</v>
+        <v>38890.142857142855</v>
       </c>
       <c r="V282" s="1">
         <f t="shared" si="42"/>
@@ -16851,10 +16851,10 @@
       </c>
       <c r="B283" s="1">
         <f t="shared" si="26"/>
-        <v>2722559</v>
+        <v>2721695</v>
       </c>
       <c r="C283" s="1">
-        <v>22473</v>
+        <v>22467</v>
       </c>
       <c r="D283" s="3">
         <v>1386</v>
@@ -16870,13 +16870,13 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" si="45"/>
-        <v>189734</v>
+        <v>189730</v>
       </c>
       <c r="I283" s="1">
-        <v>22185</v>
+        <v>22184</v>
       </c>
       <c r="J283" s="1">
-        <v>73052</v>
+        <v>73053</v>
       </c>
       <c r="K283" s="1">
         <v>95237</v>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="Q283" s="1">
         <f t="shared" si="31"/>
-        <v>1.9638068758461642E-2</v>
+        <v>1.9637949889230098E-2</v>
       </c>
       <c r="R283" s="1">
         <f t="shared" si="38"/>
@@ -16908,15 +16908,15 @@
       </c>
       <c r="S283" s="1">
         <f t="shared" si="39"/>
-        <v>3.3986191651834412E-2</v>
+        <v>3.3985825782721808E-2</v>
       </c>
       <c r="T283" s="1">
         <f t="shared" si="40"/>
-        <v>70802.71428571429</v>
+        <v>70803.142857142855</v>
       </c>
       <c r="U283" s="1">
         <f t="shared" si="41"/>
-        <v>39810.285714285717</v>
+        <v>39810.714285714283</v>
       </c>
       <c r="V283" s="1">
         <f t="shared" si="42"/>
@@ -16937,10 +16937,10 @@
       </c>
       <c r="B284" s="1">
         <f t="shared" si="26"/>
-        <v>2739857</v>
+        <v>2738991</v>
       </c>
       <c r="C284" s="1">
-        <v>17298</v>
+        <v>17296</v>
       </c>
       <c r="D284" s="3">
         <v>1125</v>
@@ -16956,7 +16956,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" si="45"/>
-        <v>192097</v>
+        <v>192093</v>
       </c>
       <c r="I284" s="1">
         <v>17133</v>
@@ -16986,7 +16986,7 @@
       </c>
       <c r="Q284" s="1">
         <f t="shared" si="31"/>
-        <v>1.9623526251198231E-2</v>
+        <v>1.9623406437747275E-2</v>
       </c>
       <c r="R284" s="1">
         <f t="shared" si="38"/>
@@ -16994,15 +16994,15 @@
       </c>
       <c r="S284" s="1">
         <f t="shared" si="39"/>
-        <v>3.3958616894963947E-2</v>
+        <v>3.3958248114938951E-2</v>
       </c>
       <c r="T284" s="1">
         <f t="shared" si="40"/>
-        <v>70192.71428571429</v>
+        <v>70193.142857142855</v>
       </c>
       <c r="U284" s="1">
         <f t="shared" si="41"/>
-        <v>39464</v>
+        <v>39464.428571428572</v>
       </c>
       <c r="V284" s="1">
         <f t="shared" si="42"/>
@@ -17023,10 +17023,10 @@
       </c>
       <c r="B285" s="1">
         <f t="shared" si="26"/>
-        <v>2752086</v>
+        <v>2751214</v>
       </c>
       <c r="C285" s="1">
-        <v>12229</v>
+        <v>12223</v>
       </c>
       <c r="D285" s="3">
         <v>872</v>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" si="45"/>
-        <v>193795</v>
+        <v>193791</v>
       </c>
       <c r="I285" s="1">
         <v>12115</v>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="Q285" s="1">
         <f t="shared" si="31"/>
-        <v>1.9688746909997199E-2</v>
+        <v>1.9688666991394706E-2</v>
       </c>
       <c r="R285" s="1">
         <f t="shared" si="38"/>
@@ -17080,15 +17080,15 @@
       </c>
       <c r="S285" s="1">
         <f t="shared" si="39"/>
-        <v>3.4029885173465196E-2</v>
+        <v>3.4029639881209814E-2</v>
       </c>
       <c r="T285" s="1">
         <f t="shared" si="40"/>
-        <v>70388.28571428571</v>
+        <v>70388.571428571435</v>
       </c>
       <c r="U285" s="1">
         <f t="shared" si="41"/>
-        <v>39637.428571428572</v>
+        <v>39637.714285714283</v>
       </c>
       <c r="V285" s="1">
         <f t="shared" si="42"/>
@@ -17109,10 +17109,10 @@
       </c>
       <c r="B286" s="1">
         <f t="shared" si="26"/>
-        <v>2760567</v>
+        <v>2759691</v>
       </c>
       <c r="C286" s="1">
-        <v>8481</v>
+        <v>8477</v>
       </c>
       <c r="D286" s="3">
         <v>522</v>
@@ -17128,7 +17128,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" si="45"/>
-        <v>195348</v>
+        <v>195344</v>
       </c>
       <c r="I286" s="1">
         <v>8359</v>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="Q286" s="1">
         <f t="shared" si="31"/>
-        <v>1.9703101189815421E-2</v>
+        <v>1.9703021654755105E-2</v>
       </c>
       <c r="R286" s="1">
         <f t="shared" si="38"/>
@@ -17166,15 +17166,15 @@
       </c>
       <c r="S286" s="1">
         <f t="shared" si="39"/>
-        <v>3.3961846083469735E-2</v>
+        <v>3.396160333933728E-2</v>
       </c>
       <c r="T286" s="1">
         <f t="shared" si="40"/>
-        <v>70779.28571428571</v>
+        <v>70779.571428571435</v>
       </c>
       <c r="U286" s="1">
         <f t="shared" si="41"/>
-        <v>39973.428571428572</v>
+        <v>39973.714285714283</v>
       </c>
       <c r="V286" s="1">
         <f t="shared" si="42"/>
@@ -17195,10 +17195,10 @@
       </c>
       <c r="B287" s="1">
         <f t="shared" si="26"/>
-        <v>2784843</v>
+        <v>2783955</v>
       </c>
       <c r="C287" s="1">
-        <v>24276</v>
+        <v>24264</v>
       </c>
       <c r="D287" s="3">
         <v>1840</v>
@@ -17214,13 +17214,13 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" si="45"/>
-        <v>197718</v>
+        <v>197714</v>
       </c>
       <c r="I287" s="1">
-        <v>23858</v>
+        <v>23857</v>
       </c>
       <c r="J287" s="1">
-        <v>80925</v>
+        <v>80926</v>
       </c>
       <c r="K287" s="1">
         <v>104783</v>
@@ -17244,7 +17244,7 @@
       </c>
       <c r="Q287" s="1">
         <f t="shared" si="31"/>
-        <v>1.997869150027622E-2</v>
+        <v>1.9978652082211185E-2</v>
       </c>
       <c r="R287" s="1">
         <f t="shared" si="38"/>
@@ -17252,15 +17252,15 @@
       </c>
       <c r="S287" s="1">
         <f t="shared" si="39"/>
-        <v>3.4516122247228824E-2</v>
+        <v>3.4516001247988669E-2</v>
       </c>
       <c r="T287" s="1">
         <f t="shared" si="40"/>
-        <v>72405.71428571429</v>
+        <v>72405.857142857145</v>
       </c>
       <c r="U287" s="1">
         <f t="shared" si="41"/>
-        <v>40751.142857142855</v>
+        <v>40751.285714285717</v>
       </c>
       <c r="V287" s="1">
         <f t="shared" si="42"/>
@@ -17281,10 +17281,10 @@
       </c>
       <c r="B288" s="1">
         <f t="shared" si="26"/>
-        <v>2812084</v>
+        <v>2811191</v>
       </c>
       <c r="C288" s="1">
-        <v>27241</v>
+        <v>27236</v>
       </c>
       <c r="D288" s="3">
         <v>1911</v>
@@ -17300,16 +17300,16 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" si="45"/>
-        <v>200101</v>
+        <v>200097</v>
       </c>
       <c r="I288" s="1">
         <v>26794</v>
       </c>
       <c r="J288" s="1">
-        <v>69289</v>
+        <v>69290</v>
       </c>
       <c r="K288" s="1">
-        <v>96083</v>
+        <v>96084</v>
       </c>
       <c r="L288" s="1">
         <v>2224</v>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="O288" s="1">
         <f t="shared" ref="O288" si="46">K288-M288</f>
-        <v>53504</v>
+        <v>53505</v>
       </c>
       <c r="P288" s="1">
         <f t="shared" ref="P288" si="47">L288-N288</f>
@@ -17330,7 +17330,7 @@
       </c>
       <c r="Q288" s="1">
         <f t="shared" ref="Q288" si="48">((SUM(L282:L288))/(SUM(K282:K288)))</f>
-        <v>2.1183187746775595E-2</v>
+        <v>2.1183146155658524E-2</v>
       </c>
       <c r="R288" s="1">
         <f t="shared" ref="R288" si="49">((SUM(N282:N288))/(SUM(M282:M288)))</f>
@@ -17338,15 +17338,15 @@
       </c>
       <c r="S288" s="1">
         <f t="shared" ref="S288" si="50">((SUM(P282:P288))/(SUM(O282:O288)))</f>
-        <v>3.609949448927479E-2</v>
+        <v>3.6099369413069085E-2</v>
       </c>
       <c r="T288" s="1">
         <f t="shared" ref="T288" si="51">AVERAGE(K282:K288)</f>
-        <v>72759.857142857145</v>
+        <v>72760</v>
       </c>
       <c r="U288" s="1">
         <f t="shared" ref="U288" si="52">AVERAGE(O282:O288)</f>
-        <v>41231.285714285717</v>
+        <v>41231.428571428572</v>
       </c>
       <c r="V288" s="1">
         <f t="shared" ref="V288" si="53">AVERAGE(M282:M288)</f>
@@ -17367,10 +17367,10 @@
       </c>
       <c r="B289" s="1">
         <f t="shared" si="26"/>
-        <v>2834962</v>
+        <v>2834059</v>
       </c>
       <c r="C289" s="1">
-        <v>22878</v>
+        <v>22868</v>
       </c>
       <c r="D289" s="3">
         <v>2179</v>
@@ -17382,17 +17382,17 @@
         <v>194</v>
       </c>
       <c r="G289" s="1">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="H289" s="1">
         <f t="shared" si="45"/>
-        <v>202518</v>
+        <v>202513</v>
       </c>
       <c r="I289" s="1">
-        <v>22279</v>
+        <v>22278</v>
       </c>
       <c r="J289" s="1">
-        <v>68111</v>
+        <v>68112</v>
       </c>
       <c r="K289" s="1">
         <v>90390</v>
@@ -17416,7 +17416,7 @@
       </c>
       <c r="Q289" s="1">
         <f t="shared" ref="Q289" si="57">((SUM(L283:L289))/(SUM(K283:K289)))</f>
-        <v>2.2355651076051235E-2</v>
+        <v>2.2355607984641361E-2</v>
       </c>
       <c r="R289" s="1">
         <f t="shared" ref="R289" si="58">((SUM(N283:N289))/(SUM(M283:M289)))</f>
@@ -17424,15 +17424,15 @@
       </c>
       <c r="S289" s="1">
         <f t="shared" ref="S289" si="59">((SUM(P283:P289))/(SUM(O283:O289)))</f>
-        <v>3.7657199616155157E-2</v>
+        <v>3.76570728225296E-2</v>
       </c>
       <c r="T289" s="1">
         <f t="shared" ref="T289" si="60">AVERAGE(K283:K289)</f>
-        <v>74113.571428571435</v>
+        <v>74113.71428571429</v>
       </c>
       <c r="U289" s="1">
         <f t="shared" ref="U289" si="61">AVERAGE(O283:O289)</f>
-        <v>42427.857142857145</v>
+        <v>42428</v>
       </c>
       <c r="V289" s="1">
         <f t="shared" ref="V289" si="62">AVERAGE(M283:M289)</f>
@@ -17453,10 +17453,10 @@
       </c>
       <c r="B290" s="1">
         <f t="shared" si="26"/>
-        <v>2859090</v>
+        <v>2858180</v>
       </c>
       <c r="C290" s="1">
-        <v>24128</v>
+        <v>24121</v>
       </c>
       <c r="D290" s="3">
         <v>2420</v>
@@ -17472,16 +17472,16 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" si="45"/>
-        <v>205386</v>
+        <v>205381</v>
       </c>
       <c r="I290" s="1">
         <v>23574</v>
       </c>
       <c r="J290" s="1">
-        <v>78339</v>
+        <v>78341</v>
       </c>
       <c r="K290" s="1">
-        <v>101913</v>
+        <v>101915</v>
       </c>
       <c r="L290" s="1">
         <v>2743</v>
@@ -17494,7 +17494,7 @@
       </c>
       <c r="O290" s="1">
         <f t="shared" ref="O290" si="65">K290-M290</f>
-        <v>56709</v>
+        <v>56711</v>
       </c>
       <c r="P290" s="1">
         <f t="shared" ref="P290" si="66">L290-N290</f>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="Q290" s="1">
         <f t="shared" ref="Q290" si="67">((SUM(L284:L290))/(SUM(K284:K290)))</f>
-        <v>2.413073223831572E-2</v>
+        <v>2.4130594472799798E-2</v>
       </c>
       <c r="R290" s="1">
         <f t="shared" ref="R290" si="68">((SUM(N284:N290))/(SUM(M284:M290)))</f>
@@ -17510,15 +17510,15 @@
       </c>
       <c r="S290" s="1">
         <f t="shared" ref="S290" si="69">((SUM(P284:P290))/(SUM(O284:O290)))</f>
-        <v>4.0432017885752763E-2</v>
+        <v>4.0431615539751616E-2</v>
       </c>
       <c r="T290" s="1">
         <f t="shared" ref="T290" si="70">AVERAGE(K284:K290)</f>
-        <v>75067.28571428571</v>
+        <v>75067.71428571429</v>
       </c>
       <c r="U290" s="1">
         <f t="shared" ref="U290" si="71">AVERAGE(O284:O290)</f>
-        <v>43067</v>
+        <v>43067.428571428572</v>
       </c>
       <c r="V290" s="1">
         <f t="shared" ref="V290" si="72">AVERAGE(M284:M290)</f>
@@ -17539,10 +17539,10 @@
       </c>
       <c r="B291" s="1">
         <f t="shared" si="26"/>
-        <v>2881186</v>
+        <v>2880263</v>
       </c>
       <c r="C291" s="1">
-        <v>22096</v>
+        <v>22083</v>
       </c>
       <c r="D291" s="3">
         <v>2239</v>
@@ -17558,16 +17558,16 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" si="45"/>
-        <v>207798</v>
+        <v>207793</v>
       </c>
       <c r="I291" s="1">
-        <v>21567</v>
+        <v>21566</v>
       </c>
       <c r="J291" s="1">
         <v>62560</v>
       </c>
       <c r="K291" s="1">
-        <v>84127</v>
+        <v>84126</v>
       </c>
       <c r="L291" s="1">
         <v>2649</v>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="O291" s="1">
         <f t="shared" ref="O291" si="75">K291-M291</f>
-        <v>50318</v>
+        <v>50317</v>
       </c>
       <c r="P291" s="1">
         <f t="shared" ref="P291" si="76">L291-N291</f>
@@ -17588,7 +17588,7 @@
       </c>
       <c r="Q291" s="1">
         <f t="shared" ref="Q291" si="77">((SUM(L285:L291))/(SUM(K285:K291)))</f>
-        <v>2.5853859180398942E-2</v>
+        <v>2.5853763377108468E-2</v>
       </c>
       <c r="R291" s="1">
         <f t="shared" ref="R291" si="78">((SUM(N285:N291))/(SUM(M285:M291)))</f>
@@ -17596,15 +17596,15 @@
       </c>
       <c r="S291" s="1">
         <f t="shared" ref="S291" si="79">((SUM(P285:P291))/(SUM(O285:O291)))</f>
-        <v>4.2821504223770512E-2</v>
+        <v>4.2821231010699727E-2</v>
       </c>
       <c r="T291" s="1">
         <f t="shared" ref="T291" si="80">AVERAGE(K285:K291)</f>
-        <v>77103.71428571429</v>
+        <v>77104</v>
       </c>
       <c r="U291" s="1">
         <f t="shared" ref="U291" si="81">AVERAGE(O285:O291)</f>
-        <v>44780.571428571428</v>
+        <v>44780.857142857145</v>
       </c>
       <c r="V291" s="1">
         <f t="shared" ref="V291" si="82">AVERAGE(M285:M291)</f>
@@ -17625,10 +17625,10 @@
       </c>
       <c r="B292" s="1">
         <f t="shared" si="26"/>
-        <v>2894695</v>
+        <v>2893768</v>
       </c>
       <c r="C292" s="1">
-        <v>13509</v>
+        <v>13505</v>
       </c>
       <c r="D292" s="3">
         <v>1327</v>
@@ -17644,16 +17644,16 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" si="45"/>
-        <v>209639</v>
+        <v>209634</v>
       </c>
       <c r="I292" s="1">
-        <v>13193</v>
+        <v>13192</v>
       </c>
       <c r="J292" s="1">
-        <v>22566</v>
+        <v>22568</v>
       </c>
       <c r="K292" s="1">
-        <v>35759</v>
+        <v>35760</v>
       </c>
       <c r="L292" s="1">
         <v>1507</v>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="O292" s="1">
         <f t="shared" ref="O292" si="85">K292-M292</f>
-        <v>26784</v>
+        <v>26785</v>
       </c>
       <c r="P292" s="1">
         <f t="shared" ref="P292" si="86">L292-N292</f>
@@ -17674,7 +17674,7 @@
       </c>
       <c r="Q292" s="1">
         <f t="shared" ref="Q292" si="87">((SUM(L286:L292))/(SUM(K286:K292)))</f>
-        <v>2.655134561689149E-2</v>
+        <v>2.6551198911135627E-2</v>
       </c>
       <c r="R292" s="1">
         <f t="shared" ref="R292" si="88">((SUM(N286:N292))/(SUM(M286:M292)))</f>
@@ -17682,15 +17682,15 @@
       </c>
       <c r="S292" s="1">
         <f t="shared" ref="S292" si="89">((SUM(P286:P292))/(SUM(O286:O292)))</f>
-        <v>4.3821491864024488E-2</v>
+        <v>4.3821076573161484E-2</v>
       </c>
       <c r="T292" s="1">
         <f t="shared" ref="T292" si="90">AVERAGE(K286:K292)</f>
-        <v>77564</v>
+        <v>77564.428571428565</v>
       </c>
       <c r="U292" s="1">
         <f t="shared" ref="U292" si="91">AVERAGE(O286:O292)</f>
-        <v>45222.428571428572</v>
+        <v>45222.857142857145</v>
       </c>
       <c r="V292" s="1">
         <f t="shared" ref="V292" si="92">AVERAGE(M286:M292)</f>
@@ -17711,10 +17711,10 @@
       </c>
       <c r="B293" s="1">
         <f t="shared" si="26"/>
-        <v>2905211</v>
+        <v>2904283</v>
       </c>
       <c r="C293" s="1">
-        <v>10516</v>
+        <v>10515</v>
       </c>
       <c r="D293" s="3">
         <v>942</v>
@@ -17730,7 +17730,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" si="45"/>
-        <v>211580</v>
+        <v>211575</v>
       </c>
       <c r="I293" s="1">
         <v>10253</v>
@@ -17760,7 +17760,7 @@
       </c>
       <c r="Q293" s="1">
         <f t="shared" ref="Q293" si="97">((SUM(L287:L293))/(SUM(K287:K293)))</f>
-        <v>2.7251820972101333E-2</v>
+        <v>2.725167116219069E-2</v>
       </c>
       <c r="R293" s="1">
         <f t="shared" ref="R293" si="98">((SUM(N287:N293))/(SUM(M287:M293)))</f>
@@ -17768,15 +17768,15 @@
       </c>
       <c r="S293" s="1">
         <f t="shared" ref="S293" si="99">((SUM(P287:P293))/(SUM(O287:O293)))</f>
-        <v>4.4851341779134565E-2</v>
+        <v>4.4850920055037186E-2</v>
       </c>
       <c r="T293" s="1">
         <f t="shared" ref="T293" si="100">AVERAGE(K287:K293)</f>
-        <v>77960.71428571429</v>
+        <v>77961.142857142855</v>
       </c>
       <c r="U293" s="1">
         <f t="shared" ref="U293" si="101">AVERAGE(O287:O293)</f>
-        <v>45579.142857142855</v>
+        <v>45579.571428571428</v>
       </c>
       <c r="V293" s="1">
         <f t="shared" ref="V293" si="102">AVERAGE(M287:M293)</f>
@@ -17797,10 +17797,10 @@
       </c>
       <c r="B294" s="1">
         <f t="shared" si="26"/>
-        <v>2931536</v>
+        <v>2930601</v>
       </c>
       <c r="C294" s="1">
-        <v>26325</v>
+        <v>26318</v>
       </c>
       <c r="D294" s="3">
         <v>3179</v>
@@ -17816,13 +17816,13 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" si="45"/>
-        <v>214376</v>
+        <v>214371</v>
       </c>
       <c r="I294" s="1">
-        <v>25306</v>
+        <v>25305</v>
       </c>
       <c r="J294" s="1">
-        <v>84077</v>
+        <v>84078</v>
       </c>
       <c r="K294" s="1">
         <v>109383</v>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="Q294" s="1">
         <f t="shared" ref="Q294" si="106">((SUM(L288:L294))/(SUM(K288:K294)))</f>
-        <v>2.9604324717212555E-2</v>
+        <v>2.9604163335320028E-2</v>
       </c>
       <c r="R294" s="1">
         <f t="shared" ref="R294" si="107">((SUM(N288:N294))/(SUM(M288:M294)))</f>
@@ -17854,15 +17854,15 @@
       </c>
       <c r="S294" s="1">
         <f t="shared" ref="S294" si="108">((SUM(P288:P294))/(SUM(O288:O294)))</f>
-        <v>4.8228128460686602E-2</v>
+        <v>4.8227683391626142E-2</v>
       </c>
       <c r="T294" s="1">
         <f t="shared" ref="T294" si="109">AVERAGE(K288:K294)</f>
-        <v>78617.857142857145</v>
+        <v>78618.28571428571</v>
       </c>
       <c r="U294" s="1">
         <f t="shared" ref="U294" si="110">AVERAGE(O288:O294)</f>
-        <v>46440</v>
+        <v>46440.428571428572</v>
       </c>
       <c r="V294" s="1">
         <f t="shared" ref="V294" si="111">AVERAGE(M288:M294)</f>
@@ -17883,10 +17883,10 @@
       </c>
       <c r="B295" s="1">
         <f t="shared" si="26"/>
-        <v>2956908</v>
+        <v>2955962</v>
       </c>
       <c r="C295" s="1">
-        <v>25372</v>
+        <v>25361</v>
       </c>
       <c r="D295" s="3">
         <v>2824</v>
@@ -17902,13 +17902,13 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" si="45"/>
-        <v>217406</v>
+        <v>217401</v>
       </c>
       <c r="I295" s="1">
-        <v>24458</v>
+        <v>24457</v>
       </c>
       <c r="J295" s="1">
-        <v>79571</v>
+        <v>79572</v>
       </c>
       <c r="K295" s="1">
         <v>104029</v>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="Q295" s="1">
         <f t="shared" ref="Q295" si="115">((SUM(L289:L295))/(SUM(K289:K295)))</f>
-        <v>3.0863147109557901E-2</v>
+        <v>3.0863036543053311E-2</v>
       </c>
       <c r="R295" s="1">
         <f t="shared" ref="R295" si="116">((SUM(N289:N295))/(SUM(M289:M295)))</f>
@@ -17940,15 +17940,15 @@
       </c>
       <c r="S295" s="1">
         <f t="shared" ref="S295" si="117">((SUM(P289:P295))/(SUM(O289:O295)))</f>
-        <v>4.9993667870776318E-2</v>
+        <v>4.9993366380817986E-2</v>
       </c>
       <c r="T295" s="1">
         <f t="shared" ref="T295" si="118">AVERAGE(K289:K295)</f>
-        <v>79753</v>
+        <v>79753.28571428571</v>
       </c>
       <c r="U295" s="1">
         <f t="shared" ref="U295" si="119">AVERAGE(O289:O295)</f>
-        <v>47377.428571428572</v>
+        <v>47377.714285714283</v>
       </c>
       <c r="V295" s="1">
         <f t="shared" ref="V295" si="120">AVERAGE(M289:M295)</f>
@@ -17969,10 +17969,10 @@
       </c>
       <c r="B296" s="1">
         <f t="shared" si="26"/>
-        <v>2981442</v>
+        <v>2980486</v>
       </c>
       <c r="C296" s="1">
-        <v>24534</v>
+        <v>24524</v>
       </c>
       <c r="D296" s="3">
         <v>2665</v>
@@ -17988,16 +17988,16 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" si="45"/>
-        <v>220519</v>
+        <v>220514</v>
       </c>
       <c r="I296" s="1">
-        <v>23706</v>
+        <v>23702</v>
       </c>
       <c r="J296" s="1">
-        <v>53180</v>
+        <v>53183</v>
       </c>
       <c r="K296" s="1">
-        <v>76886</v>
+        <v>76885</v>
       </c>
       <c r="L296" s="1">
         <v>3017</v>
@@ -18010,7 +18010,7 @@
       </c>
       <c r="O296" s="1">
         <f t="shared" si="95"/>
-        <v>51654</v>
+        <v>51653</v>
       </c>
       <c r="P296" s="1">
         <f t="shared" ref="P296" si="123">L296-N296</f>
@@ -18018,7 +18018,7 @@
       </c>
       <c r="Q296" s="1">
         <f t="shared" ref="Q296" si="124">((SUM(L290:L296))/(SUM(K290:K296)))</f>
-        <v>3.2593751089915503E-2</v>
+        <v>3.2593691259398497E-2</v>
       </c>
       <c r="R296" s="1">
         <f t="shared" ref="R296" si="125">((SUM(N290:N296))/(SUM(M290:M296)))</f>
@@ -18026,15 +18026,15 @@
       </c>
       <c r="S296" s="1">
         <f t="shared" ref="S296" si="126">((SUM(P290:P296))/(SUM(O290:O296)))</f>
-        <v>5.2407607250182661E-2</v>
+        <v>5.2407447036165206E-2</v>
       </c>
       <c r="T296" s="1">
         <f t="shared" ref="T296" si="127">AVERAGE(K290:K296)</f>
-        <v>77823.857142857145</v>
+        <v>77824</v>
       </c>
       <c r="U296" s="1">
         <f t="shared" ref="U296" si="128">AVERAGE(O290:O296)</f>
-        <v>46729.857142857145</v>
+        <v>46730</v>
       </c>
       <c r="V296" s="1">
         <f t="shared" ref="V296" si="129">AVERAGE(M290:M296)</f>
@@ -18055,10 +18055,10 @@
       </c>
       <c r="B297" s="1">
         <f t="shared" si="26"/>
-        <v>3007650</v>
+        <v>3006682</v>
       </c>
       <c r="C297" s="1">
-        <v>26208</v>
+        <v>26196</v>
       </c>
       <c r="D297" s="1">
         <v>2993</v>
@@ -18074,16 +18074,16 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" si="45"/>
-        <v>223701</v>
+        <v>223696</v>
       </c>
       <c r="I297" s="1">
-        <v>25254</v>
+        <v>25253</v>
       </c>
       <c r="J297" s="1">
-        <v>82367</v>
+        <v>82369</v>
       </c>
       <c r="K297" s="1">
-        <v>107621</v>
+        <v>107622</v>
       </c>
       <c r="L297" s="1">
         <v>3420</v>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="O297" s="1">
         <f t="shared" si="95"/>
-        <v>60756</v>
+        <v>60757</v>
       </c>
       <c r="P297" s="1">
         <f t="shared" ref="P297" si="132">L297-N297</f>
@@ -18141,10 +18141,10 @@
       </c>
       <c r="B298" s="1">
         <f t="shared" si="26"/>
-        <v>3031132</v>
+        <v>3030160</v>
       </c>
       <c r="C298" s="1">
-        <v>23482</v>
+        <v>23478</v>
       </c>
       <c r="D298" s="1">
         <v>2609</v>
@@ -18160,13 +18160,13 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" si="45"/>
-        <v>226237</v>
+        <v>226232</v>
       </c>
       <c r="I298" s="1">
-        <v>22675</v>
+        <v>22674</v>
       </c>
       <c r="J298" s="1">
-        <v>64390</v>
+        <v>64391</v>
       </c>
       <c r="K298" s="1">
         <v>87065</v>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="Q298" s="1">
         <f t="shared" ref="Q298" si="142">((SUM(L292:L298))/(SUM(K292:K298)))</f>
-        <v>3.4055940138739062E-2</v>
+        <v>3.405587860083048E-2</v>
       </c>
       <c r="R298" s="1">
         <f t="shared" ref="R298" si="143">((SUM(N292:N298))/(SUM(M292:M298)))</f>
@@ -18198,15 +18198,15 @@
       </c>
       <c r="S298" s="1">
         <f t="shared" ref="S298" si="144">((SUM(P292:P298))/(SUM(O292:O298)))</f>
-        <v>5.4448407080174677E-2</v>
+        <v>5.4448244448095102E-2</v>
       </c>
       <c r="T298" s="1">
         <f t="shared" ref="T298" si="145">AVERAGE(K292:K298)</f>
-        <v>79059</v>
+        <v>79059.142857142855</v>
       </c>
       <c r="U298" s="1">
         <f t="shared" ref="U298" si="146">AVERAGE(O292:O298)</f>
-        <v>47827.714285714283</v>
+        <v>47827.857142857145</v>
       </c>
       <c r="V298" s="1">
         <f t="shared" ref="V298" si="147">AVERAGE(M292:M298)</f>
@@ -18227,10 +18227,10 @@
       </c>
       <c r="B299" s="1">
         <f t="shared" si="26"/>
-        <v>3046680</v>
+        <v>3045699</v>
       </c>
       <c r="C299" s="1">
-        <v>15548</v>
+        <v>15539</v>
       </c>
       <c r="D299" s="1">
         <v>1714</v>
@@ -18246,16 +18246,16 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" si="45"/>
-        <v>228341</v>
+        <v>228336</v>
       </c>
       <c r="I299" s="1">
         <v>15060</v>
       </c>
       <c r="J299" s="1">
-        <v>25226</v>
+        <v>25227</v>
       </c>
       <c r="K299" s="1">
-        <v>40286</v>
+        <v>40287</v>
       </c>
       <c r="L299" s="1">
         <v>2014</v>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="O299" s="1">
         <f t="shared" ref="O299" si="150">K299-M299</f>
-        <v>31109</v>
+        <v>31110</v>
       </c>
       <c r="P299" s="1">
         <f t="shared" ref="P299" si="151">L299-N299</f>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="Q299" s="1">
         <f t="shared" ref="Q299" si="152">((SUM(L293:L299))/(SUM(K293:K299)))</f>
-        <v>3.4688317740258809E-2</v>
+        <v>3.4688255568241087E-2</v>
       </c>
       <c r="R299" s="1">
         <f t="shared" ref="R299" si="153">((SUM(N293:N299))/(SUM(M293:M299)))</f>
@@ -18284,15 +18284,15 @@
       </c>
       <c r="S299" s="1">
         <f t="shared" ref="S299" si="154">((SUM(P293:P299))/(SUM(O293:O299)))</f>
-        <v>5.519891247615144E-2</v>
+        <v>5.5198749705119135E-2</v>
       </c>
       <c r="T299" s="1">
         <f t="shared" ref="T299" si="155">AVERAGE(K293:K299)</f>
-        <v>79705.71428571429</v>
+        <v>79705.857142857145</v>
       </c>
       <c r="U299" s="1">
         <f t="shared" ref="U299" si="156">AVERAGE(O293:O299)</f>
-        <v>48445.571428571428</v>
+        <v>48445.714285714283</v>
       </c>
       <c r="V299" s="1">
         <f t="shared" ref="V299" si="157">AVERAGE(M293:M299)</f>
@@ -18313,10 +18313,10 @@
       </c>
       <c r="B300" s="1">
         <f t="shared" si="26"/>
-        <v>3057590</v>
+        <v>3056607</v>
       </c>
       <c r="C300" s="1">
-        <v>10910</v>
+        <v>10908</v>
       </c>
       <c r="D300" s="1">
         <v>1195</v>
@@ -18332,7 +18332,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" si="45"/>
-        <v>230757</v>
+        <v>230752</v>
       </c>
       <c r="I300" s="1">
         <v>10503</v>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="Q300" s="1">
         <f t="shared" ref="Q300" si="162">((SUM(L294:L300))/(SUM(K294:K300)))</f>
-        <v>3.5001462854206952E-2</v>
+        <v>3.5001400412809587E-2</v>
       </c>
       <c r="R300" s="1">
         <f t="shared" ref="R300" si="163">((SUM(N294:N300))/(SUM(M294:M300)))</f>
@@ -18370,15 +18370,15 @@
       </c>
       <c r="S300" s="1">
         <f t="shared" ref="S300" si="164">((SUM(P294:P300))/(SUM(O294:O300)))</f>
-        <v>5.5509680593133985E-2</v>
+        <v>5.5509518050768793E-2</v>
       </c>
       <c r="T300" s="1">
         <f t="shared" ref="T300" si="165">AVERAGE(K294:K300)</f>
-        <v>80078.28571428571</v>
+        <v>80078.428571428565</v>
       </c>
       <c r="U300" s="1">
         <f t="shared" ref="U300" si="166">AVERAGE(O294:O300)</f>
-        <v>48786.857142857145</v>
+        <v>48787</v>
       </c>
       <c r="V300" s="1">
         <f t="shared" ref="V300" si="167">AVERAGE(M294:M300)</f>
@@ -18399,10 +18399,10 @@
       </c>
       <c r="B301" s="1">
         <f t="shared" si="26"/>
-        <v>3087189</v>
+        <v>3086195</v>
       </c>
       <c r="C301" s="1">
-        <v>29599</v>
+        <v>29588</v>
       </c>
       <c r="D301" s="1">
         <v>3522</v>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" si="45"/>
-        <v>234206</v>
+        <v>234201</v>
       </c>
       <c r="I301" s="1">
         <v>28274</v>
@@ -18448,7 +18448,7 @@
       </c>
       <c r="Q301" s="1">
         <f t="shared" ref="Q301" si="172">((SUM(L295:L301))/(SUM(K295:K301)))</f>
-        <v>3.5087382135013827E-2</v>
+        <v>3.5087320833304216E-2</v>
       </c>
       <c r="R301" s="1">
         <f t="shared" ref="R301" si="173">((SUM(N295:N301))/(SUM(M295:M301)))</f>
@@ -18456,15 +18456,15 @@
       </c>
       <c r="S301" s="1">
         <f t="shared" ref="S301" si="174">((SUM(P295:P301))/(SUM(O295:O301)))</f>
-        <v>5.5003641494833631E-2</v>
+        <v>5.5003485014437914E-2</v>
       </c>
       <c r="T301" s="1">
         <f t="shared" ref="T301" si="175">AVERAGE(K295:K301)</f>
-        <v>81767.28571428571</v>
+        <v>81767.428571428565</v>
       </c>
       <c r="U301" s="1">
         <f t="shared" ref="U301" si="176">AVERAGE(O295:O301)</f>
-        <v>50214.857142857145</v>
+        <v>50215</v>
       </c>
       <c r="V301" s="1">
         <f t="shared" ref="V301" si="177">AVERAGE(M295:M301)</f>
@@ -18485,10 +18485,10 @@
       </c>
       <c r="B302" s="1">
         <f t="shared" si="26"/>
-        <v>3117040</v>
+        <v>3116042</v>
       </c>
       <c r="C302" s="1">
-        <v>29851</v>
+        <v>29847</v>
       </c>
       <c r="D302" s="1">
         <v>3135</v>
@@ -18504,13 +18504,13 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" si="45"/>
-        <v>237723</v>
+        <v>237718</v>
       </c>
       <c r="I302" s="1">
-        <v>28698</v>
+        <v>28697</v>
       </c>
       <c r="J302" s="1">
-        <v>87022</v>
+        <v>87023</v>
       </c>
       <c r="K302" s="1">
         <v>115720</v>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="Q302" s="1">
         <f t="shared" ref="Q302" si="182">((SUM(L296:L302))/(SUM(K296:K302)))</f>
-        <v>3.5112710636884439E-2</v>
+        <v>3.5112650518865259E-2</v>
       </c>
       <c r="R302" s="1">
         <f t="shared" ref="R302" si="183">((SUM(N296:N302))/(SUM(M296:M302)))</f>
@@ -18542,15 +18542,15 @@
       </c>
       <c r="S302" s="1">
         <f t="shared" ref="S302" si="184">((SUM(P296:P302))/(SUM(O296:O302)))</f>
-        <v>5.4519979328393885E-2</v>
+        <v>5.4519828658283823E-2</v>
       </c>
       <c r="T302" s="1">
         <f t="shared" ref="T302" si="185">AVERAGE(K296:K302)</f>
-        <v>83437.428571428565</v>
+        <v>83437.571428571435</v>
       </c>
       <c r="U302" s="1">
         <f t="shared" ref="U302" si="186">AVERAGE(O296:O302)</f>
-        <v>51692.714285714283</v>
+        <v>51692.857142857145</v>
       </c>
       <c r="V302" s="1">
         <f t="shared" ref="V302" si="187">AVERAGE(M296:M302)</f>
@@ -18571,13 +18571,13 @@
       </c>
       <c r="B303" s="1">
         <f t="shared" si="26"/>
-        <v>3149068</v>
+        <v>3148057</v>
       </c>
       <c r="C303" s="1">
-        <v>32028</v>
+        <v>32015</v>
       </c>
       <c r="D303" s="1">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="E303" s="1">
         <v>0</v>
@@ -18590,19 +18590,19 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" si="45"/>
-        <v>240506</v>
+        <v>240501</v>
       </c>
       <c r="I303" s="1">
-        <v>30997</v>
+        <v>30996</v>
       </c>
       <c r="J303" s="1">
-        <v>70400</v>
+        <v>70401</v>
       </c>
       <c r="K303" s="1">
         <v>101397</v>
       </c>
       <c r="L303" s="1">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M303" s="1">
         <v>34059</v>
@@ -18616,11 +18616,11 @@
       </c>
       <c r="P303" s="1">
         <f t="shared" ref="P303" si="191">L303-N303</f>
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="Q303" s="1">
         <f t="shared" ref="Q303" si="192">((SUM(L297:L303))/(SUM(K297:K303)))</f>
-        <v>3.4382070844418008E-2</v>
+        <v>3.4380314669514848E-2</v>
       </c>
       <c r="R303" s="1">
         <f t="shared" ref="R303" si="193">((SUM(N297:N303))/(SUM(M297:M303)))</f>
@@ -18628,15 +18628,15 @@
       </c>
       <c r="S303" s="1">
         <f t="shared" ref="S303" si="194">((SUM(P297:P303))/(SUM(O297:O303)))</f>
-        <v>5.3158266959444603E-2</v>
+        <v>5.3155336591309416E-2</v>
       </c>
       <c r="T303" s="1">
         <f t="shared" ref="T303" si="195">AVERAGE(K297:K303)</f>
-        <v>86939</v>
+        <v>86939.28571428571</v>
       </c>
       <c r="U303" s="1">
         <f t="shared" ref="U303" si="196">AVERAGE(O297:O303)</f>
-        <v>53933.285714285717</v>
+        <v>53933.571428571428</v>
       </c>
       <c r="V303" s="1">
         <f t="shared" ref="V303" si="197">AVERAGE(M297:M303)</f>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="W303" s="1">
         <f t="shared" ref="W303" si="198">AVERAGE(P297:P303)</f>
-        <v>2867</v>
+        <v>2866.8571428571427</v>
       </c>
       <c r="X303" s="1">
         <f t="shared" ref="X303" si="199">AVERAGE(N297:N303)</f>
@@ -18657,10 +18657,10 @@
       </c>
       <c r="B304" s="1">
         <f t="shared" si="26"/>
-        <v>3181203</v>
+        <v>3180181</v>
       </c>
       <c r="C304" s="1">
-        <v>32135</v>
+        <v>32124</v>
       </c>
       <c r="D304" s="1">
         <v>3000</v>
@@ -18669,23 +18669,23 @@
         <v>0</v>
       </c>
       <c r="F304" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G304" s="1">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="H304" s="1">
         <f t="shared" si="45"/>
-        <v>243452</v>
+        <v>243446</v>
       </c>
       <c r="I304" s="1">
-        <v>31083</v>
+        <v>31084</v>
       </c>
       <c r="J304" s="1">
-        <v>85614</v>
+        <v>85616</v>
       </c>
       <c r="K304" s="1">
-        <v>116697</v>
+        <v>116700</v>
       </c>
       <c r="L304" s="1">
         <v>3609</v>
@@ -18698,7 +18698,7 @@
       </c>
       <c r="O304" s="1">
         <f t="shared" ref="O304" si="200">K304-M304</f>
-        <v>71880</v>
+        <v>71883</v>
       </c>
       <c r="P304" s="1">
         <f t="shared" ref="P304" si="201">L304-N304</f>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="Q304" s="1">
         <f t="shared" ref="Q304" si="202">((SUM(L298:L304))/(SUM(K298:K304)))</f>
-        <v>3.4182844949153968E-2</v>
+        <v>3.4181004544622952E-2</v>
       </c>
       <c r="R304" s="1">
         <f t="shared" ref="R304" si="203">((SUM(N298:N304))/(SUM(M298:M304)))</f>
@@ -18714,15 +18714,15 @@
       </c>
       <c r="S304" s="1">
         <f t="shared" ref="S304" si="204">((SUM(P298:P304))/(SUM(O298:O304)))</f>
-        <v>5.2004723959686819E-2</v>
+        <v>5.2001615804004003E-2</v>
       </c>
       <c r="T304" s="1">
         <f t="shared" ref="T304" si="205">AVERAGE(K298:K304)</f>
-        <v>88235.571428571435</v>
+        <v>88236.142857142855</v>
       </c>
       <c r="U304" s="1">
         <f t="shared" ref="U304" si="206">AVERAGE(O298:O304)</f>
-        <v>55522.428571428572</v>
+        <v>55523</v>
       </c>
       <c r="V304" s="1">
         <f t="shared" ref="V304" si="207">AVERAGE(M298:M304)</f>
@@ -18730,7 +18730,7 @@
       </c>
       <c r="W304" s="1">
         <f t="shared" ref="W304" si="208">AVERAGE(P298:P304)</f>
-        <v>2887.4285714285716</v>
+        <v>2887.2857142857142</v>
       </c>
       <c r="X304" s="1">
         <f t="shared" ref="X304" si="209">AVERAGE(N298:N304)</f>
@@ -18743,10 +18743,10 @@
       </c>
       <c r="B305" s="1">
         <f t="shared" si="26"/>
-        <v>3209177</v>
+        <v>3208141</v>
       </c>
       <c r="C305" s="1">
-        <v>27974</v>
+        <v>27960</v>
       </c>
       <c r="D305" s="1">
         <v>2859</v>
@@ -18762,16 +18762,16 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" si="45"/>
-        <v>246078</v>
+        <v>246072</v>
       </c>
       <c r="I305" s="1">
         <v>26963</v>
       </c>
       <c r="J305" s="1">
-        <v>77489</v>
+        <v>77491</v>
       </c>
       <c r="K305" s="1">
-        <v>104452</v>
+        <v>104454</v>
       </c>
       <c r="L305" s="1">
         <v>3410</v>
@@ -18784,7 +18784,7 @@
       </c>
       <c r="O305" s="1">
         <f t="shared" ref="O305" si="210">K305-M305</f>
-        <v>66618</v>
+        <v>66620</v>
       </c>
       <c r="P305" s="1">
         <f t="shared" ref="P305" si="211">L305-N305</f>
@@ -18792,7 +18792,7 @@
       </c>
       <c r="Q305" s="1">
         <f t="shared" ref="Q305" si="212">((SUM(L299:L305))/(SUM(K299:K305)))</f>
-        <v>3.3793359746534052E-2</v>
+        <v>3.3791465761319722E-2</v>
       </c>
       <c r="R305" s="1">
         <f t="shared" ref="R305" si="213">((SUM(N299:N305))/(SUM(M299:M305)))</f>
@@ -18800,15 +18800,15 @@
       </c>
       <c r="S305" s="1">
         <f t="shared" ref="S305" si="214">((SUM(P299:P305))/(SUM(O299:O305)))</f>
-        <v>5.1186213461111983E-2</v>
+        <v>5.118295645673706E-2</v>
       </c>
       <c r="T305" s="1">
         <f t="shared" ref="T305" si="215">AVERAGE(K299:K305)</f>
-        <v>90719.428571428565</v>
+        <v>90720.28571428571</v>
       </c>
       <c r="U305" s="1">
         <f t="shared" ref="U305" si="216">AVERAGE(O299:O305)</f>
-        <v>57331.285714285717</v>
+        <v>57332.142857142855</v>
       </c>
       <c r="V305" s="1">
         <f t="shared" ref="V305" si="217">AVERAGE(M299:M305)</f>
@@ -18816,7 +18816,7 @@
       </c>
       <c r="W305" s="1">
         <f t="shared" ref="W305" si="218">AVERAGE(P299:P305)</f>
-        <v>2934.5714285714284</v>
+        <v>2934.4285714285716</v>
       </c>
       <c r="X305" s="1">
         <f t="shared" ref="X305" si="219">AVERAGE(N299:N305)</f>
@@ -18829,13 +18829,13 @@
       </c>
       <c r="B306" s="1">
         <f t="shared" si="26"/>
-        <v>3228937</v>
+        <v>3227890</v>
       </c>
       <c r="C306" s="1">
-        <v>19760</v>
+        <v>19749</v>
       </c>
       <c r="D306" s="1">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E306" s="1">
         <v>0</v>
@@ -18848,19 +18848,19 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" si="45"/>
-        <v>248239</v>
+        <v>248233</v>
       </c>
       <c r="I306" s="1">
-        <v>19166</v>
+        <v>19163</v>
       </c>
       <c r="J306" s="1">
-        <v>32488</v>
+        <v>32491</v>
       </c>
       <c r="K306" s="1">
         <v>51654</v>
       </c>
       <c r="L306" s="1">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="M306" s="1">
         <v>11385</v>
@@ -18874,11 +18874,11 @@
       </c>
       <c r="P306" s="1">
         <f t="shared" ref="P306" si="221">L306-N306</f>
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="Q306" s="1">
         <f t="shared" ref="Q306" si="222">((SUM(L300:L306))/(SUM(K300:K306)))</f>
-        <v>3.3335189757489121E-2</v>
+        <v>3.3331837892108557E-2</v>
       </c>
       <c r="R306" s="1">
         <f t="shared" ref="R306" si="223">((SUM(N300:N306))/(SUM(M300:M306)))</f>
@@ -18886,15 +18886,15 @@
       </c>
       <c r="S306" s="1">
         <f t="shared" ref="S306" si="224">((SUM(P300:P306))/(SUM(O300:O306)))</f>
-        <v>5.0277846126111199E-2</v>
+        <v>5.0272361407509188E-2</v>
       </c>
       <c r="T306" s="1">
         <f t="shared" ref="T306" si="225">AVERAGE(K300:K306)</f>
-        <v>92343.428571428565</v>
+        <v>92344.142857142855</v>
       </c>
       <c r="U306" s="1">
         <f t="shared" ref="U306" si="226">AVERAGE(O300:O306)</f>
-        <v>58639.857142857145</v>
+        <v>58640.571428571428</v>
       </c>
       <c r="V306" s="1">
         <f t="shared" ref="V306" si="227">AVERAGE(M300:M306)</f>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="W306" s="1">
         <f t="shared" ref="W306" si="228">AVERAGE(P300:P306)</f>
-        <v>2948.2857142857142</v>
+        <v>2948</v>
       </c>
       <c r="X306" s="1">
         <f t="shared" ref="X306" si="229">AVERAGE(N300:N306)</f>
@@ -18915,10 +18915,10 @@
       </c>
       <c r="B307" s="1">
         <f t="shared" si="26"/>
-        <v>3241462</v>
+        <v>3240412</v>
       </c>
       <c r="C307" s="1">
-        <v>12525</v>
+        <v>12522</v>
       </c>
       <c r="D307" s="1">
         <v>1187</v>
@@ -18930,11 +18930,11 @@
         <v>187</v>
       </c>
       <c r="G307" s="1">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="H307" s="1">
         <f t="shared" si="45"/>
-        <v>250529</v>
+        <v>250522</v>
       </c>
       <c r="I307" s="1">
         <v>12062</v>
@@ -18964,7 +18964,7 @@
       </c>
       <c r="Q307" s="1">
         <f t="shared" ref="Q307" si="231">((SUM(L301:L307))/(SUM(K301:K307)))</f>
-        <v>3.3134644241062446E-2</v>
+        <v>3.3131318095671061E-2</v>
       </c>
       <c r="R307" s="1">
         <f t="shared" ref="R307" si="232">((SUM(N301:N307))/(SUM(M301:M307)))</f>
@@ -18972,15 +18972,15 @@
       </c>
       <c r="S307" s="1">
         <f t="shared" ref="S307" si="233">((SUM(P301:P307))/(SUM(O301:O307)))</f>
-        <v>4.9830936766740871E-2</v>
+        <v>4.982552402955262E-2</v>
       </c>
       <c r="T307" s="1">
         <f t="shared" ref="T307" si="234">AVERAGE(K301:K307)</f>
-        <v>93014.428571428565</v>
+        <v>93015.142857142855</v>
       </c>
       <c r="U307" s="1">
         <f t="shared" ref="U307" si="235">AVERAGE(O301:O307)</f>
-        <v>59360.714285714283</v>
+        <v>59361.428571428572</v>
       </c>
       <c r="V307" s="1">
         <f t="shared" ref="V307" si="236">AVERAGE(M301:M307)</f>
@@ -18988,7 +18988,7 @@
       </c>
       <c r="W307" s="1">
         <f t="shared" ref="W307" si="237">AVERAGE(P301:P307)</f>
-        <v>2958</v>
+        <v>2957.7142857142858</v>
       </c>
       <c r="X307" s="1">
         <f t="shared" ref="X307" si="238">AVERAGE(N301:N307)</f>
@@ -19001,10 +19001,10 @@
       </c>
       <c r="B308" s="1">
         <f t="shared" si="26"/>
-        <v>3272988</v>
+        <v>3271937</v>
       </c>
       <c r="C308" s="1">
-        <v>31526</v>
+        <v>31525</v>
       </c>
       <c r="D308" s="1">
         <v>3596</v>
@@ -19020,16 +19020,16 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" si="45"/>
-        <v>253526</v>
+        <v>253519</v>
       </c>
       <c r="I308" s="1">
-        <v>29998</v>
+        <v>30000</v>
       </c>
       <c r="J308" s="1">
-        <v>99552</v>
+        <v>99554</v>
       </c>
       <c r="K308" s="1">
-        <v>129550</v>
+        <v>129554</v>
       </c>
       <c r="L308" s="1">
         <v>4160</v>
@@ -19042,7 +19042,7 @@
       </c>
       <c r="O308" s="1">
         <f>K308-M308</f>
-        <v>85978</v>
+        <v>85982</v>
       </c>
       <c r="P308" s="1">
         <f t="shared" ref="P308" si="239">L308-N308</f>
@@ -19050,7 +19050,7 @@
       </c>
       <c r="Q308" s="1">
         <f t="shared" ref="Q308" si="240">((SUM(L302:L308))/(SUM(K302:K308)))</f>
-        <v>3.2865515698807329E-2</v>
+        <v>3.286203434962863E-2</v>
       </c>
       <c r="R308" s="1">
         <f t="shared" ref="R308" si="241">((SUM(N302:N308))/(SUM(M302:M308)))</f>
@@ -19058,15 +19058,15 @@
       </c>
       <c r="S308" s="1">
         <f t="shared" ref="S308" si="242">((SUM(P302:P308))/(SUM(O302:O308)))</f>
-        <v>4.8585877853716639E-2</v>
+        <v>4.8580208287294105E-2</v>
       </c>
       <c r="T308" s="1">
         <f t="shared" ref="T308" si="243">AVERAGE(K302:K308)</f>
-        <v>94206.428571428565</v>
+        <v>94207.71428571429</v>
       </c>
       <c r="U308" s="1">
         <f t="shared" ref="U308" si="244">AVERAGE(O302:O308)</f>
-        <v>61411.142857142855</v>
+        <v>61412.428571428572</v>
       </c>
       <c r="V308" s="1">
         <f t="shared" ref="V308" si="245">AVERAGE(M302:M308)</f>
@@ -19074,7 +19074,7 @@
       </c>
       <c r="W308" s="1">
         <f t="shared" ref="W308" si="246">AVERAGE(P302:P308)</f>
-        <v>2983.7142857142858</v>
+        <v>2983.4285714285716</v>
       </c>
       <c r="X308" s="1">
         <f t="shared" ref="X308" si="247">AVERAGE(N302:N308)</f>
@@ -19087,10 +19087,10 @@
       </c>
       <c r="B309" s="1">
         <f t="shared" si="26"/>
-        <v>3301903</v>
+        <v>3300843</v>
       </c>
       <c r="C309" s="1">
-        <v>28915</v>
+        <v>28906</v>
       </c>
       <c r="D309" s="1">
         <v>3790</v>
@@ -19106,16 +19106,16 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" si="45"/>
-        <v>256927</v>
+        <v>256920</v>
       </c>
       <c r="I309" s="1">
         <v>27423</v>
       </c>
       <c r="J309" s="1">
-        <v>83030</v>
+        <v>83033</v>
       </c>
       <c r="K309" s="1">
-        <v>110453</v>
+        <v>110456</v>
       </c>
       <c r="L309" s="1">
         <v>4382</v>
@@ -19128,7 +19128,7 @@
       </c>
       <c r="O309" s="1">
         <f>K309-M309</f>
-        <v>76731</v>
+        <v>76734</v>
       </c>
       <c r="P309" s="1">
         <f t="shared" ref="P309" si="248">L309-N309</f>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="Q309" s="1">
         <f t="shared" ref="Q309" si="249">((SUM(L303:L309))/(SUM(K303:K309)))</f>
-        <v>3.4345392232695074E-2</v>
+        <v>3.4341705009248075E-2</v>
       </c>
       <c r="R309" s="1">
         <f t="shared" ref="R309" si="250">((SUM(N303:N309))/(SUM(M303:M309)))</f>
@@ -19144,15 +19144,15 @@
       </c>
       <c r="S309" s="1">
         <f t="shared" ref="S309" si="251">((SUM(P303:P309))/(SUM(O303:O309)))</f>
-        <v>4.9871847188662027E-2</v>
+        <v>4.9865890282203527E-2</v>
       </c>
       <c r="T309" s="1">
         <f t="shared" ref="T309" si="252">AVERAGE(K303:K309)</f>
-        <v>93454</v>
+        <v>93455.71428571429</v>
       </c>
       <c r="U309" s="1">
         <f t="shared" ref="U309" si="253">AVERAGE(O303:O309)</f>
-        <v>62314</v>
+        <v>62315.714285714283</v>
       </c>
       <c r="V309" s="1">
         <f t="shared" ref="V309" si="254">AVERAGE(M303:M309)</f>
@@ -19160,7 +19160,7 @@
       </c>
       <c r="W309" s="1">
         <f t="shared" ref="W309" si="255">AVERAGE(P303:P309)</f>
-        <v>3107.7142857142858</v>
+        <v>3107.4285714285716</v>
       </c>
       <c r="X309" s="1">
         <f t="shared" ref="X309" si="256">AVERAGE(N303:N309)</f>
@@ -19173,10 +19173,10 @@
       </c>
       <c r="B310" s="1">
         <f t="shared" si="26"/>
-        <v>3322616</v>
+        <v>3321549</v>
       </c>
       <c r="C310" s="1">
-        <v>20713</v>
+        <v>20706</v>
       </c>
       <c r="D310" s="1">
         <v>2946</v>
@@ -19192,16 +19192,16 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" si="45"/>
-        <v>260224</v>
+        <v>260217</v>
       </c>
       <c r="I310" s="1">
-        <v>19574</v>
+        <v>19576</v>
       </c>
       <c r="J310" s="1">
-        <v>40427</v>
+        <v>40433</v>
       </c>
       <c r="K310" s="1">
-        <v>60001</v>
+        <v>60009</v>
       </c>
       <c r="L310" s="1">
         <v>3413</v>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="O310" s="1">
         <f>K310-M310</f>
-        <v>45500</v>
+        <v>45508</v>
       </c>
       <c r="P310" s="1">
         <f t="shared" ref="P310" si="257">L310-N310</f>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="Q310" s="1">
         <f t="shared" ref="Q310" si="258">((SUM(L304:L310))/(SUM(K304:K310)))</f>
-        <v>3.6632929818434613E-2</v>
+        <v>3.6630102382172382E-2</v>
       </c>
       <c r="R310" s="1">
         <f t="shared" ref="R310" si="259">((SUM(N304:N310))/(SUM(M304:M310)))</f>
@@ -19230,15 +19230,15 @@
       </c>
       <c r="S310" s="1">
         <f t="shared" ref="S310" si="260">((SUM(P304:P310))/(SUM(O304:O310)))</f>
-        <v>5.2681243363259002E-2</v>
+        <v>5.2676287465611274E-2</v>
       </c>
       <c r="T310" s="1">
         <f t="shared" ref="T310" si="261">AVERAGE(K304:K310)</f>
-        <v>87540.28571428571</v>
+        <v>87543.142857142855</v>
       </c>
       <c r="U310" s="1">
         <f t="shared" ref="U310" si="262">AVERAGE(O304:O310)</f>
-        <v>59194.285714285717</v>
+        <v>59197.142857142855</v>
       </c>
       <c r="V310" s="1">
         <f t="shared" ref="V310" si="263">AVERAGE(M304:M310)</f>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="W310" s="1">
         <f t="shared" ref="W310" si="264">AVERAGE(P304:P310)</f>
-        <v>3118.4285714285716</v>
+        <v>3118.2857142857142</v>
       </c>
       <c r="X310" s="1">
         <f t="shared" ref="X310" si="265">AVERAGE(N304:N310)</f>
@@ -19259,10 +19259,10 @@
       </c>
       <c r="B311" s="1">
         <f t="shared" si="26"/>
-        <v>3324882</v>
+        <v>3323814</v>
       </c>
       <c r="C311" s="1">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D311" s="1">
         <v>445</v>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" si="45"/>
-        <v>261265</v>
+        <v>261258</v>
       </c>
       <c r="I311" s="1">
         <v>2055</v>
@@ -19308,7 +19308,7 @@
       </c>
       <c r="Q311" s="1">
         <f t="shared" ref="Q311:Q312" si="268">((SUM(L305:L311))/(SUM(K305:K311)))</f>
-        <v>3.8489220075869038E-2</v>
+        <v>3.8485931103861115E-2</v>
       </c>
       <c r="R311" s="1">
         <f t="shared" ref="R311:R312" si="269">((SUM(N305:N311))/(SUM(M305:M311)))</f>
@@ -19316,15 +19316,15 @@
       </c>
       <c r="S311" s="1">
         <f t="shared" ref="S311:S312" si="270">((SUM(P305:P311))/(SUM(O305:O311)))</f>
-        <v>5.4242182431928174E-2</v>
+        <v>5.4236665432449579E-2</v>
       </c>
       <c r="T311" s="1">
         <f t="shared" ref="T311:T312" si="271">AVERAGE(K305:K311)</f>
-        <v>71853.142857142855</v>
+        <v>71855.571428571435</v>
       </c>
       <c r="U311" s="1">
         <f t="shared" ref="U311:U312" si="272">AVERAGE(O305:O311)</f>
-        <v>49768.857142857145</v>
+        <v>49771.285714285717</v>
       </c>
       <c r="V311" s="1">
         <f t="shared" ref="V311:V312" si="273">AVERAGE(M305:M311)</f>
@@ -19332,7 +19332,7 @@
       </c>
       <c r="W311" s="1">
         <f t="shared" ref="W311:W312" si="274">AVERAGE(P305:P311)</f>
-        <v>2699.5714285714284</v>
+        <v>2699.4285714285716</v>
       </c>
       <c r="X311" s="1">
         <f t="shared" ref="X311:X312" si="275">AVERAGE(N305:N311)</f>
@@ -19345,13 +19345,13 @@
       </c>
       <c r="B312" s="1">
         <f t="shared" si="26"/>
-        <v>3344848</v>
+        <v>3343764</v>
       </c>
       <c r="C312" s="1">
-        <v>19966</v>
+        <v>19950</v>
       </c>
       <c r="D312" s="1">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E312" s="1">
         <v>0</v>
@@ -19360,23 +19360,23 @@
         <v>435</v>
       </c>
       <c r="G312" s="1">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="H312" s="1">
         <f t="shared" si="45"/>
-        <v>264195</v>
+        <v>264187</v>
       </c>
       <c r="I312" s="1">
-        <v>18482</v>
+        <v>18483</v>
       </c>
       <c r="J312" s="1">
-        <v>45705</v>
+        <v>45718</v>
       </c>
       <c r="K312" s="1">
-        <v>64187</v>
+        <v>64201</v>
       </c>
       <c r="L312" s="1">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="M312" s="1">
         <v>11851</v>
@@ -19386,15 +19386,15 @@
       </c>
       <c r="O312" s="1">
         <f t="shared" si="266"/>
-        <v>52336</v>
+        <v>52350</v>
       </c>
       <c r="P312" s="1">
         <f t="shared" si="267"/>
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="Q312" s="1">
         <f t="shared" si="268"/>
-        <v>4.2839204939627021E-2</v>
+        <v>4.283219805677535E-2</v>
       </c>
       <c r="R312" s="1">
         <f t="shared" si="269"/>
@@ -19402,15 +19402,15 @@
       </c>
       <c r="S312" s="1">
         <f t="shared" si="270"/>
-        <v>5.8102364561508531E-2</v>
+        <v>5.809133598101332E-2</v>
       </c>
       <c r="T312" s="1">
         <f t="shared" si="271"/>
-        <v>66101</v>
+        <v>66105.142857142855</v>
       </c>
       <c r="U312" s="1">
         <f t="shared" si="272"/>
-        <v>47728.571428571428</v>
+        <v>47732.714285714283</v>
       </c>
       <c r="V312" s="1">
         <f t="shared" si="273"/>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="W312" s="1">
         <f t="shared" si="274"/>
-        <v>2773.1428571428573</v>
+        <v>2772.8571428571427</v>
       </c>
       <c r="X312" s="1">
         <f t="shared" si="275"/>
@@ -19431,13 +19431,13 @@
       </c>
       <c r="B313" s="1">
         <f t="shared" si="26"/>
-        <v>3362424</v>
+        <v>3361334</v>
       </c>
       <c r="C313" s="1">
-        <v>17576</v>
+        <v>17570</v>
       </c>
       <c r="D313" s="1">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="E313" s="1">
         <v>0</v>
@@ -19446,23 +19446,23 @@
         <v>176</v>
       </c>
       <c r="G313" s="1">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H313" s="1">
         <f t="shared" si="45"/>
-        <v>265261</v>
+        <v>265252</v>
       </c>
       <c r="I313" s="1">
-        <v>16412</v>
+        <v>16416</v>
       </c>
       <c r="J313" s="1">
-        <v>30413</v>
+        <v>30419</v>
       </c>
       <c r="K313" s="1">
-        <v>46825</v>
+        <v>46835</v>
       </c>
       <c r="L313" s="1">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="M313" s="1">
         <v>9152</v>
@@ -19472,15 +19472,15 @@
       </c>
       <c r="O313" s="1">
         <f t="shared" ref="O313:O318" si="276">K313-M313</f>
-        <v>37673</v>
+        <v>37683</v>
       </c>
       <c r="P313" s="1">
         <f t="shared" ref="P313" si="277">L313-N313</f>
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="Q313" s="1">
         <f t="shared" ref="Q313" si="278">((SUM(L307:L313))/(SUM(K307:K313)))</f>
-        <v>4.6005704576328195E-2</v>
+        <v>4.6003970151796067E-2</v>
       </c>
       <c r="R313" s="1">
         <f t="shared" ref="R313" si="279">((SUM(N307:N313))/(SUM(M307:M313)))</f>
@@ -19488,15 +19488,15 @@
       </c>
       <c r="S313" s="1">
         <f t="shared" ref="S313" si="280">((SUM(P307:P313))/(SUM(O307:O313)))</f>
-        <v>6.2270741831169457E-2</v>
+        <v>6.2266433011705875E-2</v>
       </c>
       <c r="T313" s="1">
         <f t="shared" ref="T313" si="281">AVERAGE(K307:K313)</f>
-        <v>65411.142857142855</v>
+        <v>65416.714285714283</v>
       </c>
       <c r="U313" s="1">
         <f t="shared" ref="U313" si="282">AVERAGE(O307:O313)</f>
-        <v>47357.714285714283</v>
+        <v>47363.285714285717</v>
       </c>
       <c r="V313" s="1">
         <f t="shared" ref="V313" si="283">AVERAGE(M307:M313)</f>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="W313" s="1">
         <f t="shared" ref="W313" si="284">AVERAGE(P307:P313)</f>
-        <v>2949</v>
+        <v>2949.1428571428573</v>
       </c>
       <c r="X313" s="1">
         <f t="shared" ref="X313" si="285">AVERAGE(N307:N313)</f>
@@ -19517,13 +19517,13 @@
       </c>
       <c r="B314" s="1">
         <f t="shared" si="26"/>
-        <v>3374281</v>
+        <v>3373265</v>
       </c>
       <c r="C314" s="1">
-        <v>11857</v>
+        <v>11931</v>
       </c>
       <c r="D314" s="1">
-        <v>1727</v>
+        <v>1740</v>
       </c>
       <c r="E314" s="1">
         <v>0</v>
@@ -19536,19 +19536,19 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" si="45"/>
-        <v>267796</v>
+        <v>267787</v>
       </c>
       <c r="I314" s="1">
-        <v>11112</v>
+        <v>11185</v>
       </c>
       <c r="J314" s="1">
-        <v>26582</v>
+        <v>26664</v>
       </c>
       <c r="K314" s="1">
-        <v>37694</v>
+        <v>37849</v>
       </c>
       <c r="L314" s="1">
-        <v>1952</v>
+        <v>1965</v>
       </c>
       <c r="M314" s="1">
         <v>11838</v>
@@ -19558,15 +19558,15 @@
       </c>
       <c r="O314" s="1">
         <f t="shared" si="276"/>
-        <v>25856</v>
+        <v>26011</v>
       </c>
       <c r="P314" s="1">
         <f t="shared" ref="P314" si="286">L314-N314</f>
-        <v>1915</v>
+        <v>1928</v>
       </c>
       <c r="Q314" s="1">
         <f t="shared" ref="Q314" si="287">((SUM(L308:L314))/(SUM(K308:K314)))</f>
-        <v>4.7509092465490337E-2</v>
+        <v>4.7519586828173442E-2</v>
       </c>
       <c r="R314" s="1">
         <f t="shared" ref="R314" si="288">((SUM(N308:N314))/(SUM(M308:M314)))</f>
@@ -19574,15 +19574,15 @@
       </c>
       <c r="S314" s="1">
         <f t="shared" ref="S314" si="289">((SUM(P308:P314))/(SUM(O308:O314)))</f>
-        <v>6.4250127281984148E-2</v>
+        <v>6.4254777841717903E-2</v>
       </c>
       <c r="T314" s="1">
         <f t="shared" ref="T314" si="290">AVERAGE(K308:K314)</f>
-        <v>65085.285714285717</v>
+        <v>65113</v>
       </c>
       <c r="U314" s="1">
         <f t="shared" ref="U314" si="291">AVERAGE(O308:O314)</f>
-        <v>47139.428571428572</v>
+        <v>47167.142857142855</v>
       </c>
       <c r="V314" s="1">
         <f t="shared" ref="V314" si="292">AVERAGE(M308:M314)</f>
@@ -19590,7 +19590,7 @@
       </c>
       <c r="W314" s="1">
         <f t="shared" ref="W314" si="293">AVERAGE(P308:P314)</f>
-        <v>3028.7142857142858</v>
+        <v>3030.7142857142858</v>
       </c>
       <c r="X314" s="1">
         <f t="shared" ref="X314" si="294">AVERAGE(N308:N314)</f>
@@ -19603,13 +19603,13 @@
       </c>
       <c r="B315" s="1">
         <f t="shared" si="26"/>
-        <v>3404687</v>
+        <v>3404237</v>
       </c>
       <c r="C315" s="1">
-        <v>30406</v>
+        <v>30972</v>
       </c>
       <c r="D315" s="1">
-        <v>5294</v>
+        <v>5396</v>
       </c>
       <c r="E315" s="1">
         <v>0</v>
@@ -19618,23 +19618,23 @@
         <v>440</v>
       </c>
       <c r="G315" s="1">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="H315" s="1">
         <f t="shared" si="45"/>
-        <v>271097</v>
+        <v>271089</v>
       </c>
       <c r="I315" s="1">
-        <v>27969</v>
+        <v>28511</v>
       </c>
       <c r="J315" s="1">
-        <v>95180</v>
+        <v>95681</v>
       </c>
       <c r="K315" s="1">
-        <v>123149</v>
+        <v>124192</v>
       </c>
       <c r="L315" s="1">
-        <v>5896</v>
+        <v>6008</v>
       </c>
       <c r="M315" s="1">
         <v>37495</v>
@@ -19644,15 +19644,15 @@
       </c>
       <c r="O315" s="1">
         <f t="shared" si="276"/>
-        <v>85654</v>
+        <v>86697</v>
       </c>
       <c r="P315" s="1">
         <f t="shared" ref="P315" si="295">L315-N315</f>
-        <v>5673</v>
+        <v>5785</v>
       </c>
       <c r="Q315" s="1">
         <f t="shared" ref="Q315" si="296">((SUM(L309:L315))/(SUM(K309:K315)))</f>
-        <v>5.2050775162735201E-2</v>
+        <v>5.2188025193759729E-2</v>
       </c>
       <c r="R315" s="1">
         <f t="shared" ref="R315" si="297">((SUM(N309:N315))/(SUM(M309:M315)))</f>
@@ -19660,15 +19660,15 @@
       </c>
       <c r="S315" s="1">
         <f t="shared" ref="S315" si="298">((SUM(P309:P315))/(SUM(O309:O315)))</f>
-        <v>6.9333721621588823E-2</v>
+        <v>6.9456155461867411E-2</v>
       </c>
       <c r="T315" s="1">
         <f t="shared" ref="T315" si="299">AVERAGE(K309:K315)</f>
-        <v>64170.857142857145</v>
+        <v>64347</v>
       </c>
       <c r="U315" s="1">
         <f t="shared" ref="U315" si="300">AVERAGE(O309:O315)</f>
-        <v>47093.142857142855</v>
+        <v>47269.285714285717</v>
       </c>
       <c r="V315" s="1">
         <f t="shared" ref="V315" si="301">AVERAGE(M309:M315)</f>
@@ -19676,7 +19676,7 @@
       </c>
       <c r="W315" s="1">
         <f t="shared" ref="W315" si="302">AVERAGE(P309:P315)</f>
-        <v>3265.1428571428573</v>
+        <v>3283.1428571428573</v>
       </c>
       <c r="X315" s="1">
         <f t="shared" ref="X315" si="303">AVERAGE(N309:N315)</f>
@@ -19689,13 +19689,13 @@
       </c>
       <c r="B316" s="1">
         <f t="shared" si="26"/>
-        <v>3434994</v>
+        <v>3435272</v>
       </c>
       <c r="C316" s="1">
-        <v>30307</v>
+        <v>31035</v>
       </c>
       <c r="D316" s="1">
-        <v>5448</v>
+        <v>5624</v>
       </c>
       <c r="E316" s="1">
         <v>0</v>
@@ -19704,23 +19704,23 @@
         <v>394</v>
       </c>
       <c r="G316" s="1">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="H316" s="1">
         <f t="shared" si="45"/>
-        <v>273935</v>
+        <v>273929</v>
       </c>
       <c r="I316" s="1">
-        <v>27870</v>
+        <v>28538</v>
       </c>
       <c r="J316" s="1">
-        <v>78796</v>
+        <v>79738</v>
       </c>
       <c r="K316" s="1">
-        <v>106666</v>
+        <v>108276</v>
       </c>
       <c r="L316" s="1">
-        <v>6070</v>
+        <v>6264</v>
       </c>
       <c r="M316" s="1">
         <v>29892</v>
@@ -19730,15 +19730,15 @@
       </c>
       <c r="O316" s="1">
         <f t="shared" si="276"/>
-        <v>76774</v>
+        <v>78384</v>
       </c>
       <c r="P316" s="1">
         <f t="shared" ref="P316" si="304">L316-N316</f>
-        <v>5903</v>
+        <v>6097</v>
       </c>
       <c r="Q316" s="1">
         <f t="shared" ref="Q316" si="305">((SUM(L310:L316))/(SUM(K310:K316)))</f>
-        <v>5.6283101598755304E-2</v>
+        <v>5.6640394066690615E-2</v>
       </c>
       <c r="R316" s="1">
         <f t="shared" ref="R316" si="306">((SUM(N310:N316))/(SUM(M310:M316)))</f>
@@ -19746,15 +19746,15 @@
       </c>
       <c r="S316" s="1">
         <f t="shared" ref="S316" si="307">((SUM(P310:P316))/(SUM(O310:O316)))</f>
-        <v>7.4289873974430917E-2</v>
+        <v>7.4617709414046648E-2</v>
       </c>
       <c r="T316" s="1">
         <f t="shared" ref="T316" si="308">AVERAGE(K310:K316)</f>
-        <v>63629.857142857145</v>
+        <v>64035.571428571428</v>
       </c>
       <c r="U316" s="1">
         <f t="shared" ref="U316" si="309">AVERAGE(O310:O316)</f>
-        <v>47099.285714285717</v>
+        <v>47505</v>
       </c>
       <c r="V316" s="1">
         <f t="shared" ref="V316" si="310">AVERAGE(M310:M316)</f>
@@ -19762,7 +19762,7 @@
       </c>
       <c r="W316" s="1">
         <f t="shared" ref="W316" si="311">AVERAGE(P310:P316)</f>
-        <v>3499</v>
+        <v>3544.7142857142858</v>
       </c>
       <c r="X316" s="1">
         <f t="shared" ref="X316" si="312">AVERAGE(N310:N316)</f>
@@ -19775,80 +19775,80 @@
       </c>
       <c r="B317" s="1">
         <f t="shared" si="26"/>
-        <v>3460511</v>
+        <v>3463241</v>
       </c>
       <c r="C317" s="1">
-        <v>25517</v>
+        <v>27969</v>
       </c>
       <c r="D317" s="1">
-        <v>4762</v>
+        <v>5194</v>
       </c>
       <c r="E317" s="1">
         <v>0</v>
       </c>
       <c r="F317" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G317" s="1">
-        <v>1787</v>
+        <v>1792</v>
       </c>
       <c r="H317" s="1">
         <f t="shared" si="45"/>
-        <v>275722</v>
+        <v>275721</v>
       </c>
       <c r="I317" s="1">
-        <v>23429</v>
+        <v>25727</v>
       </c>
       <c r="J317" s="1">
-        <v>62726</v>
+        <v>65822</v>
       </c>
       <c r="K317" s="1">
-        <v>86155</v>
+        <v>91549</v>
       </c>
       <c r="L317" s="1">
-        <v>5303</v>
+        <v>5800</v>
       </c>
       <c r="M317" s="1">
-        <v>23441</v>
+        <v>23442</v>
       </c>
       <c r="N317" s="1">
         <v>109</v>
       </c>
       <c r="O317" s="1">
         <f t="shared" si="276"/>
-        <v>62714</v>
+        <v>68107</v>
       </c>
       <c r="P317" s="1">
         <f t="shared" ref="P317" si="313">L317-N317</f>
-        <v>5194</v>
+        <v>5691</v>
       </c>
       <c r="Q317" s="1">
         <f t="shared" ref="Q317" si="314">((SUM(L311:L317))/(SUM(K311:K317)))</f>
-        <v>5.7169455618867465E-2</v>
+        <v>5.789211507558531E-2</v>
       </c>
       <c r="R317" s="1">
         <f t="shared" ref="R317" si="315">((SUM(N311:N317))/(SUM(M311:M317)))</f>
-        <v>5.0299228263834296E-3</v>
+        <v>5.0298824756327461E-3</v>
       </c>
       <c r="S317" s="1">
         <f t="shared" ref="S317" si="316">((SUM(P311:P317))/(SUM(O311:O317)))</f>
-        <v>7.5904632050480092E-2</v>
+        <v>7.6447200211751054E-2</v>
       </c>
       <c r="T317" s="1">
         <f t="shared" ref="T317" si="317">AVERAGE(K311:K317)</f>
-        <v>67366.142857142855</v>
+        <v>68541.28571428571</v>
       </c>
       <c r="U317" s="1">
         <f t="shared" ref="U317" si="318">AVERAGE(O311:O317)</f>
-        <v>49558.428571428572</v>
+        <v>50733.428571428572</v>
       </c>
       <c r="V317" s="1">
         <f t="shared" ref="V317" si="319">AVERAGE(M311:M317)</f>
-        <v>17807.714285714286</v>
+        <v>17807.857142857141</v>
       </c>
       <c r="W317" s="1">
         <f t="shared" ref="W317" si="320">AVERAGE(P311:P317)</f>
-        <v>3761.7142857142858</v>
+        <v>3878.4285714285716</v>
       </c>
       <c r="X317" s="1">
         <f t="shared" ref="X317" si="321">AVERAGE(N311:N317)</f>
@@ -19861,84 +19861,84 @@
       </c>
       <c r="B318" s="1">
         <f t="shared" si="26"/>
-        <v>3481897</v>
+        <v>3488012</v>
       </c>
       <c r="C318" s="1">
-        <v>21386</v>
+        <v>24771</v>
       </c>
       <c r="D318" s="1">
-        <v>3928</v>
+        <v>4471</v>
       </c>
       <c r="E318" s="1">
         <v>0</v>
       </c>
       <c r="F318" s="1">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="G318" s="1">
-        <v>3193</v>
+        <v>3273</v>
       </c>
       <c r="H318" s="1">
         <f t="shared" si="45"/>
-        <v>278915</v>
+        <v>278994</v>
       </c>
       <c r="I318" s="1">
-        <v>19684</v>
+        <v>22824</v>
       </c>
       <c r="J318" s="1">
-        <v>66289</v>
+        <v>71092</v>
       </c>
       <c r="K318" s="1">
-        <v>85973</v>
+        <v>93916</v>
       </c>
       <c r="L318" s="1">
-        <v>4414</v>
+        <v>5025</v>
       </c>
       <c r="M318" s="1">
-        <v>27210</v>
+        <v>27230</v>
       </c>
       <c r="N318" s="1">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O318" s="1">
         <f t="shared" si="276"/>
-        <v>58763</v>
+        <v>66686</v>
       </c>
       <c r="P318" s="1">
         <f t="shared" ref="P318" si="322">L318-N318</f>
-        <v>4322</v>
+        <v>4922</v>
       </c>
       <c r="Q318" s="1">
         <f t="shared" ref="Q318" si="323">((SUM(L312:L318))/(SUM(K312:K318)))</f>
-        <v>5.6030247943789961E-2</v>
+        <v>5.6951261251406975E-2</v>
       </c>
       <c r="R318" s="1">
         <f t="shared" ref="R318" si="324">((SUM(N312:N318))/(SUM(M312:M318)))</f>
-        <v>4.7322689042212634E-3</v>
+        <v>4.8045062955599733E-3</v>
       </c>
       <c r="S318" s="1">
         <f t="shared" ref="S318" si="325">((SUM(P312:P318))/(SUM(O312:O318)))</f>
-        <v>7.5390849738599691E-2</v>
+        <v>7.5870724517813612E-2</v>
       </c>
       <c r="T318" s="1">
         <f t="shared" ref="T318" si="326">AVERAGE(K312:K318)</f>
-        <v>78664.142857142855</v>
+        <v>80974</v>
       </c>
       <c r="U318" s="1">
         <f t="shared" ref="U318" si="327">AVERAGE(O312:O318)</f>
-        <v>57110</v>
+        <v>59416.857142857145</v>
       </c>
       <c r="V318" s="1">
         <f t="shared" ref="V318" si="328">AVERAGE(M312:M318)</f>
-        <v>21554.142857142859</v>
+        <v>21557.142857142859</v>
       </c>
       <c r="W318" s="1">
         <f t="shared" ref="W318" si="329">AVERAGE(P312:P318)</f>
-        <v>4305.5714285714284</v>
+        <v>4508</v>
       </c>
       <c r="X318" s="1">
         <f t="shared" ref="X318" si="330">AVERAGE(N312:N318)</f>
-        <v>102</v>
+        <v>103.57142857142857</v>
       </c>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.25">
@@ -19947,84 +19947,84 @@
       </c>
       <c r="B319" s="1">
         <f t="shared" si="26"/>
-        <v>3497669</v>
+        <v>3506802</v>
       </c>
       <c r="C319" s="1">
-        <v>15772</v>
+        <v>18790</v>
       </c>
       <c r="D319" s="1">
-        <v>2597</v>
+        <v>3048</v>
       </c>
       <c r="E319" s="1">
         <v>0</v>
       </c>
       <c r="F319" s="1">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G319" s="1">
-        <v>1331</v>
+        <v>1360</v>
       </c>
       <c r="H319" s="1">
         <f t="shared" si="45"/>
-        <v>280246</v>
+        <v>280354</v>
       </c>
       <c r="I319" s="1">
-        <v>14592</v>
+        <v>17440</v>
       </c>
       <c r="J319" s="1">
-        <v>45345</v>
+        <v>54208</v>
       </c>
       <c r="K319" s="1">
-        <v>59937</v>
+        <v>71648</v>
       </c>
       <c r="L319" s="1">
-        <v>3064</v>
+        <v>3595</v>
       </c>
       <c r="M319" s="1">
-        <v>17477</v>
+        <v>21887</v>
       </c>
       <c r="N319" s="1">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O319" s="1">
         <f t="shared" ref="O319" si="331">K319-M319</f>
-        <v>42460</v>
+        <v>49761</v>
       </c>
       <c r="P319" s="1">
         <f t="shared" ref="P319" si="332">L319-N319</f>
-        <v>3008</v>
+        <v>3523</v>
       </c>
       <c r="Q319" s="1">
         <f t="shared" ref="Q319" si="333">((SUM(L313:L319))/(SUM(K313:K319)))</f>
-        <v>5.4985459343812854E-2</v>
+        <v>5.5730368383934248E-2</v>
       </c>
       <c r="R319" s="1">
         <f t="shared" ref="R319" si="334">((SUM(N313:N319))/(SUM(M313:M319)))</f>
-        <v>4.6388294303696363E-3</v>
+        <v>4.6788785604215339E-3</v>
       </c>
       <c r="S319" s="1">
         <f t="shared" ref="S319" si="335">((SUM(P313:P319))/(SUM(O313:O319)))</f>
-        <v>7.5194796534442693E-2</v>
+        <v>7.56080507295641E-2</v>
       </c>
       <c r="T319" s="1">
         <f t="shared" ref="T319" si="336">AVERAGE(K313:K319)</f>
-        <v>78057</v>
+        <v>82037.857142857145</v>
       </c>
       <c r="U319" s="1">
         <f t="shared" ref="U319" si="337">AVERAGE(O313:O319)</f>
-        <v>55699.142857142855</v>
+        <v>59047</v>
       </c>
       <c r="V319" s="1">
         <f t="shared" ref="V319" si="338">AVERAGE(M313:M319)</f>
-        <v>22357.857142857141</v>
+        <v>22990.857142857141</v>
       </c>
       <c r="W319" s="1">
         <f t="shared" ref="W319" si="339">AVERAGE(P313:P319)</f>
-        <v>4188.2857142857147</v>
+        <v>4464.4285714285716</v>
       </c>
       <c r="X319" s="1">
         <f t="shared" ref="X319" si="340">AVERAGE(N313:N319)</f>
-        <v>103.71428571428571</v>
+        <v>107.57142857142857</v>
       </c>
     </row>
     <row r="320" spans="1:24" x14ac:dyDescent="0.25">
@@ -20033,84 +20033,170 @@
       </c>
       <c r="B320" s="1">
         <f t="shared" si="26"/>
-        <v>3498287</v>
+        <v>3511608</v>
       </c>
       <c r="C320" s="1">
-        <v>618</v>
+        <v>4806</v>
       </c>
       <c r="D320" s="1">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="E320" s="1">
         <v>0</v>
       </c>
       <c r="F320" s="1">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G320" s="1">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="H320" s="1">
         <f t="shared" si="45"/>
-        <v>280427</v>
+        <v>280736</v>
       </c>
       <c r="I320" s="1">
-        <v>568</v>
+        <v>4445</v>
       </c>
       <c r="J320" s="1">
-        <v>1493</v>
+        <v>12478</v>
       </c>
       <c r="K320" s="1">
-        <v>2061</v>
+        <v>16923</v>
       </c>
       <c r="L320" s="1">
-        <v>108</v>
+        <v>922</v>
       </c>
       <c r="M320" s="1">
-        <v>340</v>
+        <v>4551</v>
       </c>
       <c r="N320" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="O320" s="1">
         <f t="shared" ref="O320" si="341">K320-M320</f>
-        <v>1721</v>
+        <v>12372</v>
       </c>
       <c r="P320" s="1">
         <f t="shared" ref="P320" si="342">L320-N320</f>
-        <v>106</v>
+        <v>906</v>
       </c>
       <c r="Q320" s="1">
         <f t="shared" ref="Q320" si="343">((SUM(L314:L320))/(SUM(K314:K320)))</f>
-        <v>5.3439253640595256E-2</v>
+        <v>5.433790205987659E-2</v>
       </c>
       <c r="R320" s="1">
         <f t="shared" ref="R320" si="344">((SUM(N314:N320))/(SUM(M314:M320)))</f>
-        <v>4.6447698943077875E-3</v>
+        <v>4.6502702529823779E-3</v>
       </c>
       <c r="S320" s="1">
         <f t="shared" ref="S320" si="345">((SUM(P314:P320))/(SUM(O314:O320)))</f>
-        <v>7.3800227155861695E-2</v>
+        <v>7.4357375173316698E-2</v>
       </c>
       <c r="T320" s="1">
         <f t="shared" ref="T320" si="346">AVERAGE(K314:K320)</f>
-        <v>71662.142857142855</v>
+        <v>77764.71428571429</v>
       </c>
       <c r="U320" s="1">
         <f t="shared" ref="U320" si="347">AVERAGE(O314:O320)</f>
-        <v>50563.142857142855</v>
+        <v>55431.142857142855</v>
       </c>
       <c r="V320" s="1">
         <f t="shared" ref="V320" si="348">AVERAGE(M314:M320)</f>
-        <v>21099</v>
+        <v>22333.571428571428</v>
       </c>
       <c r="W320" s="1">
         <f t="shared" ref="W320" si="349">AVERAGE(P314:P320)</f>
-        <v>3731.5714285714284</v>
+        <v>4121.7142857142853</v>
       </c>
       <c r="X320" s="1">
         <f t="shared" ref="X320" si="350">AVERAGE(N314:N320)</f>
-        <v>98</v>
+        <v>103.85714285714286</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>44171</v>
+      </c>
+      <c r="B321" s="1">
+        <f t="shared" si="26"/>
+        <v>3511793</v>
+      </c>
+      <c r="C321" s="1">
+        <v>185</v>
+      </c>
+      <c r="D321" s="1">
+        <v>44</v>
+      </c>
+      <c r="E321" s="1">
+        <v>0</v>
+      </c>
+      <c r="F321" s="1">
+        <v>19</v>
+      </c>
+      <c r="G321" s="1">
+        <v>160</v>
+      </c>
+      <c r="H321" s="1">
+        <f t="shared" si="45"/>
+        <v>280896</v>
+      </c>
+      <c r="I321" s="1">
+        <v>158</v>
+      </c>
+      <c r="J321" s="1">
+        <v>378</v>
+      </c>
+      <c r="K321" s="1">
+        <v>536</v>
+      </c>
+      <c r="L321" s="1">
+        <v>56</v>
+      </c>
+      <c r="M321" s="1">
+        <v>3</v>
+      </c>
+      <c r="N321" s="1">
+        <v>0</v>
+      </c>
+      <c r="O321" s="1">
+        <f t="shared" ref="O321" si="351">K321-M321</f>
+        <v>533</v>
+      </c>
+      <c r="P321" s="1">
+        <f t="shared" ref="P321" si="352">L321-N321</f>
+        <v>56</v>
+      </c>
+      <c r="Q321" s="1">
+        <f t="shared" ref="Q321" si="353">((SUM(L315:L321))/(SUM(K315:K321)))</f>
+        <v>5.4571631429473022E-2</v>
+      </c>
+      <c r="R321" s="1">
+        <f t="shared" ref="R321" si="354">((SUM(N315:N321))/(SUM(M315:M321)))</f>
+        <v>4.775086505190311E-3</v>
+      </c>
+      <c r="S321" s="1">
+        <f t="shared" ref="S321" si="355">((SUM(P315:P321))/(SUM(O315:O321)))</f>
+        <v>7.4419374413857778E-2</v>
+      </c>
+      <c r="T321" s="1">
+        <f t="shared" ref="T321" si="356">AVERAGE(K315:K321)</f>
+        <v>72434.28571428571</v>
+      </c>
+      <c r="U321" s="1">
+        <f t="shared" ref="U321" si="357">AVERAGE(O315:O321)</f>
+        <v>51791.428571428572</v>
+      </c>
+      <c r="V321" s="1">
+        <f t="shared" ref="V321" si="358">AVERAGE(M315:M321)</f>
+        <v>20642.857142857141</v>
+      </c>
+      <c r="W321" s="1">
+        <f t="shared" ref="W321" si="359">AVERAGE(P315:P321)</f>
+        <v>3854.2857142857142</v>
+      </c>
+      <c r="X321" s="1">
+        <f t="shared" ref="X321" si="360">AVERAGE(N315:N321)</f>
+        <v>98.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -20120,9 +20206,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20240,25 +20329,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CD1846-3029-4F52-BECC-5108D881E251}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5909369-2ACE-46E0-B311-486A4CEBE17B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20280,9 +20359,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5909369-2ACE-46E0-B311-486A4CEBE17B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CD1846-3029-4F52-BECC-5108D881E251}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>